--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD353209-DDA9-4A96-AA0D-4B9058A2464D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A466BD-CA3F-439B-93FF-6BB053222C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +152,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3706,7 +3700,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Days since MARCH 1ST</a:t>
+                  <a:t>Days since MARCH 14TH</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4894,8 +4888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4968,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="45">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="D3" s="37">
         <v>5678</v>
@@ -4986,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="46">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="D4" s="38">
         <v>7036</v>
@@ -5006,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="47">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="D5" s="39">
         <v>9029</v>
@@ -5027,7 +5021,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="46">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="D6" s="38">
         <v>10265</v>
@@ -5048,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="47">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="D7" s="39">
         <v>13050</v>
@@ -5069,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="46">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="D8" s="38">
         <v>16139</v>
@@ -5090,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="47">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D9" s="39">
         <v>18829</v>
@@ -5111,7 +5105,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="46">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="D10" s="38">
         <v>21992</v>
@@ -5131,7 +5125,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="47">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D11" s="39">
         <v>24421</v>
@@ -5151,7 +5145,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="46">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="D12" s="38">
         <v>29470</v>
@@ -5171,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="47">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="D13" s="39">
         <v>35273</v>
@@ -5197,7 +5191,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="46">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="D14" s="38">
         <v>40501</v>
@@ -5217,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="47">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D15" s="39">
         <v>46406</v>
@@ -5237,7 +5231,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="46">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="33">
@@ -5255,7 +5249,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="47">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="34">
@@ -5277,7 +5271,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="46">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="33">
@@ -5295,7 +5289,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="47">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="34">
@@ -5313,7 +5307,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="46">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="33">
@@ -5331,7 +5325,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="47">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="34">
@@ -5349,7 +5343,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="46">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="33">
@@ -5367,7 +5361,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="47">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="34">
@@ -5392,7 +5386,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="46">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="33">
@@ -5417,7 +5411,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="47">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="34">
@@ -5442,7 +5436,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="46">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="33">
@@ -5467,7 +5461,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="47">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="34">
@@ -5492,7 +5486,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="46">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="33">
@@ -5517,7 +5511,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="47">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="34">
@@ -5542,7 +5536,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="46">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="33">
@@ -5567,7 +5561,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="47">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="34">
@@ -5594,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="46">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="33">
@@ -5623,7 +5617,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="47">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="34">
@@ -5651,7 +5645,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="46">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="33">
@@ -5679,7 +5673,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="47">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="34">
@@ -5705,7 +5699,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="46">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="33">
@@ -5731,7 +5725,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="47">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="34">
@@ -5757,7 +5751,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="46">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="48">
@@ -5784,7 +5778,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="47">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="34">
@@ -5810,7 +5804,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="46">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="33">
@@ -5836,7 +5830,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="47">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="34">
@@ -5862,7 +5856,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="46">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="33">
@@ -5892,7 +5886,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="47">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="34">
@@ -5918,7 +5912,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="46">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="33">
@@ -5944,7 +5938,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="47">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="34">
@@ -5970,7 +5964,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="46">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="33">
@@ -5996,7 +5990,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="47">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="34">
@@ -6022,7 +6016,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="46">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="33">
@@ -6048,7 +6042,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="47">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="34">
@@ -6074,7 +6068,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="46">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="D50" s="40"/>
       <c r="E50" s="33">
@@ -6100,7 +6094,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="47">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="34">
@@ -6126,7 +6120,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="46">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="D52" s="40"/>
       <c r="E52" s="33">
@@ -6152,7 +6146,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="47">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="34">
@@ -6178,7 +6172,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="46">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="33">
@@ -6204,7 +6198,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="47">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="34">
@@ -6230,7 +6224,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="46">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="33">
@@ -6256,7 +6250,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="47">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="34">
@@ -6282,7 +6276,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="46">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="33">
@@ -6308,7 +6302,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="47">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="34">
@@ -6328,7 +6322,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="46">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="33">
@@ -6348,7 +6342,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="47">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="34">
@@ -6368,7 +6362,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="46">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="33">
@@ -6388,7 +6382,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="47">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="34">
@@ -6408,7 +6402,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="46">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="33">
@@ -6428,7 +6422,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="47">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="34">
@@ -6448,7 +6442,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="46">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="D66" s="40"/>
       <c r="E66" s="33">
@@ -6468,7 +6462,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="47">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="34">
@@ -6488,7 +6482,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="46">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="33">
@@ -6508,7 +6502,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="47">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="34">
@@ -6528,7 +6522,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="46">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="33">
@@ -6548,7 +6542,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="47">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="34">
@@ -6568,7 +6562,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="46">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="33">
@@ -6588,7 +6582,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="47">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="34">
@@ -6608,7 +6602,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="46">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="D74" s="40"/>
       <c r="E74" s="33">
@@ -6628,7 +6622,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="47">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="34">
@@ -6648,7 +6642,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="46">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="33">
@@ -6668,7 +6662,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="47">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="34">
@@ -6688,7 +6682,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="46">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="33">
@@ -6708,7 +6702,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="47">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="34">
@@ -6728,7 +6722,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="46">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="33">
@@ -6748,7 +6742,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="47">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="34">
@@ -6768,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="46">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="D82" s="40"/>
       <c r="E82" s="33">
@@ -6788,7 +6782,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="47">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="34">
@@ -6808,7 +6802,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="46">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="33">
@@ -6828,7 +6822,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="47">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="34">
@@ -6848,7 +6842,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="46">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="D86" s="40"/>
       <c r="E86" s="33">
@@ -6868,7 +6862,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="47">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="34">
@@ -6888,7 +6882,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="46">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="33">
@@ -6908,7 +6902,7 @@
         <v>86</v>
       </c>
       <c r="C89" s="47">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="34">
@@ -6928,7 +6922,7 @@
         <v>87</v>
       </c>
       <c r="C90" s="46">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="33">
@@ -6948,7 +6942,7 @@
         <v>88</v>
       </c>
       <c r="C91" s="47">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="34">
@@ -6968,7 +6962,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="46">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="33">
@@ -6988,7 +6982,7 @@
         <v>90</v>
       </c>
       <c r="C93" s="47">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="34">
@@ -7008,7 +7002,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="46">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="D94" s="40"/>
       <c r="E94" s="33">
@@ -7028,7 +7022,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="47">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="34">
@@ -7048,7 +7042,7 @@
         <v>93</v>
       </c>
       <c r="C96" s="46">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="33">
@@ -7068,7 +7062,7 @@
         <v>94</v>
       </c>
       <c r="C97" s="47">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="34">
@@ -7088,7 +7082,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="46">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="33">
@@ -7108,7 +7102,7 @@
         <v>96</v>
       </c>
       <c r="C99" s="47">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="34">
@@ -7128,7 +7122,7 @@
         <v>97</v>
       </c>
       <c r="C100" s="46">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="33">
@@ -7148,7 +7142,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="47">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="34">
@@ -7168,7 +7162,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="46">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="33">
@@ -7188,7 +7182,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="47">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="34">
@@ -7208,7 +7202,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="46">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="48">
@@ -7228,7 +7222,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="47">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="34">
@@ -7248,7 +7242,7 @@
         <v>103</v>
       </c>
       <c r="C106" s="46">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="33">
@@ -7268,7 +7262,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="47">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="34">
@@ -7288,7 +7282,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="46">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="33">
@@ -7308,7 +7302,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="47">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="D109" s="41"/>
       <c r="E109" s="34">
@@ -7328,7 +7322,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="46">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="33">
@@ -7348,7 +7342,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="47">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="D111" s="41"/>
       <c r="E111" s="34">
@@ -7368,7 +7362,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="46">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="33">
@@ -7388,7 +7382,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="47">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="34">
@@ -7408,7 +7402,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="46">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="33">
@@ -7428,7 +7422,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="47">
-        <v>44015</v>
+        <v>44016</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="34">
@@ -7448,7 +7442,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="46">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="33">
@@ -7468,7 +7462,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="47">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="34">
@@ -7488,7 +7482,7 @@
         <v>115</v>
       </c>
       <c r="C118" s="46">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="D118" s="40"/>
       <c r="E118" s="33">
@@ -7508,7 +7502,7 @@
         <v>116</v>
       </c>
       <c r="C119" s="47">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="34">
@@ -7528,7 +7522,7 @@
         <v>117</v>
       </c>
       <c r="C120" s="46">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="D120" s="40"/>
       <c r="E120" s="33">
@@ -7548,7 +7542,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="47">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="34">
@@ -7568,7 +7562,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="46">
-        <v>44022</v>
+        <v>44023</v>
       </c>
       <c r="D122" s="40"/>
       <c r="E122" s="33">
@@ -7588,7 +7582,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="47">
-        <v>44023</v>
+        <v>44024</v>
       </c>
       <c r="D123" s="41"/>
       <c r="E123" s="34">
@@ -7608,7 +7602,7 @@
         <v>121</v>
       </c>
       <c r="C124" s="46">
-        <v>44024</v>
+        <v>44025</v>
       </c>
       <c r="D124" s="40"/>
       <c r="E124" s="33">
@@ -7628,7 +7622,7 @@
         <v>122</v>
       </c>
       <c r="C125" s="47">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="D125" s="41"/>
       <c r="E125" s="34">
@@ -7648,7 +7642,7 @@
         <v>123</v>
       </c>
       <c r="C126" s="46">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="D126" s="40"/>
       <c r="E126" s="33">
@@ -7668,7 +7662,7 @@
         <v>124</v>
       </c>
       <c r="C127" s="47">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="34">
@@ -7688,7 +7682,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="46">
-        <v>44028</v>
+        <v>44029</v>
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="33">
@@ -7708,7 +7702,7 @@
         <v>126</v>
       </c>
       <c r="C129" s="47">
-        <v>44029</v>
+        <v>44030</v>
       </c>
       <c r="D129" s="41"/>
       <c r="E129" s="34">
@@ -7728,7 +7722,7 @@
         <v>127</v>
       </c>
       <c r="C130" s="46">
-        <v>44030</v>
+        <v>44031</v>
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="33">
@@ -7748,7 +7742,7 @@
         <v>128</v>
       </c>
       <c r="C131" s="47">
-        <v>44031</v>
+        <v>44032</v>
       </c>
       <c r="D131" s="41"/>
       <c r="E131" s="34">
@@ -7768,7 +7762,7 @@
         <v>129</v>
       </c>
       <c r="C132" s="46">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="D132" s="40"/>
       <c r="E132" s="33">
@@ -7788,7 +7782,7 @@
         <v>130</v>
       </c>
       <c r="C133" s="47">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="D133" s="41"/>
       <c r="E133" s="34">
@@ -7808,7 +7802,7 @@
         <v>131</v>
       </c>
       <c r="C134" s="46">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="D134" s="40"/>
       <c r="E134" s="33">
@@ -7828,7 +7822,7 @@
         <v>132</v>
       </c>
       <c r="C135" s="47">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="D135" s="41"/>
       <c r="E135" s="34">
@@ -7848,7 +7842,7 @@
         <v>133</v>
       </c>
       <c r="C136" s="46">
-        <v>44036</v>
+        <v>44037</v>
       </c>
       <c r="D136" s="40"/>
       <c r="E136" s="33">
@@ -7868,7 +7862,7 @@
         <v>134</v>
       </c>
       <c r="C137" s="47">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="D137" s="41"/>
       <c r="E137" s="34">
@@ -7888,7 +7882,7 @@
         <v>135</v>
       </c>
       <c r="C138" s="46">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="D138" s="40"/>
       <c r="E138" s="33">
@@ -7908,7 +7902,7 @@
         <v>136</v>
       </c>
       <c r="C139" s="47">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="34">
@@ -7928,7 +7922,7 @@
         <v>137</v>
       </c>
       <c r="C140" s="46">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="D140" s="40"/>
       <c r="E140" s="33">
@@ -7948,7 +7942,7 @@
         <v>138</v>
       </c>
       <c r="C141" s="47">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="D141" s="41"/>
       <c r="E141" s="34">
@@ -7968,7 +7962,7 @@
         <v>139</v>
       </c>
       <c r="C142" s="46">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="D142" s="40"/>
       <c r="E142" s="33">
@@ -7988,7 +7982,7 @@
         <v>140</v>
       </c>
       <c r="C143" s="47">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="D143" s="41"/>
       <c r="E143" s="34">
@@ -8008,7 +8002,7 @@
         <v>141</v>
       </c>
       <c r="C144" s="46">
-        <v>44044</v>
+        <v>44045</v>
       </c>
       <c r="D144" s="40"/>
       <c r="E144" s="33">
@@ -8028,7 +8022,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="47">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="D145" s="41"/>
       <c r="E145" s="34">
@@ -8048,7 +8042,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="46">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="D146" s="40"/>
       <c r="E146" s="33">
@@ -8068,7 +8062,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="47">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="D147" s="41"/>
       <c r="E147" s="34">
@@ -8088,7 +8082,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="46">
-        <v>44048</v>
+        <v>44049</v>
       </c>
       <c r="D148" s="40"/>
       <c r="E148" s="33">
@@ -8108,7 +8102,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="47">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="D149" s="41"/>
       <c r="E149" s="34">
@@ -8128,7 +8122,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="46">
-        <v>44050</v>
+        <v>44051</v>
       </c>
       <c r="D150" s="40"/>
       <c r="E150" s="33">
@@ -8148,7 +8142,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="47">
-        <v>44051</v>
+        <v>44052</v>
       </c>
       <c r="D151" s="41"/>
       <c r="E151" s="34">
@@ -8168,7 +8162,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="46">
-        <v>44052</v>
+        <v>44053</v>
       </c>
       <c r="D152" s="40"/>
       <c r="E152" s="33">
@@ -8188,7 +8182,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="47">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="D153" s="41"/>
       <c r="E153" s="34">
@@ -8208,7 +8202,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="46">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="D154" s="40"/>
       <c r="E154" s="33">
@@ -8228,7 +8222,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="47">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="D155" s="41"/>
       <c r="E155" s="34">
@@ -8248,7 +8242,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="46">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="33">
@@ -8268,7 +8262,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="47">
-        <v>44057</v>
+        <v>44058</v>
       </c>
       <c r="D157" s="41"/>
       <c r="E157" s="34">
@@ -8288,7 +8282,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="46">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="D158" s="40"/>
       <c r="E158" s="33">
@@ -8308,7 +8302,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="47">
-        <v>44059</v>
+        <v>44060</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="34">
@@ -8328,7 +8322,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="46">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="D160" s="40"/>
       <c r="E160" s="33">
@@ -8348,7 +8342,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="47">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D161" s="41"/>
       <c r="E161" s="34">
@@ -8368,7 +8362,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="46">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="D162" s="40"/>
       <c r="E162" s="33">
@@ -8388,7 +8382,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="47">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="34">
@@ -8408,7 +8402,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="46">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="D164" s="40"/>
       <c r="E164" s="33">
@@ -8428,7 +8422,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="47">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="D165" s="41"/>
       <c r="E165" s="34">
@@ -8448,7 +8442,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="46">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="D166" s="40"/>
       <c r="E166" s="33">
@@ -8468,7 +8462,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="47">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="D167" s="41"/>
       <c r="E167" s="34">
@@ -8488,7 +8482,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="46">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="D168" s="40"/>
       <c r="E168" s="33">
@@ -8508,7 +8502,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="47">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="D169" s="41"/>
       <c r="E169" s="34">
@@ -8528,7 +8522,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="46">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="D170" s="40"/>
       <c r="E170" s="33">
@@ -8548,7 +8542,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="47">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="D171" s="41"/>
       <c r="E171" s="34">
@@ -8568,7 +8562,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="46">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="D172" s="40"/>
       <c r="E172" s="33">
@@ -8588,7 +8582,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="47">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="D173" s="41"/>
       <c r="E173" s="34">
@@ -8608,7 +8602,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="46">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="D174" s="40"/>
       <c r="E174" s="33">
@@ -8628,7 +8622,7 @@
         <v>172</v>
       </c>
       <c r="C175" s="47">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="D175" s="41"/>
       <c r="E175" s="34">
@@ -8648,7 +8642,7 @@
         <v>173</v>
       </c>
       <c r="C176" s="46">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="D176" s="40"/>
       <c r="E176" s="33">
@@ -8668,7 +8662,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="47">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="D177" s="41"/>
       <c r="E177" s="34">
@@ -8688,7 +8682,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="46">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="D178" s="40"/>
       <c r="E178" s="33">
@@ -8708,7 +8702,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="47">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="34">
@@ -8728,7 +8722,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="46">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="D180" s="40"/>
       <c r="E180" s="33">
@@ -8748,7 +8742,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="47">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="34">
@@ -8768,7 +8762,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="46">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="D182" s="40"/>
       <c r="E182" s="33">
@@ -8788,7 +8782,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="47">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="D183" s="41"/>
       <c r="E183" s="34">
@@ -8808,7 +8802,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="50">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="D184" s="42"/>
       <c r="E184" s="35">

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A466BD-CA3F-439B-93FF-6BB053222C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B33ED1-C79D-4AF0-B482-E81E96B7741C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,8 +38,6 @@
     <author>tc={37B875F0-A7BE-4BCB-97FA-7AD1FBBC189F}</author>
     <author>tc={FA19A8AE-5BAC-4975-9B07-9B2642FA6975}</author>
     <author>tc={924C2A79-A619-4B5F-85E7-F0CEDB3A9F96}</author>
-    <author>tc={4C956C28-689D-4E4E-8F79-477FAA484AC6}</author>
-    <author>tc={2B1FB2C8-E25D-458D-B5E9-038299C8B1C4}</author>
     <author>tc={9B53482F-F4BC-41E2-8946-0D9AAC461CD3}</author>
   </authors>
   <commentList>
@@ -68,23 +66,7 @@
 14/03/2020</t>
       </text>
     </comment>
-    <comment ref="F37" authorId="3" shapeId="0" xr:uid="{4C956C28-689D-4E4E-8F79-477FAA484AC6}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    LAST MAX</t>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="4" shapeId="0" xr:uid="{2B1FB2C8-E25D-458D-B5E9-038299C8B1C4}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    ORIGINAL MAX</t>
-      </text>
-    </comment>
-    <comment ref="D50" authorId="5" shapeId="0" xr:uid="{9B53482F-F4BC-41E2-8946-0D9AAC461CD3}">
+    <comment ref="D50" authorId="3" shapeId="0" xr:uid="{9B53482F-F4BC-41E2-8946-0D9AAC461CD3}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,6 +590,12 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,25 +700,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1288,307 +1270,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5852</c:v>
+                  <c:v>5961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6770</c:v>
+                  <c:v>6884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8382</c:v>
+                  <c:v>8498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10745</c:v>
+                  <c:v>10849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12206</c:v>
+                  <c:v>12286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15494</c:v>
+                  <c:v>15508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19128</c:v>
+                  <c:v>19025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22280</c:v>
+                  <c:v>22034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25975</c:v>
+                  <c:v>25522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28798</c:v>
+                  <c:v>28144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34647</c:v>
+                  <c:v>33524</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40610</c:v>
+                  <c:v>37744</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47435</c:v>
+                  <c:v>42044</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55188</c:v>
+                  <c:v>46331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63922</c:v>
+                  <c:v>50508</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73670</c:v>
+                  <c:v>54483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84436</c:v>
+                  <c:v>58173</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96190</c:v>
+                  <c:v>61509</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108862</c:v>
+                  <c:v>64440</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>122339</c:v>
+                  <c:v>66932</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>136464</c:v>
+                  <c:v>68968</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>151041</c:v>
+                  <c:v>70544</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>165839</c:v>
+                  <c:v>71670</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>180605</c:v>
+                  <c:v>72364</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>195077</c:v>
+                  <c:v>72650</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>208996</c:v>
+                  <c:v>72558</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>222120</c:v>
+                  <c:v>72119</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>234234</c:v>
+                  <c:v>71365</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>245160</c:v>
+                  <c:v>70327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>254760</c:v>
+                  <c:v>69036</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>262937</c:v>
+                  <c:v>67520</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>269636</c:v>
+                  <c:v>65807</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>274839</c:v>
+                  <c:v>63921</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>278558</c:v>
+                  <c:v>61885</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>280834</c:v>
+                  <c:v>59721</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>281726</c:v>
+                  <c:v>57448</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>281309</c:v>
+                  <c:v>55085</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>279668</c:v>
+                  <c:v>52648</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>276894</c:v>
+                  <c:v>50154</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>273081</c:v>
+                  <c:v>47618</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>268322</c:v>
+                  <c:v>45054</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>262709</c:v>
+                  <c:v>42476</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>256332</c:v>
+                  <c:v>39897</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>249277</c:v>
+                  <c:v>37330</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>241625</c:v>
+                  <c:v>34787</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>233454</c:v>
+                  <c:v>32280</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>224838</c:v>
+                  <c:v>29820</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>215847</c:v>
+                  <c:v>27419</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>206547</c:v>
+                  <c:v>25087</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>197001</c:v>
+                  <c:v>22835</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>187269</c:v>
+                  <c:v>20672</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>177409</c:v>
+                  <c:v>18606</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>167476</c:v>
+                  <c:v>16645</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>157524</c:v>
+                  <c:v>14797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>147604</c:v>
+                  <c:v>13066</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>137765</c:v>
+                  <c:v>11457</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>128056</c:v>
+                  <c:v>9972</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>118522</c:v>
+                  <c:v>8613</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>109207</c:v>
+                  <c:v>7380</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>100152</c:v>
+                  <c:v>6271</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>91397</c:v>
+                  <c:v>5283</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>82978</c:v>
+                  <c:v>4411</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>74928</c:v>
+                  <c:v>3649</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>67277</c:v>
+                  <c:v>2989</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>60050</c:v>
+                  <c:v>2425</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>53267</c:v>
+                  <c:v>1947</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>46945</c:v>
+                  <c:v>1547</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>41094</c:v>
+                  <c:v>1216</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35719</c:v>
+                  <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>30820</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26391</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>22420</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18891</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15784</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13073</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10731</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8728</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7032</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5611</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4433</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3467</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2683</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2055</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1557</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1167</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>865</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>634</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>459</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>328</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>232</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>112</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>51</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>0</c:v>
@@ -1847,32 +1829,20 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>26/3/2020</c:v>
+            <c:v>28/3/2020</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2436,250 +2406,250 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5810</c:v>
+                  <c:v>5883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6722</c:v>
+                  <c:v>6795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8323</c:v>
+                  <c:v>8391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10670</c:v>
+                  <c:v>10719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12121</c:v>
+                  <c:v>12144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15388</c:v>
+                  <c:v>15341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18999</c:v>
+                  <c:v>18837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22132</c:v>
+                  <c:v>21833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25804</c:v>
+                  <c:v>25310</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28611</c:v>
+                  <c:v>27929</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34427</c:v>
+                  <c:v>33309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41071</c:v>
+                  <c:v>39345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47015</c:v>
+                  <c:v>44642</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53689</c:v>
+                  <c:v>50494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61859</c:v>
+                  <c:v>55126</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70944</c:v>
+                  <c:v>57845</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80949</c:v>
+                  <c:v>61190</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>91848</c:v>
+                  <c:v>64117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103581</c:v>
+                  <c:v>66573</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116050</c:v>
+                  <c:v>68519</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>129117</c:v>
+                  <c:v>69932</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>142607</c:v>
+                  <c:v>70802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>156311</c:v>
+                  <c:v>71131</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>169997</c:v>
+                  <c:v>70930</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>183417</c:v>
+                  <c:v>70218</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>196320</c:v>
+                  <c:v>69020</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>208463</c:v>
+                  <c:v>67365</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>219624</c:v>
+                  <c:v>65287</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>229608</c:v>
+                  <c:v>62821</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>238253</c:v>
+                  <c:v>60006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>245436</c:v>
+                  <c:v>56882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>251071</c:v>
+                  <c:v>53493</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>255108</c:v>
+                  <c:v>49884</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>257532</c:v>
+                  <c:v>46103</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>258357</c:v>
+                  <c:v>42202</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>257621</c:v>
+                  <c:v>38234</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>255383</c:v>
+                  <c:v>34254</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>251717</c:v>
+                  <c:v>30319</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>246710</c:v>
+                  <c:v>26486</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>240458</c:v>
+                  <c:v>22811</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>233063</c:v>
+                  <c:v>19345</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>224634</c:v>
+                  <c:v>16134</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>215282</c:v>
+                  <c:v>13216</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>205122</c:v>
+                  <c:v>10618</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>194272</c:v>
+                  <c:v>8356</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>182852</c:v>
+                  <c:v>6433</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>170985</c:v>
+                  <c:v>4838</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>158796</c:v>
+                  <c:v>3550</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>146412</c:v>
+                  <c:v>2538</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>133961</c:v>
+                  <c:v>1766</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>121571</c:v>
+                  <c:v>1194</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>109369</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>97481</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>86025</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>75113</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>64845</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>55307</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>46568</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38677</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31661</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25523</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20246</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15790</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>12098</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6714</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4855</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2384</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1072</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>694</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>438</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>270</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>94</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>53</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
@@ -2998,29 +2968,19 @@
             <c:v>REAL</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3621,6 +3581,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>46406</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3647,7 +3610,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
+          <c:max val="70"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3779,7 +3742,7 @@
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300000"/>
+          <c:max val="80000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4872,12 +4835,6 @@
     <text>QUARANTINE BEGINING
 14/03/2020</text>
   </threadedComment>
-  <threadedComment ref="F37" dT="2020-03-27T08:20:41.96" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{4C956C28-689D-4E4E-8F79-477FAA484AC6}">
-    <text>LAST MAX</text>
-  </threadedComment>
-  <threadedComment ref="E38" dT="2020-03-27T08:19:56.44" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{2B1FB2C8-E25D-458D-B5E9-038299C8B1C4}">
-    <text>ORIGINAL MAX</text>
-  </threadedComment>
   <threadedComment ref="D50" dT="2020-03-23T21:52:10.04" personId="{1FD46492-6B6C-48C9-8745-353F70AF58A1}" id="{9B53482F-F4BC-41E2-8946-0D9AAC461CD3}">
     <text>1 month after state emergency</text>
   </threadedComment>
@@ -4888,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4953,7 +4910,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="25">
-        <v>43916</v>
+        <v>43918</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -4968,10 +4925,10 @@
         <v>5678</v>
       </c>
       <c r="E3" s="31">
-        <v>5852</v>
+        <v>5961</v>
       </c>
       <c r="F3" s="27">
-        <v>5810</v>
+        <v>5883</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4986,10 +4943,10 @@
         <v>7036</v>
       </c>
       <c r="E4" s="32">
-        <v>6770</v>
+        <v>6884</v>
       </c>
       <c r="F4" s="28">
-        <v>6722</v>
+        <v>6795</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -5006,10 +4963,10 @@
         <v>9029</v>
       </c>
       <c r="E5" s="16">
-        <v>8382</v>
+        <v>8498</v>
       </c>
       <c r="F5" s="22">
-        <v>8323</v>
+        <v>8391</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -5027,10 +4984,10 @@
         <v>10265</v>
       </c>
       <c r="E6" s="32">
-        <v>10745</v>
+        <v>10849</v>
       </c>
       <c r="F6" s="28">
-        <v>10670</v>
+        <v>10719</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5048,10 +5005,10 @@
         <v>13050</v>
       </c>
       <c r="E7" s="16">
-        <v>12206</v>
+        <v>12286</v>
       </c>
       <c r="F7" s="22">
-        <v>12121</v>
+        <v>12144</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5069,10 +5026,10 @@
         <v>16139</v>
       </c>
       <c r="E8" s="32">
-        <v>15494</v>
+        <v>15508</v>
       </c>
       <c r="F8" s="28">
-        <v>15388</v>
+        <v>15341</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5090,10 +5047,10 @@
         <v>18829</v>
       </c>
       <c r="E9" s="16">
-        <v>19128</v>
+        <v>19025</v>
       </c>
       <c r="F9" s="22">
-        <v>18999</v>
+        <v>18837</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5111,10 +5068,10 @@
         <v>21992</v>
       </c>
       <c r="E10" s="32">
-        <v>22280</v>
+        <v>22034</v>
       </c>
       <c r="F10" s="28">
-        <v>22132</v>
+        <v>21833</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5131,10 +5088,10 @@
         <v>24421</v>
       </c>
       <c r="E11" s="16">
-        <v>25975</v>
+        <v>25522</v>
       </c>
       <c r="F11" s="22">
-        <v>25804</v>
+        <v>25310</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5151,10 +5108,10 @@
         <v>29470</v>
       </c>
       <c r="E12" s="32">
-        <v>28798</v>
+        <v>28144</v>
       </c>
       <c r="F12" s="28">
-        <v>28611</v>
+        <v>27929</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5171,10 +5128,10 @@
         <v>35273</v>
       </c>
       <c r="E13" s="16">
-        <v>34647</v>
+        <v>33524</v>
       </c>
       <c r="F13" s="22">
-        <v>34427</v>
+        <v>33309</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5197,10 +5154,10 @@
         <v>40501</v>
       </c>
       <c r="E14" s="32">
-        <v>40610</v>
+        <v>37744</v>
       </c>
       <c r="F14" s="28">
-        <v>41071</v>
+        <v>39345</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5217,10 +5174,10 @@
         <v>46406</v>
       </c>
       <c r="E15" s="16">
-        <v>47435</v>
+        <v>42044</v>
       </c>
       <c r="F15" s="22">
-        <v>47015</v>
+        <v>44642</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5233,12 +5190,14 @@
       <c r="C16" s="46">
         <v>43917</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="40">
+        <v>51224</v>
+      </c>
       <c r="E16" s="33">
-        <v>55188</v>
+        <v>46331</v>
       </c>
       <c r="F16" s="29">
-        <v>53689</v>
+        <v>50494</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5253,10 +5212,10 @@
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="34">
-        <v>63922</v>
+        <v>50508</v>
       </c>
       <c r="F17" s="15">
-        <v>61859</v>
+        <v>55126</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5275,10 +5234,10 @@
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="33">
-        <v>73670</v>
+        <v>54483</v>
       </c>
       <c r="F18" s="29">
-        <v>70944</v>
+        <v>57845</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5293,10 +5252,10 @@
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="34">
-        <v>84436</v>
+        <v>58173</v>
       </c>
       <c r="F19" s="15">
-        <v>80949</v>
+        <v>61190</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5311,10 +5270,10 @@
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="33">
-        <v>96190</v>
+        <v>61509</v>
       </c>
       <c r="F20" s="29">
-        <v>91848</v>
+        <v>64117</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5329,10 +5288,10 @@
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="34">
-        <v>108862</v>
+        <v>64440</v>
       </c>
       <c r="F21" s="15">
-        <v>103581</v>
+        <v>66573</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5347,10 +5306,10 @@
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="33">
-        <v>122339</v>
+        <v>66932</v>
       </c>
       <c r="F22" s="29">
-        <v>116050</v>
+        <v>68519</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5365,10 +5324,10 @@
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="34">
-        <v>136464</v>
+        <v>68968</v>
       </c>
       <c r="F23" s="15">
-        <v>129117</v>
+        <v>69932</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5390,10 +5349,10 @@
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="33">
-        <v>151041</v>
+        <v>70544</v>
       </c>
       <c r="F24" s="29">
-        <v>142607</v>
+        <v>70802</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5415,10 +5374,10 @@
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="34">
-        <v>165839</v>
-      </c>
-      <c r="F25" s="15">
-        <v>156311</v>
+        <v>71670</v>
+      </c>
+      <c r="F25" s="49">
+        <v>71131</v>
       </c>
       <c r="H25" s="5"/>
       <c r="M25" s="6"/>
@@ -5440,10 +5399,10 @@
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="33">
-        <v>180605</v>
+        <v>72364</v>
       </c>
       <c r="F26" s="29">
-        <v>169997</v>
+        <v>70930</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
@@ -5464,11 +5423,11 @@
         <v>43928</v>
       </c>
       <c r="D27" s="41"/>
-      <c r="E27" s="34">
-        <v>195077</v>
+      <c r="E27" s="48">
+        <v>72650</v>
       </c>
       <c r="F27" s="15">
-        <v>183417</v>
+        <v>70218</v>
       </c>
       <c r="H27" s="5"/>
       <c r="M27" s="6"/>
@@ -5490,10 +5449,10 @@
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="33">
-        <v>208996</v>
+        <v>72558</v>
       </c>
       <c r="F28" s="29">
-        <v>196320</v>
+        <v>69020</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5515,10 +5474,10 @@
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="34">
-        <v>222120</v>
+        <v>72119</v>
       </c>
       <c r="F29" s="15">
-        <v>208463</v>
+        <v>67365</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5540,10 +5499,10 @@
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="33">
-        <v>234234</v>
+        <v>71365</v>
       </c>
       <c r="F30" s="29">
-        <v>219624</v>
+        <v>65287</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5565,10 +5524,10 @@
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="34">
-        <v>245160</v>
+        <v>70327</v>
       </c>
       <c r="F31" s="15">
-        <v>229608</v>
+        <v>62821</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5592,10 +5551,10 @@
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="33">
-        <v>254760</v>
+        <v>69036</v>
       </c>
       <c r="F32" s="29">
-        <v>238253</v>
+        <v>60006</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="8"/>
@@ -5621,10 +5580,10 @@
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="34">
-        <v>262937</v>
+        <v>67520</v>
       </c>
       <c r="F33" s="15">
-        <v>245436</v>
+        <v>56882</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="8"/>
@@ -5649,10 +5608,10 @@
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="33">
-        <v>269636</v>
+        <v>65807</v>
       </c>
       <c r="F34" s="29">
-        <v>251071</v>
+        <v>53493</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="8"/>
@@ -5677,10 +5636,10 @@
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="34">
-        <v>274839</v>
+        <v>63921</v>
       </c>
       <c r="F35" s="15">
-        <v>255108</v>
+        <v>49884</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="8"/>
@@ -5703,10 +5662,10 @@
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="33">
-        <v>278558</v>
+        <v>61885</v>
       </c>
       <c r="F36" s="29">
-        <v>257532</v>
+        <v>46103</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5729,10 +5688,10 @@
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="34">
-        <v>280834</v>
-      </c>
-      <c r="F37" s="49">
-        <v>258357</v>
+        <v>59721</v>
+      </c>
+      <c r="F37" s="51">
+        <v>42202</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5754,11 +5713,11 @@
         <v>43939</v>
       </c>
       <c r="D38" s="40"/>
-      <c r="E38" s="48">
-        <v>281726</v>
+      <c r="E38" s="33">
+        <v>57448</v>
       </c>
       <c r="F38" s="29">
-        <v>257621</v>
+        <v>38234</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5782,10 +5741,10 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="34">
-        <v>281309</v>
+        <v>55085</v>
       </c>
       <c r="F39" s="15">
-        <v>255383</v>
+        <v>34254</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5808,10 +5767,10 @@
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="33">
-        <v>279668</v>
+        <v>52648</v>
       </c>
       <c r="F40" s="29">
-        <v>251717</v>
+        <v>30319</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5834,10 +5793,10 @@
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="34">
-        <v>276894</v>
+        <v>50154</v>
       </c>
       <c r="F41" s="15">
-        <v>246710</v>
+        <v>26486</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5860,10 +5819,10 @@
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="33">
-        <v>273081</v>
+        <v>47618</v>
       </c>
       <c r="F42" s="29">
-        <v>240458</v>
+        <v>22811</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5890,10 +5849,10 @@
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="34">
-        <v>268322</v>
+        <v>45054</v>
       </c>
       <c r="F43" s="15">
-        <v>233063</v>
+        <v>19345</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5916,10 +5875,10 @@
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="33">
-        <v>262709</v>
+        <v>42476</v>
       </c>
       <c r="F44" s="29">
-        <v>224634</v>
+        <v>16134</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5942,10 +5901,10 @@
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="34">
-        <v>256332</v>
+        <v>39897</v>
       </c>
       <c r="F45" s="15">
-        <v>215282</v>
+        <v>13216</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5968,10 +5927,10 @@
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="33">
-        <v>249277</v>
+        <v>37330</v>
       </c>
       <c r="F46" s="29">
-        <v>205122</v>
+        <v>10618</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5994,10 +5953,10 @@
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="34">
-        <v>241625</v>
+        <v>34787</v>
       </c>
       <c r="F47" s="15">
-        <v>194272</v>
+        <v>8356</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -6020,10 +5979,10 @@
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="33">
-        <v>233454</v>
+        <v>32280</v>
       </c>
       <c r="F48" s="29">
-        <v>182852</v>
+        <v>6433</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6046,10 +6005,10 @@
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="34">
-        <v>224838</v>
+        <v>29820</v>
       </c>
       <c r="F49" s="15">
-        <v>170985</v>
+        <v>4838</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6072,10 +6031,10 @@
       </c>
       <c r="D50" s="40"/>
       <c r="E50" s="33">
-        <v>215847</v>
+        <v>27419</v>
       </c>
       <c r="F50" s="29">
-        <v>158796</v>
+        <v>3550</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6098,10 +6057,10 @@
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="34">
-        <v>206547</v>
+        <v>25087</v>
       </c>
       <c r="F51" s="15">
-        <v>146412</v>
+        <v>2538</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6124,10 +6083,10 @@
       </c>
       <c r="D52" s="40"/>
       <c r="E52" s="33">
-        <v>197001</v>
+        <v>22835</v>
       </c>
       <c r="F52" s="29">
-        <v>133961</v>
+        <v>1766</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6150,10 +6109,10 @@
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="34">
-        <v>187269</v>
+        <v>20672</v>
       </c>
       <c r="F53" s="15">
-        <v>121571</v>
+        <v>1194</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6176,10 +6135,10 @@
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="33">
-        <v>177409</v>
+        <v>18606</v>
       </c>
       <c r="F54" s="29">
-        <v>109369</v>
+        <v>784</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6202,10 +6161,10 @@
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="34">
-        <v>167476</v>
+        <v>16645</v>
       </c>
       <c r="F55" s="15">
-        <v>97481</v>
+        <v>499</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6228,10 +6187,10 @@
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="33">
-        <v>157524</v>
+        <v>14797</v>
       </c>
       <c r="F56" s="29">
-        <v>86025</v>
+        <v>308</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6254,10 +6213,10 @@
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="34">
-        <v>147604</v>
+        <v>13066</v>
       </c>
       <c r="F57" s="15">
-        <v>75113</v>
+        <v>184</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6280,10 +6239,10 @@
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="33">
-        <v>137765</v>
+        <v>11457</v>
       </c>
       <c r="F58" s="29">
-        <v>64845</v>
+        <v>106</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6306,10 +6265,10 @@
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="34">
-        <v>128056</v>
+        <v>9972</v>
       </c>
       <c r="F59" s="15">
-        <v>55307</v>
+        <v>59</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6326,10 +6285,10 @@
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="33">
-        <v>118522</v>
+        <v>8613</v>
       </c>
       <c r="F60" s="29">
-        <v>46568</v>
+        <v>31</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6346,10 +6305,10 @@
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="34">
-        <v>109207</v>
+        <v>7380</v>
       </c>
       <c r="F61" s="15">
-        <v>38677</v>
+        <v>16</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6366,10 +6325,10 @@
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="33">
-        <v>100152</v>
+        <v>6271</v>
       </c>
       <c r="F62" s="29">
-        <v>31661</v>
+        <v>8</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6386,10 +6345,10 @@
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="34">
-        <v>91397</v>
+        <v>5283</v>
       </c>
       <c r="F63" s="15">
-        <v>25523</v>
+        <v>3</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6406,10 +6365,10 @@
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="33">
-        <v>82978</v>
+        <v>4411</v>
       </c>
       <c r="F64" s="29">
-        <v>20246</v>
+        <v>1</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6426,10 +6385,10 @@
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="34">
-        <v>74928</v>
+        <v>3649</v>
       </c>
       <c r="F65" s="15">
-        <v>15790</v>
+        <v>0</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6446,10 +6405,10 @@
       </c>
       <c r="D66" s="40"/>
       <c r="E66" s="33">
-        <v>67277</v>
+        <v>2989</v>
       </c>
       <c r="F66" s="29">
-        <v>12098</v>
+        <v>0</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6466,10 +6425,10 @@
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="34">
-        <v>60050</v>
+        <v>2425</v>
       </c>
       <c r="F67" s="15">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6486,10 +6445,10 @@
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="33">
-        <v>53267</v>
+        <v>1947</v>
       </c>
       <c r="F68" s="29">
-        <v>6714</v>
+        <v>0</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6506,10 +6465,10 @@
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="34">
-        <v>46945</v>
+        <v>1547</v>
       </c>
       <c r="F69" s="15">
-        <v>4855</v>
+        <v>0</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6526,10 +6485,10 @@
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="33">
-        <v>41094</v>
-      </c>
-      <c r="F70" s="29">
-        <v>3439</v>
+        <v>1216</v>
+      </c>
+      <c r="F70" s="49">
+        <v>0</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6546,10 +6505,10 @@
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="34">
-        <v>35719</v>
+        <v>946</v>
       </c>
       <c r="F71" s="15">
-        <v>2384</v>
+        <v>0</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6566,10 +6525,10 @@
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="33">
-        <v>30820</v>
+        <v>727</v>
       </c>
       <c r="F72" s="29">
-        <v>1617</v>
+        <v>0</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6586,10 +6545,10 @@
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="34">
-        <v>26391</v>
+        <v>553</v>
       </c>
       <c r="F73" s="15">
-        <v>1072</v>
+        <v>0</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6606,10 +6565,10 @@
       </c>
       <c r="D74" s="40"/>
       <c r="E74" s="33">
-        <v>22420</v>
+        <v>415</v>
       </c>
       <c r="F74" s="29">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="H74" s="5"/>
       <c r="P74" s="10"/>
@@ -6626,10 +6585,10 @@
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="34">
-        <v>18891</v>
+        <v>308</v>
       </c>
       <c r="F75" s="15">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="H75" s="5"/>
       <c r="P75" s="10"/>
@@ -6646,10 +6605,10 @@
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="33">
-        <v>15784</v>
+        <v>226</v>
       </c>
       <c r="F76" s="29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H76" s="5"/>
       <c r="P76" s="10"/>
@@ -6666,10 +6625,10 @@
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="34">
-        <v>13073</v>
+        <v>164</v>
       </c>
       <c r="F77" s="15">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="H77" s="5"/>
       <c r="P77" s="10"/>
@@ -6686,10 +6645,10 @@
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="33">
-        <v>10731</v>
+        <v>117</v>
       </c>
       <c r="F78" s="29">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H78" s="5"/>
       <c r="P78" s="10"/>
@@ -6706,10 +6665,10 @@
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="34">
-        <v>8728</v>
+        <v>82</v>
       </c>
       <c r="F79" s="15">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H79" s="5"/>
       <c r="P79" s="10"/>
@@ -6726,10 +6685,10 @@
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="33">
-        <v>7032</v>
+        <v>57</v>
       </c>
       <c r="F80" s="29">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H80" s="5"/>
       <c r="P80" s="10"/>
@@ -6746,10 +6705,10 @@
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="34">
-        <v>5611</v>
+        <v>39</v>
       </c>
       <c r="F81" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H81" s="5"/>
       <c r="P81" s="10"/>
@@ -6766,10 +6725,10 @@
       </c>
       <c r="D82" s="40"/>
       <c r="E82" s="33">
-        <v>4433</v>
+        <v>26</v>
       </c>
       <c r="F82" s="29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H82" s="5"/>
       <c r="P82" s="10"/>
@@ -6786,10 +6745,10 @@
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="34">
-        <v>3467</v>
+        <v>17</v>
       </c>
       <c r="F83" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5"/>
       <c r="P83" s="10"/>
@@ -6806,10 +6765,10 @@
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="33">
-        <v>2683</v>
+        <v>11</v>
       </c>
       <c r="F84" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="5"/>
       <c r="P84" s="10"/>
@@ -6826,9 +6785,9 @@
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="34">
-        <v>2055</v>
-      </c>
-      <c r="F85" s="49">
+        <v>7</v>
+      </c>
+      <c r="F85" s="52">
         <v>0</v>
       </c>
       <c r="H85" s="5"/>
@@ -6846,7 +6805,7 @@
       </c>
       <c r="D86" s="40"/>
       <c r="E86" s="33">
-        <v>1557</v>
+        <v>4</v>
       </c>
       <c r="F86" s="29">
         <v>0</v>
@@ -6866,7 +6825,7 @@
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="34">
-        <v>1167</v>
+        <v>2</v>
       </c>
       <c r="F87" s="15">
         <v>0</v>
@@ -6886,7 +6845,7 @@
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="33">
-        <v>865</v>
+        <v>1</v>
       </c>
       <c r="F88" s="29">
         <v>0</v>
@@ -6905,8 +6864,8 @@
         <v>43990</v>
       </c>
       <c r="D89" s="41"/>
-      <c r="E89" s="34">
-        <v>634</v>
+      <c r="E89" s="48">
+        <v>0</v>
       </c>
       <c r="F89" s="15">
         <v>0</v>
@@ -6926,7 +6885,7 @@
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="33">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="F90" s="29">
         <v>0</v>
@@ -6946,7 +6905,7 @@
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="34">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="F91" s="15">
         <v>0</v>
@@ -6966,7 +6925,7 @@
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="33">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F92" s="29">
         <v>0</v>
@@ -6986,7 +6945,7 @@
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="34">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="F93" s="15">
         <v>0</v>
@@ -7006,7 +6965,7 @@
       </c>
       <c r="D94" s="40"/>
       <c r="E94" s="33">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F94" s="29">
         <v>0</v>
@@ -7026,7 +6985,7 @@
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="34">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F95" s="15">
         <v>0</v>
@@ -7046,7 +7005,7 @@
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="33">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F96" s="29">
         <v>0</v>
@@ -7066,7 +7025,7 @@
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="34">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F97" s="15">
         <v>0</v>
@@ -7086,7 +7045,7 @@
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="33">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F98" s="29">
         <v>0</v>
@@ -7106,7 +7065,7 @@
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="34">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F99" s="15">
         <v>0</v>
@@ -7126,7 +7085,7 @@
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F100" s="29">
         <v>0</v>
@@ -7146,7 +7105,7 @@
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F101" s="15">
         <v>0</v>
@@ -7166,7 +7125,7 @@
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F102" s="29">
         <v>0</v>
@@ -7186,7 +7145,7 @@
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" s="15">
         <v>0</v>
@@ -8819,6 +8778,9 @@
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B185" s="20"/>
+      <c r="F185" s="7">
+        <v>0</v>
+      </c>
       <c r="G185" s="4"/>
       <c r="H185" s="5"/>
       <c r="P185" s="10"/>
@@ -8828,6 +8790,9 @@
     </row>
     <row r="186" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B186" s="20"/>
+      <c r="F186" s="7">
+        <v>0</v>
+      </c>
       <c r="G186" s="4"/>
       <c r="H186" s="5"/>
       <c r="P186" s="10"/>
@@ -8837,6 +8802,9 @@
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B187" s="20"/>
+      <c r="F187" s="7">
+        <v>0</v>
+      </c>
       <c r="G187" s="4"/>
       <c r="H187" s="5"/>
       <c r="P187" s="10"/>
@@ -8846,6 +8814,9 @@
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B188" s="20"/>
+      <c r="F188" s="7">
+        <v>0</v>
+      </c>
       <c r="G188" s="4"/>
       <c r="H188" s="5"/>
       <c r="P188" s="10"/>
@@ -8855,6 +8826,9 @@
     </row>
     <row r="189" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B189" s="20"/>
+      <c r="F189" s="7">
+        <v>0</v>
+      </c>
       <c r="G189" s="4"/>
       <c r="H189" s="5"/>
       <c r="P189" s="10"/>
@@ -8864,6 +8838,9 @@
     </row>
     <row r="190" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B190" s="20"/>
+      <c r="F190" s="7">
+        <v>0</v>
+      </c>
       <c r="G190" s="4"/>
       <c r="H190" s="5"/>
       <c r="P190" s="10"/>
@@ -8873,6 +8850,9 @@
     </row>
     <row r="191" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B191" s="20"/>
+      <c r="F191" s="7">
+        <v>0</v>
+      </c>
       <c r="G191" s="4"/>
       <c r="H191" s="5"/>
       <c r="P191" s="10"/>
@@ -8882,6 +8862,9 @@
     </row>
     <row r="192" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B192" s="20"/>
+      <c r="F192" s="7">
+        <v>0</v>
+      </c>
       <c r="G192" s="4"/>
       <c r="H192" s="5"/>
       <c r="P192" s="10"/>
@@ -8891,6 +8874,9 @@
     </row>
     <row r="193" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B193" s="20"/>
+      <c r="F193" s="7">
+        <v>0</v>
+      </c>
       <c r="G193" s="4"/>
       <c r="H193" s="5"/>
       <c r="P193" s="10"/>
@@ -8900,6 +8886,9 @@
     </row>
     <row r="194" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B194" s="20"/>
+      <c r="F194" s="7">
+        <v>0</v>
+      </c>
       <c r="G194" s="4"/>
       <c r="H194" s="5"/>
       <c r="P194" s="10"/>
@@ -8909,6 +8898,9 @@
     </row>
     <row r="195" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B195" s="20"/>
+      <c r="F195" s="7">
+        <v>0</v>
+      </c>
       <c r="G195" s="4"/>
       <c r="H195" s="5"/>
       <c r="P195" s="10"/>
@@ -8918,6 +8910,9 @@
     </row>
     <row r="196" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B196" s="20"/>
+      <c r="F196" s="7">
+        <v>0</v>
+      </c>
       <c r="G196" s="4"/>
       <c r="H196" s="5"/>
       <c r="P196" s="10"/>
@@ -8927,6 +8922,9 @@
     </row>
     <row r="197" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B197" s="20"/>
+      <c r="F197" s="7">
+        <v>0</v>
+      </c>
       <c r="G197" s="4"/>
       <c r="H197" s="5"/>
       <c r="P197" s="10"/>
@@ -8936,6 +8934,9 @@
     </row>
     <row r="198" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B198" s="20"/>
+      <c r="F198" s="7">
+        <v>0</v>
+      </c>
       <c r="G198" s="4"/>
       <c r="H198" s="5"/>
       <c r="P198" s="10"/>
@@ -8945,6 +8946,9 @@
     </row>
     <row r="199" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B199" s="20"/>
+      <c r="F199" s="7">
+        <v>0</v>
+      </c>
       <c r="G199" s="4"/>
       <c r="H199" s="5"/>
       <c r="P199" s="10"/>
@@ -8954,6 +8958,9 @@
     </row>
     <row r="200" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B200" s="20"/>
+      <c r="F200" s="7">
+        <v>0</v>
+      </c>
       <c r="G200" s="4"/>
       <c r="H200" s="5"/>
       <c r="P200" s="10"/>
@@ -8963,6 +8970,9 @@
     </row>
     <row r="201" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B201" s="20"/>
+      <c r="F201" s="7">
+        <v>0</v>
+      </c>
       <c r="G201" s="4"/>
       <c r="H201" s="5"/>
       <c r="P201" s="10"/>
@@ -8972,6 +8982,9 @@
     </row>
     <row r="202" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B202" s="20"/>
+      <c r="F202" s="7">
+        <v>0</v>
+      </c>
       <c r="G202" s="4"/>
       <c r="H202" s="5"/>
       <c r="P202" s="10"/>
@@ -8981,6 +8994,9 @@
     </row>
     <row r="203" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B203" s="20"/>
+      <c r="F203" s="7">
+        <v>0</v>
+      </c>
       <c r="G203" s="4"/>
       <c r="H203" s="5"/>
       <c r="P203" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B33ED1-C79D-4AF0-B482-E81E96B7741C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC65AC-983C-4140-B040-A18569412E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3584,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>51224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,8 +4848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,7 +5213,9 @@
       <c r="C17" s="47">
         <v>43918</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="41">
+        <v>54151</v>
+      </c>
       <c r="E17" s="34">
         <v>50508</v>
       </c>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC65AC-983C-4140-B040-A18569412E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A973F-7BC9-47F4-9BBA-FD1FD92A730C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,2280 +690,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>23/3/2020</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$184</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="182"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$E$3:$E$184</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="182"/>
-                <c:pt idx="0">
-                  <c:v>5961</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6884</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10849</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15508</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22034</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25522</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33524</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37744</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42044</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>46331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50508</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54483</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58173</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>61509</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64440</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>66932</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68968</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>70544</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>71670</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72364</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>72650</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>72558</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>72119</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>71365</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>70327</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>69036</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67520</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>65807</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>63921</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>61885</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>59721</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>57448</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>55085</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>52648</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50154</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>47618</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45054</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42476</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>39897</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>37330</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>34787</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>32280</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29820</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>27419</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25087</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>22835</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>20672</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18606</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>16645</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>14797</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13066</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11457</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9972</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8613</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7380</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6271</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5283</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4411</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3649</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2989</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2425</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1947</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1547</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1216</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>946</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>727</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>415</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6990-4565-839E-3E2E74AF83D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>28/3/2020</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$184</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="182"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$F$3:$F$184</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="182"/>
-                <c:pt idx="0">
-                  <c:v>5883</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6795</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8391</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10719</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12144</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15341</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18837</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21833</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25310</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27929</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33309</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>39345</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44642</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50494</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>55126</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>57845</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>61190</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>64117</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>66573</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>68519</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>69932</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>70802</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>71131</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>70930</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>70218</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>69020</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>67365</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65287</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>62821</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60006</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56882</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>53493</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49884</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>46103</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42202</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38234</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>34254</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>30319</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26486</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22811</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19345</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16134</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13216</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10618</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8356</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6433</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4838</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3550</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2538</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1766</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1194</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>784</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>499</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6990-4565-839E-3E2E74AF83D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:v>REAL</c:v>
           </c:tx>
@@ -3586,7 +1314,10 @@
                   <c:v>51224</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54151</c:v>
+                  <c:v>54968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,6 +1326,2278 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF39-49B5-9049-771E6E0DB59B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>23/3/2020</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="182"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SPANISH SIRS MODEL'!$E$3:$E$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="182"/>
+                <c:pt idx="0">
+                  <c:v>5961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37744</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50508</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54483</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58173</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66932</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70544</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71670</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72650</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72558</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72119</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71365</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69036</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67520</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65807</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63921</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>61885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59721</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>57448</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55085</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52648</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47618</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42476</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39897</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37330</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34787</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32280</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>29820</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27419</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25087</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22835</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20672</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18606</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16645</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14797</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13066</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11457</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9972</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8613</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7380</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6271</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5283</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4411</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3649</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2989</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2425</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6990-4565-839E-3E2E74AF83D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>29/3/2020</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="182"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SPANISH SIRS MODEL'!$F$3:$F$184</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="182"/>
+                <c:pt idx="0">
+                  <c:v>5834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50341</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63729</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66237</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68278</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69826</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70867</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71425</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70963</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70031</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68653</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64679</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62147</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59300</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56176</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52815</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49261</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45558</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41754</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34040</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30233</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26527</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22971</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19612</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16491</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13641</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11087</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8844</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6916</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5296</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3966</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2902</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6990-4565-839E-3E2E74AF83D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3613,7 +3616,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
+          <c:max val="75"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4848,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4913,7 +4916,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="25">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -4931,7 +4934,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="27">
-        <v>5883</v>
+        <v>5834</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4949,7 +4952,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="28">
-        <v>6795</v>
+        <v>6739</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4969,7 +4972,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="22">
-        <v>8391</v>
+        <v>8324</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -4990,7 +4993,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="28">
-        <v>10719</v>
+        <v>10636</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5011,7 +5014,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="22">
-        <v>12144</v>
+        <v>12053</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5032,7 +5035,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="28">
-        <v>15341</v>
+        <v>15232</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5053,7 +5056,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="22">
-        <v>18837</v>
+        <v>18710</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5074,7 +5077,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="28">
-        <v>21833</v>
+        <v>21694</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5094,7 +5097,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="22">
-        <v>25310</v>
+        <v>25159</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5114,7 +5117,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="28">
-        <v>27929</v>
+        <v>27773</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5134,7 +5137,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="22">
-        <v>33309</v>
+        <v>33144</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5160,7 +5163,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="28">
-        <v>39345</v>
+        <v>39176</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5180,7 +5183,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="22">
-        <v>44642</v>
+        <v>44478</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5200,7 +5203,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="29">
-        <v>50494</v>
+        <v>50341</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5214,13 +5217,13 @@
         <v>43918</v>
       </c>
       <c r="D17" s="41">
-        <v>54151</v>
+        <v>54968</v>
       </c>
       <c r="E17" s="34">
         <v>50508</v>
       </c>
       <c r="F17" s="15">
-        <v>55126</v>
+        <v>54988</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5237,12 +5240,14 @@
       <c r="C18" s="46">
         <v>43919</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="40">
+        <v>57484</v>
+      </c>
       <c r="E18" s="33">
         <v>54483</v>
       </c>
       <c r="F18" s="29">
-        <v>57845</v>
+        <v>58488</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5260,7 +5265,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="15">
-        <v>61190</v>
+        <v>60794</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5278,7 +5283,7 @@
         <v>61509</v>
       </c>
       <c r="F20" s="29">
-        <v>64117</v>
+        <v>63729</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5296,7 +5301,7 @@
         <v>64440</v>
       </c>
       <c r="F21" s="15">
-        <v>66573</v>
+        <v>66237</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5314,7 +5319,7 @@
         <v>66932</v>
       </c>
       <c r="F22" s="29">
-        <v>68519</v>
+        <v>68278</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5332,7 +5337,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="15">
-        <v>69932</v>
+        <v>69826</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5357,7 +5362,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="29">
-        <v>70802</v>
+        <v>70867</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5381,8 +5386,8 @@
       <c r="E25" s="34">
         <v>71670</v>
       </c>
-      <c r="F25" s="49">
-        <v>71131</v>
+      <c r="F25" s="52">
+        <v>71398</v>
       </c>
       <c r="H25" s="5"/>
       <c r="M25" s="6"/>
@@ -5406,8 +5411,8 @@
       <c r="E26" s="33">
         <v>72364</v>
       </c>
-      <c r="F26" s="29">
-        <v>70930</v>
+      <c r="F26" s="49">
+        <v>71425</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
@@ -5432,7 +5437,7 @@
         <v>72650</v>
       </c>
       <c r="F27" s="15">
-        <v>70218</v>
+        <v>70963</v>
       </c>
       <c r="H27" s="5"/>
       <c r="M27" s="6"/>
@@ -5457,7 +5462,7 @@
         <v>72558</v>
       </c>
       <c r="F28" s="29">
-        <v>69020</v>
+        <v>70031</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5482,7 +5487,7 @@
         <v>72119</v>
       </c>
       <c r="F29" s="15">
-        <v>67365</v>
+        <v>68653</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5507,7 +5512,7 @@
         <v>71365</v>
       </c>
       <c r="F30" s="29">
-        <v>65287</v>
+        <v>66859</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5532,7 +5537,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="15">
-        <v>62821</v>
+        <v>64679</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5559,7 +5564,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="29">
-        <v>60006</v>
+        <v>62147</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="8"/>
@@ -5588,7 +5593,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="15">
-        <v>56882</v>
+        <v>59300</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="8"/>
@@ -5616,7 +5621,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="29">
-        <v>53493</v>
+        <v>56176</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="8"/>
@@ -5644,7 +5649,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="15">
-        <v>49884</v>
+        <v>52815</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="8"/>
@@ -5670,7 +5675,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="29">
-        <v>46103</v>
+        <v>49261</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5696,7 +5701,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="51">
-        <v>42202</v>
+        <v>45558</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5722,7 +5727,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="29">
-        <v>38234</v>
+        <v>41754</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5749,7 +5754,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="15">
-        <v>34254</v>
+        <v>37898</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5775,7 +5780,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="29">
-        <v>30319</v>
+        <v>34040</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5801,7 +5806,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="15">
-        <v>26486</v>
+        <v>30233</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5827,7 +5832,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="29">
-        <v>22811</v>
+        <v>26527</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5857,7 +5862,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="15">
-        <v>19345</v>
+        <v>22971</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5883,7 +5888,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="29">
-        <v>16134</v>
+        <v>19612</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5909,7 +5914,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="15">
-        <v>13216</v>
+        <v>16491</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5935,7 +5940,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="29">
-        <v>10618</v>
+        <v>13641</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5961,7 +5966,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="15">
-        <v>8356</v>
+        <v>11087</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -5987,7 +5992,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="29">
-        <v>6433</v>
+        <v>8844</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6013,7 +6018,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="15">
-        <v>4838</v>
+        <v>6916</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6039,7 +6044,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="29">
-        <v>3550</v>
+        <v>5296</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6065,7 +6070,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="15">
-        <v>2538</v>
+        <v>3966</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6091,7 +6096,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="29">
-        <v>1766</v>
+        <v>2902</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6117,7 +6122,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="15">
-        <v>1194</v>
+        <v>2072</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6143,7 +6148,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="29">
-        <v>784</v>
+        <v>1443</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6169,7 +6174,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="15">
-        <v>499</v>
+        <v>979</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6195,7 +6200,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="29">
-        <v>308</v>
+        <v>646</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6221,7 +6226,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="15">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6247,7 +6252,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="29">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6273,7 +6278,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="15">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6293,7 +6298,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="29">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6313,7 +6318,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="15">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6333,7 +6338,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="29">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6353,7 +6358,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6373,7 +6378,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6393,7 +6398,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6413,7 +6418,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A973F-7BC9-47F4-9BBA-FD1FD92A730C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA18F0-74D8-4414-B011-5784F266EA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1317,7 +1317,7 @@
                   <c:v>54968</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57484</c:v>
+                  <c:v>58598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,196 +3046,196 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5834</c:v>
+                  <c:v>5856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6739</c:v>
+                  <c:v>6764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8324</c:v>
+                  <c:v>8354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10636</c:v>
+                  <c:v>10674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12053</c:v>
+                  <c:v>12094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15232</c:v>
+                  <c:v>15281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18710</c:v>
+                  <c:v>18767</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21694</c:v>
+                  <c:v>21757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25159</c:v>
+                  <c:v>25227</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27773</c:v>
+                  <c:v>27844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33144</c:v>
+                  <c:v>33219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39176</c:v>
+                  <c:v>39253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44478</c:v>
+                  <c:v>44554</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50341</c:v>
+                  <c:v>50411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54988</c:v>
+                  <c:v>55052</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58488</c:v>
+                  <c:v>58544</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60794</c:v>
+                  <c:v>61879</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63729</c:v>
+                  <c:v>64753</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66237</c:v>
+                  <c:v>67170</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68278</c:v>
+                  <c:v>69092</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>69826</c:v>
+                  <c:v>70497</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70867</c:v>
+                  <c:v>71375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71398</c:v>
+                  <c:v>71726</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71425</c:v>
+                  <c:v>71560</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70963</c:v>
+                  <c:v>70895</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>70031</c:v>
+                  <c:v>69753</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68653</c:v>
+                  <c:v>68162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66859</c:v>
+                  <c:v>66153</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>64679</c:v>
+                  <c:v>63759</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62147</c:v>
+                  <c:v>61017</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>59300</c:v>
+                  <c:v>57966</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56176</c:v>
+                  <c:v>54647</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52815</c:v>
+                  <c:v>51104</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49261</c:v>
+                  <c:v>47383</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45558</c:v>
+                  <c:v>43532</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41754</c:v>
+                  <c:v>39603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37898</c:v>
+                  <c:v>35648</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34040</c:v>
+                  <c:v>31723</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30233</c:v>
+                  <c:v>27882</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26527</c:v>
+                  <c:v>24179</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>22971</c:v>
+                  <c:v>20666</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19612</c:v>
+                  <c:v>17388</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16491</c:v>
+                  <c:v>14384</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13641</c:v>
+                  <c:v>11685</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11087</c:v>
+                  <c:v>9310</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8844</c:v>
+                  <c:v>7265</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6916</c:v>
+                  <c:v>5546</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5296</c:v>
+                  <c:v>4137</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3966</c:v>
+                  <c:v>3011</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2902</c:v>
+                  <c:v>2136</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2072</c:v>
+                  <c:v>1476</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1443</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>979</c:v>
+                  <c:v>648</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>646</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>414</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>258</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>156</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>91</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -4851,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4934,7 +4934,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="27">
-        <v>5834</v>
+        <v>5856</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4952,7 +4952,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="28">
-        <v>6739</v>
+        <v>6764</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4972,7 +4972,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="22">
-        <v>8324</v>
+        <v>8354</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -4993,7 +4993,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="28">
-        <v>10636</v>
+        <v>10674</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5014,7 +5014,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="22">
-        <v>12053</v>
+        <v>12094</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5035,7 +5035,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="28">
-        <v>15232</v>
+        <v>15281</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5056,7 +5056,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="22">
-        <v>18710</v>
+        <v>18767</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5077,7 +5077,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="28">
-        <v>21694</v>
+        <v>21757</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5097,7 +5097,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="22">
-        <v>25159</v>
+        <v>25227</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5117,7 +5117,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="28">
-        <v>27773</v>
+        <v>27844</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5137,7 +5137,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="22">
-        <v>33144</v>
+        <v>33219</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5163,7 +5163,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="28">
-        <v>39176</v>
+        <v>39253</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5183,7 +5183,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="22">
-        <v>44478</v>
+        <v>44554</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5203,7 +5203,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="29">
-        <v>50341</v>
+        <v>50411</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5223,7 +5223,7 @@
         <v>50508</v>
       </c>
       <c r="F17" s="15">
-        <v>54988</v>
+        <v>55052</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5241,13 +5241,13 @@
         <v>43919</v>
       </c>
       <c r="D18" s="40">
-        <v>57484</v>
+        <v>58598</v>
       </c>
       <c r="E18" s="33">
         <v>54483</v>
       </c>
       <c r="F18" s="29">
-        <v>58488</v>
+        <v>58544</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5265,7 +5265,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="15">
-        <v>60794</v>
+        <v>61879</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5283,7 +5283,7 @@
         <v>61509</v>
       </c>
       <c r="F20" s="29">
-        <v>63729</v>
+        <v>64753</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5301,7 +5301,7 @@
         <v>64440</v>
       </c>
       <c r="F21" s="15">
-        <v>66237</v>
+        <v>67170</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5319,7 +5319,7 @@
         <v>66932</v>
       </c>
       <c r="F22" s="29">
-        <v>68278</v>
+        <v>69092</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5337,7 +5337,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="15">
-        <v>69826</v>
+        <v>70497</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5362,7 +5362,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="29">
-        <v>70867</v>
+        <v>71375</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5387,7 +5387,7 @@
         <v>71670</v>
       </c>
       <c r="F25" s="52">
-        <v>71398</v>
+        <v>71726</v>
       </c>
       <c r="H25" s="5"/>
       <c r="M25" s="6"/>
@@ -5412,7 +5412,7 @@
         <v>72364</v>
       </c>
       <c r="F26" s="49">
-        <v>71425</v>
+        <v>71560</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
@@ -5437,7 +5437,7 @@
         <v>72650</v>
       </c>
       <c r="F27" s="15">
-        <v>70963</v>
+        <v>70895</v>
       </c>
       <c r="H27" s="5"/>
       <c r="M27" s="6"/>
@@ -5462,7 +5462,7 @@
         <v>72558</v>
       </c>
       <c r="F28" s="29">
-        <v>70031</v>
+        <v>69753</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5487,7 +5487,7 @@
         <v>72119</v>
       </c>
       <c r="F29" s="15">
-        <v>68653</v>
+        <v>68162</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5512,7 +5512,7 @@
         <v>71365</v>
       </c>
       <c r="F30" s="29">
-        <v>66859</v>
+        <v>66153</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5537,7 +5537,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="15">
-        <v>64679</v>
+        <v>63759</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5564,7 +5564,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="29">
-        <v>62147</v>
+        <v>61017</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="8"/>
@@ -5593,7 +5593,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="15">
-        <v>59300</v>
+        <v>57966</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="8"/>
@@ -5621,7 +5621,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="29">
-        <v>56176</v>
+        <v>54647</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="8"/>
@@ -5649,7 +5649,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="15">
-        <v>52815</v>
+        <v>51104</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="8"/>
@@ -5675,7 +5675,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="29">
-        <v>49261</v>
+        <v>47383</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5701,7 +5701,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="51">
-        <v>45558</v>
+        <v>43532</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5727,7 +5727,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="29">
-        <v>41754</v>
+        <v>39603</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5754,7 +5754,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="15">
-        <v>37898</v>
+        <v>35648</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5780,7 +5780,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="29">
-        <v>34040</v>
+        <v>31723</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5806,7 +5806,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="15">
-        <v>30233</v>
+        <v>27882</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5832,7 +5832,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="29">
-        <v>26527</v>
+        <v>24179</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5862,7 +5862,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="15">
-        <v>22971</v>
+        <v>20666</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5888,7 +5888,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="29">
-        <v>19612</v>
+        <v>17388</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5914,7 +5914,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="15">
-        <v>16491</v>
+        <v>14384</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5940,7 +5940,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="29">
-        <v>13641</v>
+        <v>11685</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5966,7 +5966,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="15">
-        <v>11087</v>
+        <v>9310</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -5992,7 +5992,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="29">
-        <v>8844</v>
+        <v>7265</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6018,7 +6018,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="15">
-        <v>6916</v>
+        <v>5546</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6044,7 +6044,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="29">
-        <v>5296</v>
+        <v>4137</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6070,7 +6070,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="15">
-        <v>3966</v>
+        <v>3011</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6096,7 +6096,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="29">
-        <v>2902</v>
+        <v>2136</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6122,7 +6122,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="15">
-        <v>2072</v>
+        <v>1476</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6148,7 +6148,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="29">
-        <v>1443</v>
+        <v>992</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6174,7 +6174,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="15">
-        <v>979</v>
+        <v>648</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6200,7 +6200,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="29">
-        <v>646</v>
+        <v>410</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6226,7 +6226,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="15">
-        <v>414</v>
+        <v>252</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6252,7 +6252,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="29">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6278,7 +6278,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="15">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6298,7 +6298,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="29">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6318,7 +6318,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="15">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6338,7 +6338,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="29">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6358,7 +6358,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="15">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6378,7 +6378,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6398,7 +6398,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6418,7 +6418,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA18F0-74D8-4414-B011-5784F266EA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF27C28-7BB6-40CC-B575-0217B343AFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,12 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,6 +588,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,6 +1319,12 @@
                 <c:pt idx="15">
                   <c:v>58598</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>63460</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66969</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3046,217 +3052,217 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5856</c:v>
+                  <c:v>5808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6764</c:v>
+                  <c:v>6709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8354</c:v>
+                  <c:v>8289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10674</c:v>
+                  <c:v>10593</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12094</c:v>
+                  <c:v>12005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15281</c:v>
+                  <c:v>15175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18767</c:v>
+                  <c:v>18645</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21757</c:v>
+                  <c:v>21624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25227</c:v>
+                  <c:v>25085</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27844</c:v>
+                  <c:v>27697</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33219</c:v>
+                  <c:v>33066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39253</c:v>
+                  <c:v>39101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44554</c:v>
+                  <c:v>44411</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50411</c:v>
+                  <c:v>50286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55052</c:v>
+                  <c:v>54949</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58544</c:v>
+                  <c:v>58465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61879</c:v>
+                  <c:v>61825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64753</c:v>
+                  <c:v>66293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67170</c:v>
+                  <c:v>69497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69092</c:v>
+                  <c:v>71593</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70497</c:v>
+                  <c:v>73238</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71375</c:v>
+                  <c:v>74422</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71726</c:v>
+                  <c:v>75146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71560</c:v>
+                  <c:v>75418</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70895</c:v>
+                  <c:v>75251</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69753</c:v>
+                  <c:v>74664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68162</c:v>
+                  <c:v>73678</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66153</c:v>
+                  <c:v>72318</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63759</c:v>
+                  <c:v>70610</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>61017</c:v>
+                  <c:v>68582</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>57966</c:v>
+                  <c:v>66262</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>54647</c:v>
+                  <c:v>63679</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51104</c:v>
+                  <c:v>60862</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>47383</c:v>
+                  <c:v>57843</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43532</c:v>
+                  <c:v>54652</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39603</c:v>
+                  <c:v>51322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35648</c:v>
+                  <c:v>47885</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31723</c:v>
+                  <c:v>44375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27882</c:v>
+                  <c:v>40827</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24179</c:v>
+                  <c:v>37275</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20666</c:v>
+                  <c:v>33755</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17388</c:v>
+                  <c:v>30301</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14384</c:v>
+                  <c:v>26948</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11685</c:v>
+                  <c:v>23729</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9310</c:v>
+                  <c:v>20673</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7265</c:v>
+                  <c:v>17808</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5546</c:v>
+                  <c:v>15156</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4137</c:v>
+                  <c:v>12735</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3011</c:v>
+                  <c:v>10557</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2136</c:v>
+                  <c:v>8627</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1476</c:v>
+                  <c:v>6945</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>992</c:v>
+                  <c:v>5503</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>648</c:v>
+                  <c:v>4289</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>410</c:v>
+                  <c:v>3286</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>252</c:v>
+                  <c:v>2473</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>150</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>48</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>25</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0</c:v>
@@ -4852,14 +4858,15 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="7" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" style="2" customWidth="1"/>
     <col min="8" max="14" width="10.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
@@ -4903,38 +4910,38 @@
       <c r="AG1"/>
     </row>
     <row r="2" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="51">
         <v>43913</v>
       </c>
-      <c r="F2" s="25">
-        <v>43919</v>
+      <c r="F2" s="52">
+        <v>43921</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="26">
-        <v>0</v>
-      </c>
-      <c r="C3" s="45">
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="43">
         <v>43904</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>5678</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="29">
         <v>5961</v>
       </c>
-      <c r="F3" s="27">
-        <v>5856</v>
+      <c r="F3" s="25">
+        <v>5808</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4942,17 +4949,17 @@
       <c r="B4" s="23">
         <v>1</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="44">
         <v>43905</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>7036</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>6884</v>
       </c>
-      <c r="F4" s="28">
-        <v>6764</v>
+      <c r="F4" s="26">
+        <v>6709</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4962,17 +4969,17 @@
       <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="45">
         <v>43906</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <v>9029</v>
       </c>
       <c r="E5" s="16">
         <v>8498</v>
       </c>
       <c r="F5" s="22">
-        <v>8354</v>
+        <v>8289</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -4983,17 +4990,17 @@
       <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="44">
         <v>43907</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>10265</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>10849</v>
       </c>
-      <c r="F6" s="28">
-        <v>10674</v>
+      <c r="F6" s="26">
+        <v>10593</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5004,17 +5011,17 @@
       <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="45">
         <v>43908</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="37">
         <v>13050</v>
       </c>
       <c r="E7" s="16">
         <v>12286</v>
       </c>
       <c r="F7" s="22">
-        <v>12094</v>
+        <v>12005</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5025,17 +5032,17 @@
       <c r="B8" s="23">
         <v>5</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="44">
         <v>43909</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>16139</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <v>15508</v>
       </c>
-      <c r="F8" s="28">
-        <v>15281</v>
+      <c r="F8" s="26">
+        <v>15175</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5046,17 +5053,17 @@
       <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="45">
         <v>43910</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="37">
         <v>18829</v>
       </c>
       <c r="E9" s="16">
         <v>19025</v>
       </c>
       <c r="F9" s="22">
-        <v>18767</v>
+        <v>18645</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5067,17 +5074,17 @@
       <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="44">
         <v>43911</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>21992</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="30">
         <v>22034</v>
       </c>
-      <c r="F10" s="28">
-        <v>21757</v>
+      <c r="F10" s="26">
+        <v>21624</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5087,17 +5094,17 @@
       <c r="B11" s="21">
         <v>8</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="45">
         <v>43912</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>24421</v>
       </c>
       <c r="E11" s="16">
         <v>25522</v>
       </c>
       <c r="F11" s="22">
-        <v>25227</v>
+        <v>25085</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5107,17 +5114,17 @@
       <c r="B12" s="23">
         <v>9</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="44">
         <v>43913</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>29470</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>28144</v>
       </c>
-      <c r="F12" s="28">
-        <v>27844</v>
+      <c r="F12" s="26">
+        <v>27697</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5127,17 +5134,17 @@
       <c r="B13" s="21">
         <v>10</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="45">
         <v>43914</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>35273</v>
       </c>
       <c r="E13" s="16">
         <v>33524</v>
       </c>
       <c r="F13" s="22">
-        <v>33219</v>
+        <v>33066</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5153,17 +5160,17 @@
       <c r="B14" s="23">
         <v>11</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="44">
         <v>43915</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>40501</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="30">
         <v>37744</v>
       </c>
-      <c r="F14" s="28">
-        <v>39253</v>
+      <c r="F14" s="26">
+        <v>39101</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5173,17 +5180,17 @@
       <c r="B15" s="21">
         <v>12</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="45">
         <v>43916</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>46406</v>
       </c>
       <c r="E15" s="16">
         <v>42044</v>
       </c>
       <c r="F15" s="22">
-        <v>44554</v>
+        <v>44411</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5193,17 +5200,17 @@
       <c r="B16" s="17">
         <v>13</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="44">
         <v>43917</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="38">
         <v>51224</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="31">
         <v>46331</v>
       </c>
-      <c r="F16" s="29">
-        <v>50411</v>
+      <c r="F16" s="27">
+        <v>50286</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5213,17 +5220,17 @@
       <c r="B17" s="18">
         <v>14</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="45">
         <v>43918</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <v>54968</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="32">
         <v>50508</v>
       </c>
       <c r="F17" s="15">
-        <v>55052</v>
+        <v>54949</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5237,17 +5244,17 @@
       <c r="B18" s="17">
         <v>15</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="44">
         <v>43919</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="38">
         <v>58598</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="31">
         <v>54483</v>
       </c>
-      <c r="F18" s="29">
-        <v>58544</v>
+      <c r="F18" s="27">
+        <v>58465</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5257,15 +5264,17 @@
       <c r="B19" s="18">
         <v>16</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="45">
         <v>43920</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="34">
+      <c r="D19" s="39">
+        <v>63460</v>
+      </c>
+      <c r="E19" s="32">
         <v>58173</v>
       </c>
       <c r="F19" s="15">
-        <v>61879</v>
+        <v>61825</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5275,15 +5284,17 @@
       <c r="B20" s="17">
         <v>17</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="44">
         <v>43921</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="33">
+      <c r="D20" s="38">
+        <v>66969</v>
+      </c>
+      <c r="E20" s="31">
         <v>61509</v>
       </c>
-      <c r="F20" s="29">
-        <v>64753</v>
+      <c r="F20" s="27">
+        <v>66293</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5293,15 +5304,15 @@
       <c r="B21" s="18">
         <v>18</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="45">
         <v>43922</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="34">
+      <c r="D21" s="39"/>
+      <c r="E21" s="32">
         <v>64440</v>
       </c>
       <c r="F21" s="15">
-        <v>67170</v>
+        <v>69497</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5311,15 +5322,15 @@
       <c r="B22" s="17">
         <v>19</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="44">
         <v>43923</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="33">
+      <c r="D22" s="38"/>
+      <c r="E22" s="31">
         <v>66932</v>
       </c>
-      <c r="F22" s="29">
-        <v>69092</v>
+      <c r="F22" s="27">
+        <v>71593</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5329,15 +5340,15 @@
       <c r="B23" s="18">
         <v>20</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="45">
         <v>43924</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="34">
+      <c r="D23" s="39"/>
+      <c r="E23" s="32">
         <v>68968</v>
       </c>
       <c r="F23" s="15">
-        <v>70497</v>
+        <v>73238</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5354,15 +5365,15 @@
       <c r="B24" s="17">
         <v>21</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="44">
         <v>43925</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="33">
+      <c r="D24" s="38"/>
+      <c r="E24" s="31">
         <v>70544</v>
       </c>
-      <c r="F24" s="29">
-        <v>71375</v>
+      <c r="F24" s="27">
+        <v>74422</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5379,15 +5390,15 @@
       <c r="B25" s="18">
         <v>22</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="45">
         <v>43926</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="34">
+      <c r="D25" s="39"/>
+      <c r="E25" s="32">
         <v>71670</v>
       </c>
-      <c r="F25" s="52">
-        <v>71726</v>
+      <c r="F25" s="50">
+        <v>75146</v>
       </c>
       <c r="H25" s="5"/>
       <c r="M25" s="6"/>
@@ -5404,15 +5415,15 @@
       <c r="B26" s="17">
         <v>23</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="44">
         <v>43927</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="33">
+      <c r="D26" s="38"/>
+      <c r="E26" s="31">
         <v>72364</v>
       </c>
-      <c r="F26" s="49">
-        <v>71560</v>
+      <c r="F26" s="47">
+        <v>75418</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
@@ -5429,15 +5440,15 @@
       <c r="B27" s="18">
         <v>24</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="45">
         <v>43928</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="48">
+      <c r="D27" s="39"/>
+      <c r="E27" s="46">
         <v>72650</v>
       </c>
       <c r="F27" s="15">
-        <v>70895</v>
+        <v>75251</v>
       </c>
       <c r="H27" s="5"/>
       <c r="M27" s="6"/>
@@ -5454,15 +5465,15 @@
       <c r="B28" s="17">
         <v>25</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="44">
         <v>43929</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="33">
+      <c r="D28" s="38"/>
+      <c r="E28" s="31">
         <v>72558</v>
       </c>
-      <c r="F28" s="29">
-        <v>69753</v>
+      <c r="F28" s="27">
+        <v>74664</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5479,15 +5490,15 @@
       <c r="B29" s="18">
         <v>26</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="45">
         <v>43930</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="34">
+      <c r="D29" s="39"/>
+      <c r="E29" s="32">
         <v>72119</v>
       </c>
       <c r="F29" s="15">
-        <v>68162</v>
+        <v>73678</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5504,15 +5515,15 @@
       <c r="B30" s="17">
         <v>27</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="44">
         <v>43931</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="33">
+      <c r="D30" s="38"/>
+      <c r="E30" s="31">
         <v>71365</v>
       </c>
-      <c r="F30" s="29">
-        <v>66153</v>
+      <c r="F30" s="27">
+        <v>72318</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5529,15 +5540,15 @@
       <c r="B31" s="18">
         <v>28</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="45">
         <v>43932</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="34">
+      <c r="D31" s="39"/>
+      <c r="E31" s="32">
         <v>70327</v>
       </c>
       <c r="F31" s="15">
-        <v>63759</v>
+        <v>70610</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5556,15 +5567,15 @@
       <c r="B32" s="17">
         <v>29</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="44">
         <v>43933</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="33">
+      <c r="D32" s="38"/>
+      <c r="E32" s="31">
         <v>69036</v>
       </c>
-      <c r="F32" s="29">
-        <v>61017</v>
+      <c r="F32" s="27">
+        <v>68582</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="8"/>
@@ -5585,15 +5596,15 @@
       <c r="B33" s="18">
         <v>30</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="45">
         <v>43934</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="34">
+      <c r="D33" s="39"/>
+      <c r="E33" s="32">
         <v>67520</v>
       </c>
       <c r="F33" s="15">
-        <v>57966</v>
+        <v>66262</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="8"/>
@@ -5613,15 +5624,15 @@
       <c r="B34" s="17">
         <v>31</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="44">
         <v>43935</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="33">
+      <c r="D34" s="38"/>
+      <c r="E34" s="31">
         <v>65807</v>
       </c>
-      <c r="F34" s="29">
-        <v>54647</v>
+      <c r="F34" s="27">
+        <v>63679</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="8"/>
@@ -5641,15 +5652,15 @@
       <c r="B35" s="18">
         <v>32</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="45">
         <v>43936</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="34">
+      <c r="D35" s="39"/>
+      <c r="E35" s="32">
         <v>63921</v>
       </c>
       <c r="F35" s="15">
-        <v>51104</v>
+        <v>60862</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="8"/>
@@ -5667,15 +5678,15 @@
       <c r="B36" s="17">
         <v>33</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="44">
         <v>43937</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="33">
+      <c r="D36" s="38"/>
+      <c r="E36" s="31">
         <v>61885</v>
       </c>
-      <c r="F36" s="29">
-        <v>47383</v>
+      <c r="F36" s="27">
+        <v>57843</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5693,15 +5704,15 @@
       <c r="B37" s="18">
         <v>34</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="45">
         <v>43938</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="34">
+      <c r="D37" s="39"/>
+      <c r="E37" s="32">
         <v>59721</v>
       </c>
-      <c r="F37" s="51">
-        <v>43532</v>
+      <c r="F37" s="49">
+        <v>54652</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5719,15 +5730,15 @@
       <c r="B38" s="17">
         <v>35</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="44">
         <v>43939</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="33">
+      <c r="D38" s="38"/>
+      <c r="E38" s="31">
         <v>57448</v>
       </c>
-      <c r="F38" s="29">
-        <v>39603</v>
+      <c r="F38" s="27">
+        <v>51322</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5746,15 +5757,15 @@
       <c r="B39" s="18">
         <v>36</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="45">
         <v>43940</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="34">
+      <c r="D39" s="39"/>
+      <c r="E39" s="32">
         <v>55085</v>
       </c>
       <c r="F39" s="15">
-        <v>35648</v>
+        <v>47885</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5772,15 +5783,15 @@
       <c r="B40" s="17">
         <v>37</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="44">
         <v>43941</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="33">
+      <c r="D40" s="38"/>
+      <c r="E40" s="31">
         <v>52648</v>
       </c>
-      <c r="F40" s="29">
-        <v>31723</v>
+      <c r="F40" s="27">
+        <v>44375</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5798,15 +5809,15 @@
       <c r="B41" s="18">
         <v>38</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="45">
         <v>43942</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="34">
+      <c r="D41" s="39"/>
+      <c r="E41" s="32">
         <v>50154</v>
       </c>
       <c r="F41" s="15">
-        <v>27882</v>
+        <v>40827</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5824,15 +5835,15 @@
       <c r="B42" s="17">
         <v>39</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="44">
         <v>43943</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="33">
+      <c r="D42" s="38"/>
+      <c r="E42" s="31">
         <v>47618</v>
       </c>
-      <c r="F42" s="29">
-        <v>24179</v>
+      <c r="F42" s="27">
+        <v>37275</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5854,15 +5865,15 @@
       <c r="B43" s="18">
         <v>40</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="45">
         <v>43944</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="34">
+      <c r="D43" s="39"/>
+      <c r="E43" s="32">
         <v>45054</v>
       </c>
       <c r="F43" s="15">
-        <v>20666</v>
+        <v>33755</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5880,15 +5891,15 @@
       <c r="B44" s="17">
         <v>41</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="44">
         <v>43945</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="33">
+      <c r="D44" s="38"/>
+      <c r="E44" s="31">
         <v>42476</v>
       </c>
-      <c r="F44" s="29">
-        <v>17388</v>
+      <c r="F44" s="27">
+        <v>30301</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5906,15 +5917,15 @@
       <c r="B45" s="18">
         <v>42</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="45">
         <v>43946</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="34">
+      <c r="D45" s="39"/>
+      <c r="E45" s="32">
         <v>39897</v>
       </c>
       <c r="F45" s="15">
-        <v>14384</v>
+        <v>26948</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5932,15 +5943,15 @@
       <c r="B46" s="17">
         <v>43</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="44">
         <v>43947</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="33">
+      <c r="D46" s="38"/>
+      <c r="E46" s="31">
         <v>37330</v>
       </c>
-      <c r="F46" s="29">
-        <v>11685</v>
+      <c r="F46" s="27">
+        <v>23729</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5958,15 +5969,15 @@
       <c r="B47" s="18">
         <v>44</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="45">
         <v>43948</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="34">
+      <c r="D47" s="39"/>
+      <c r="E47" s="32">
         <v>34787</v>
       </c>
       <c r="F47" s="15">
-        <v>9310</v>
+        <v>20673</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -5984,15 +5995,15 @@
       <c r="B48" s="17">
         <v>45</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="44">
         <v>43949</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="33">
+      <c r="D48" s="38"/>
+      <c r="E48" s="31">
         <v>32280</v>
       </c>
-      <c r="F48" s="29">
-        <v>7265</v>
+      <c r="F48" s="27">
+        <v>17808</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6010,15 +6021,15 @@
       <c r="B49" s="18">
         <v>46</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="45">
         <v>43950</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="34">
+      <c r="D49" s="39"/>
+      <c r="E49" s="32">
         <v>29820</v>
       </c>
       <c r="F49" s="15">
-        <v>5546</v>
+        <v>15156</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6036,15 +6047,15 @@
       <c r="B50" s="17">
         <v>47</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="44">
         <v>43951</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="33">
+      <c r="D50" s="38"/>
+      <c r="E50" s="31">
         <v>27419</v>
       </c>
-      <c r="F50" s="29">
-        <v>4137</v>
+      <c r="F50" s="27">
+        <v>12735</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6062,15 +6073,15 @@
       <c r="B51" s="18">
         <v>48</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="45">
         <v>43952</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="34">
+      <c r="D51" s="39"/>
+      <c r="E51" s="32">
         <v>25087</v>
       </c>
       <c r="F51" s="15">
-        <v>3011</v>
+        <v>10557</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6088,15 +6099,15 @@
       <c r="B52" s="17">
         <v>49</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="44">
         <v>43953</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="33">
+      <c r="D52" s="38"/>
+      <c r="E52" s="31">
         <v>22835</v>
       </c>
-      <c r="F52" s="29">
-        <v>2136</v>
+      <c r="F52" s="27">
+        <v>8627</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6114,15 +6125,15 @@
       <c r="B53" s="18">
         <v>50</v>
       </c>
-      <c r="C53" s="47">
+      <c r="C53" s="45">
         <v>43954</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="34">
+      <c r="D53" s="39"/>
+      <c r="E53" s="32">
         <v>20672</v>
       </c>
       <c r="F53" s="15">
-        <v>1476</v>
+        <v>6945</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6140,15 +6151,15 @@
       <c r="B54" s="17">
         <v>51</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="44">
         <v>43955</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="33">
+      <c r="D54" s="38"/>
+      <c r="E54" s="31">
         <v>18606</v>
       </c>
-      <c r="F54" s="29">
-        <v>992</v>
+      <c r="F54" s="27">
+        <v>5503</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6166,15 +6177,15 @@
       <c r="B55" s="18">
         <v>52</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="45">
         <v>43956</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="34">
+      <c r="D55" s="39"/>
+      <c r="E55" s="32">
         <v>16645</v>
       </c>
       <c r="F55" s="15">
-        <v>648</v>
+        <v>4289</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6192,15 +6203,15 @@
       <c r="B56" s="17">
         <v>53</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="44">
         <v>43957</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="33">
+      <c r="D56" s="38"/>
+      <c r="E56" s="31">
         <v>14797</v>
       </c>
-      <c r="F56" s="29">
-        <v>410</v>
+      <c r="F56" s="27">
+        <v>3286</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6218,15 +6229,15 @@
       <c r="B57" s="18">
         <v>54</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="45">
         <v>43958</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="34">
+      <c r="D57" s="39"/>
+      <c r="E57" s="32">
         <v>13066</v>
       </c>
       <c r="F57" s="15">
-        <v>252</v>
+        <v>2473</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6244,15 +6255,15 @@
       <c r="B58" s="17">
         <v>55</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="44">
         <v>43959</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="33">
+      <c r="D58" s="38"/>
+      <c r="E58" s="31">
         <v>11457</v>
       </c>
-      <c r="F58" s="29">
-        <v>150</v>
+      <c r="F58" s="27">
+        <v>1827</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6270,15 +6281,15 @@
       <c r="B59" s="18">
         <v>56</v>
       </c>
-      <c r="C59" s="47">
+      <c r="C59" s="45">
         <v>43960</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="34">
+      <c r="D59" s="39"/>
+      <c r="E59" s="32">
         <v>9972</v>
       </c>
       <c r="F59" s="15">
-        <v>86</v>
+        <v>1325</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6290,15 +6301,15 @@
       <c r="B60" s="17">
         <v>57</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="44">
         <v>43961</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="33">
+      <c r="D60" s="38"/>
+      <c r="E60" s="31">
         <v>8613</v>
       </c>
-      <c r="F60" s="29">
-        <v>48</v>
+      <c r="F60" s="27">
+        <v>942</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6310,15 +6321,15 @@
       <c r="B61" s="18">
         <v>58</v>
       </c>
-      <c r="C61" s="47">
+      <c r="C61" s="45">
         <v>43962</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="34">
+      <c r="D61" s="39"/>
+      <c r="E61" s="32">
         <v>7380</v>
       </c>
       <c r="F61" s="15">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6330,15 +6341,15 @@
       <c r="B62" s="17">
         <v>59</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="44">
         <v>43963</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="33">
+      <c r="D62" s="38"/>
+      <c r="E62" s="31">
         <v>6271</v>
       </c>
-      <c r="F62" s="29">
-        <v>13</v>
+      <c r="F62" s="27">
+        <v>448</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6350,15 +6361,15 @@
       <c r="B63" s="18">
         <v>60</v>
       </c>
-      <c r="C63" s="47">
+      <c r="C63" s="45">
         <v>43964</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="34">
+      <c r="D63" s="39"/>
+      <c r="E63" s="32">
         <v>5283</v>
       </c>
       <c r="F63" s="15">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6370,15 +6381,15 @@
       <c r="B64" s="17">
         <v>61</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="44">
         <v>43965</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="33">
+      <c r="D64" s="38"/>
+      <c r="E64" s="31">
         <v>4411</v>
       </c>
-      <c r="F64" s="29">
-        <v>2</v>
+      <c r="F64" s="27">
+        <v>195</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6390,15 +6401,15 @@
       <c r="B65" s="18">
         <v>62</v>
       </c>
-      <c r="C65" s="47">
+      <c r="C65" s="45">
         <v>43966</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="34">
+      <c r="D65" s="39"/>
+      <c r="E65" s="32">
         <v>3649</v>
       </c>
-      <c r="F65" s="15">
-        <v>0</v>
+      <c r="F65" s="47">
+        <v>124</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6410,15 +6421,15 @@
       <c r="B66" s="17">
         <v>63</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="44">
         <v>43967</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="33">
+      <c r="D66" s="38"/>
+      <c r="E66" s="31">
         <v>2989</v>
       </c>
-      <c r="F66" s="29">
-        <v>0</v>
+      <c r="F66" s="27">
+        <v>77</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6430,15 +6441,15 @@
       <c r="B67" s="18">
         <v>64</v>
       </c>
-      <c r="C67" s="47">
+      <c r="C67" s="45">
         <v>43968</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="34">
+      <c r="D67" s="39"/>
+      <c r="E67" s="32">
         <v>2425</v>
       </c>
       <c r="F67" s="15">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6450,15 +6461,15 @@
       <c r="B68" s="17">
         <v>65</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="44">
         <v>43969</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="33">
+      <c r="D68" s="38"/>
+      <c r="E68" s="31">
         <v>1947</v>
       </c>
-      <c r="F68" s="29">
-        <v>0</v>
+      <c r="F68" s="27">
+        <v>28</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6470,15 +6481,15 @@
       <c r="B69" s="18">
         <v>66</v>
       </c>
-      <c r="C69" s="47">
+      <c r="C69" s="45">
         <v>43970</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="34">
+      <c r="D69" s="39"/>
+      <c r="E69" s="32">
         <v>1547</v>
       </c>
       <c r="F69" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6490,15 +6501,15 @@
       <c r="B70" s="17">
         <v>67</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="44">
         <v>43971</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="33">
+      <c r="D70" s="38"/>
+      <c r="E70" s="31">
         <v>1216</v>
       </c>
-      <c r="F70" s="49">
-        <v>0</v>
+      <c r="F70" s="27">
+        <v>9</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6510,15 +6521,15 @@
       <c r="B71" s="18">
         <v>68</v>
       </c>
-      <c r="C71" s="47">
+      <c r="C71" s="45">
         <v>43972</v>
       </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="34">
+      <c r="D71" s="39"/>
+      <c r="E71" s="32">
         <v>946</v>
       </c>
       <c r="F71" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6530,15 +6541,15 @@
       <c r="B72" s="17">
         <v>69</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C72" s="44">
         <v>43973</v>
       </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="33">
+      <c r="D72" s="38"/>
+      <c r="E72" s="31">
         <v>727</v>
       </c>
-      <c r="F72" s="29">
-        <v>0</v>
+      <c r="F72" s="27">
+        <v>2</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6550,15 +6561,15 @@
       <c r="B73" s="18">
         <v>70</v>
       </c>
-      <c r="C73" s="47">
+      <c r="C73" s="45">
         <v>43974</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="34">
+      <c r="D73" s="39"/>
+      <c r="E73" s="32">
         <v>553</v>
       </c>
       <c r="F73" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6570,14 +6581,14 @@
       <c r="B74" s="17">
         <v>71</v>
       </c>
-      <c r="C74" s="46">
+      <c r="C74" s="44">
         <v>43975</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="33">
+      <c r="D74" s="38"/>
+      <c r="E74" s="31">
         <v>415</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="27">
         <v>0</v>
       </c>
       <c r="H74" s="5"/>
@@ -6590,11 +6601,11 @@
       <c r="B75" s="18">
         <v>72</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="45">
         <v>43976</v>
       </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="34">
+      <c r="D75" s="39"/>
+      <c r="E75" s="32">
         <v>308</v>
       </c>
       <c r="F75" s="15">
@@ -6610,14 +6621,14 @@
       <c r="B76" s="17">
         <v>73</v>
       </c>
-      <c r="C76" s="46">
+      <c r="C76" s="44">
         <v>43977</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="33">
+      <c r="D76" s="38"/>
+      <c r="E76" s="31">
         <v>226</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="27">
         <v>0</v>
       </c>
       <c r="H76" s="5"/>
@@ -6630,11 +6641,11 @@
       <c r="B77" s="18">
         <v>74</v>
       </c>
-      <c r="C77" s="47">
+      <c r="C77" s="45">
         <v>43978</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="34">
+      <c r="D77" s="39"/>
+      <c r="E77" s="32">
         <v>164</v>
       </c>
       <c r="F77" s="15">
@@ -6650,14 +6661,14 @@
       <c r="B78" s="17">
         <v>75</v>
       </c>
-      <c r="C78" s="46">
+      <c r="C78" s="44">
         <v>43979</v>
       </c>
-      <c r="D78" s="40"/>
-      <c r="E78" s="33">
+      <c r="D78" s="38"/>
+      <c r="E78" s="31">
         <v>117</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="27">
         <v>0</v>
       </c>
       <c r="H78" s="5"/>
@@ -6670,11 +6681,11 @@
       <c r="B79" s="18">
         <v>76</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="45">
         <v>43980</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="34">
+      <c r="D79" s="39"/>
+      <c r="E79" s="32">
         <v>82</v>
       </c>
       <c r="F79" s="15">
@@ -6690,14 +6701,14 @@
       <c r="B80" s="17">
         <v>77</v>
       </c>
-      <c r="C80" s="46">
+      <c r="C80" s="44">
         <v>43981</v>
       </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="33">
+      <c r="D80" s="38"/>
+      <c r="E80" s="31">
         <v>57</v>
       </c>
-      <c r="F80" s="29">
+      <c r="F80" s="27">
         <v>0</v>
       </c>
       <c r="H80" s="5"/>
@@ -6710,11 +6721,11 @@
       <c r="B81" s="18">
         <v>78</v>
       </c>
-      <c r="C81" s="47">
+      <c r="C81" s="45">
         <v>43982</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="34">
+      <c r="D81" s="39"/>
+      <c r="E81" s="32">
         <v>39</v>
       </c>
       <c r="F81" s="15">
@@ -6730,14 +6741,14 @@
       <c r="B82" s="17">
         <v>79</v>
       </c>
-      <c r="C82" s="46">
+      <c r="C82" s="44">
         <v>43983</v>
       </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="33">
+      <c r="D82" s="38"/>
+      <c r="E82" s="31">
         <v>26</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="27">
         <v>0</v>
       </c>
       <c r="H82" s="5"/>
@@ -6750,11 +6761,11 @@
       <c r="B83" s="18">
         <v>80</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="45">
         <v>43984</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="34">
+      <c r="D83" s="39"/>
+      <c r="E83" s="32">
         <v>17</v>
       </c>
       <c r="F83" s="15">
@@ -6770,14 +6781,14 @@
       <c r="B84" s="17">
         <v>81</v>
       </c>
-      <c r="C84" s="46">
+      <c r="C84" s="44">
         <v>43985</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="33">
+      <c r="D84" s="38"/>
+      <c r="E84" s="31">
         <v>11</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="27">
         <v>0</v>
       </c>
       <c r="H84" s="5"/>
@@ -6790,14 +6801,14 @@
       <c r="B85" s="18">
         <v>82</v>
       </c>
-      <c r="C85" s="47">
+      <c r="C85" s="45">
         <v>43986</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="34">
+      <c r="D85" s="39"/>
+      <c r="E85" s="32">
         <v>7</v>
       </c>
-      <c r="F85" s="52">
+      <c r="F85" s="50">
         <v>0</v>
       </c>
       <c r="H85" s="5"/>
@@ -6810,14 +6821,14 @@
       <c r="B86" s="17">
         <v>83</v>
       </c>
-      <c r="C86" s="46">
+      <c r="C86" s="44">
         <v>43987</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="33">
+      <c r="D86" s="38"/>
+      <c r="E86" s="31">
         <v>4</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="27">
         <v>0</v>
       </c>
       <c r="H86" s="5"/>
@@ -6830,11 +6841,11 @@
       <c r="B87" s="18">
         <v>84</v>
       </c>
-      <c r="C87" s="47">
+      <c r="C87" s="45">
         <v>43988</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="34">
+      <c r="D87" s="39"/>
+      <c r="E87" s="32">
         <v>2</v>
       </c>
       <c r="F87" s="15">
@@ -6850,14 +6861,14 @@
       <c r="B88" s="17">
         <v>85</v>
       </c>
-      <c r="C88" s="46">
+      <c r="C88" s="44">
         <v>43989</v>
       </c>
-      <c r="D88" s="40"/>
-      <c r="E88" s="33">
+      <c r="D88" s="38"/>
+      <c r="E88" s="31">
         <v>1</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F88" s="27">
         <v>0</v>
       </c>
       <c r="H88" s="5"/>
@@ -6870,11 +6881,11 @@
       <c r="B89" s="18">
         <v>86</v>
       </c>
-      <c r="C89" s="47">
+      <c r="C89" s="45">
         <v>43990</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="48">
+      <c r="D89" s="39"/>
+      <c r="E89" s="46">
         <v>0</v>
       </c>
       <c r="F89" s="15">
@@ -6890,14 +6901,14 @@
       <c r="B90" s="17">
         <v>87</v>
       </c>
-      <c r="C90" s="46">
+      <c r="C90" s="44">
         <v>43991</v>
       </c>
-      <c r="D90" s="40"/>
-      <c r="E90" s="33">
-        <v>0</v>
-      </c>
-      <c r="F90" s="29">
+      <c r="D90" s="38"/>
+      <c r="E90" s="31">
+        <v>0</v>
+      </c>
+      <c r="F90" s="27">
         <v>0</v>
       </c>
       <c r="H90" s="5"/>
@@ -6910,11 +6921,11 @@
       <c r="B91" s="18">
         <v>88</v>
       </c>
-      <c r="C91" s="47">
+      <c r="C91" s="45">
         <v>43992</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="34">
+      <c r="D91" s="39"/>
+      <c r="E91" s="32">
         <v>0</v>
       </c>
       <c r="F91" s="15">
@@ -6930,14 +6941,14 @@
       <c r="B92" s="17">
         <v>89</v>
       </c>
-      <c r="C92" s="46">
+      <c r="C92" s="44">
         <v>43993</v>
       </c>
-      <c r="D92" s="40"/>
-      <c r="E92" s="33">
-        <v>0</v>
-      </c>
-      <c r="F92" s="29">
+      <c r="D92" s="38"/>
+      <c r="E92" s="31">
+        <v>0</v>
+      </c>
+      <c r="F92" s="27">
         <v>0</v>
       </c>
       <c r="H92" s="5"/>
@@ -6950,11 +6961,11 @@
       <c r="B93" s="18">
         <v>90</v>
       </c>
-      <c r="C93" s="47">
+      <c r="C93" s="45">
         <v>43994</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="34">
+      <c r="D93" s="39"/>
+      <c r="E93" s="32">
         <v>0</v>
       </c>
       <c r="F93" s="15">
@@ -6970,14 +6981,14 @@
       <c r="B94" s="17">
         <v>91</v>
       </c>
-      <c r="C94" s="46">
+      <c r="C94" s="44">
         <v>43995</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="33">
-        <v>0</v>
-      </c>
-      <c r="F94" s="29">
+      <c r="D94" s="38"/>
+      <c r="E94" s="31">
+        <v>0</v>
+      </c>
+      <c r="F94" s="27">
         <v>0</v>
       </c>
       <c r="H94" s="5"/>
@@ -6990,11 +7001,11 @@
       <c r="B95" s="18">
         <v>92</v>
       </c>
-      <c r="C95" s="47">
+      <c r="C95" s="45">
         <v>43996</v>
       </c>
-      <c r="D95" s="41"/>
-      <c r="E95" s="34">
+      <c r="D95" s="39"/>
+      <c r="E95" s="32">
         <v>0</v>
       </c>
       <c r="F95" s="15">
@@ -7010,14 +7021,14 @@
       <c r="B96" s="17">
         <v>93</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="44">
         <v>43997</v>
       </c>
-      <c r="D96" s="40"/>
-      <c r="E96" s="33">
-        <v>0</v>
-      </c>
-      <c r="F96" s="29">
+      <c r="D96" s="38"/>
+      <c r="E96" s="31">
+        <v>0</v>
+      </c>
+      <c r="F96" s="27">
         <v>0</v>
       </c>
       <c r="H96" s="5"/>
@@ -7030,11 +7041,11 @@
       <c r="B97" s="18">
         <v>94</v>
       </c>
-      <c r="C97" s="47">
+      <c r="C97" s="45">
         <v>43998</v>
       </c>
-      <c r="D97" s="41"/>
-      <c r="E97" s="34">
+      <c r="D97" s="39"/>
+      <c r="E97" s="32">
         <v>0</v>
       </c>
       <c r="F97" s="15">
@@ -7050,14 +7061,14 @@
       <c r="B98" s="17">
         <v>95</v>
       </c>
-      <c r="C98" s="46">
+      <c r="C98" s="44">
         <v>43999</v>
       </c>
-      <c r="D98" s="40"/>
-      <c r="E98" s="33">
-        <v>0</v>
-      </c>
-      <c r="F98" s="29">
+      <c r="D98" s="38"/>
+      <c r="E98" s="31">
+        <v>0</v>
+      </c>
+      <c r="F98" s="27">
         <v>0</v>
       </c>
       <c r="H98" s="5"/>
@@ -7070,11 +7081,11 @@
       <c r="B99" s="18">
         <v>96</v>
       </c>
-      <c r="C99" s="47">
+      <c r="C99" s="45">
         <v>44000</v>
       </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="34">
+      <c r="D99" s="39"/>
+      <c r="E99" s="32">
         <v>0</v>
       </c>
       <c r="F99" s="15">
@@ -7090,14 +7101,14 @@
       <c r="B100" s="17">
         <v>97</v>
       </c>
-      <c r="C100" s="46">
+      <c r="C100" s="44">
         <v>44001</v>
       </c>
-      <c r="D100" s="40"/>
-      <c r="E100" s="33">
-        <v>0</v>
-      </c>
-      <c r="F100" s="29">
+      <c r="D100" s="38"/>
+      <c r="E100" s="31">
+        <v>0</v>
+      </c>
+      <c r="F100" s="27">
         <v>0</v>
       </c>
       <c r="H100" s="5"/>
@@ -7110,11 +7121,11 @@
       <c r="B101" s="18">
         <v>98</v>
       </c>
-      <c r="C101" s="47">
+      <c r="C101" s="45">
         <v>44002</v>
       </c>
-      <c r="D101" s="41"/>
-      <c r="E101" s="34">
+      <c r="D101" s="39"/>
+      <c r="E101" s="32">
         <v>0</v>
       </c>
       <c r="F101" s="15">
@@ -7130,14 +7141,14 @@
       <c r="B102" s="17">
         <v>99</v>
       </c>
-      <c r="C102" s="46">
+      <c r="C102" s="44">
         <v>44003</v>
       </c>
-      <c r="D102" s="40"/>
-      <c r="E102" s="33">
-        <v>0</v>
-      </c>
-      <c r="F102" s="29">
+      <c r="D102" s="38"/>
+      <c r="E102" s="31">
+        <v>0</v>
+      </c>
+      <c r="F102" s="27">
         <v>0</v>
       </c>
       <c r="H102" s="5"/>
@@ -7150,11 +7161,11 @@
       <c r="B103" s="18">
         <v>100</v>
       </c>
-      <c r="C103" s="47">
+      <c r="C103" s="45">
         <v>44004</v>
       </c>
-      <c r="D103" s="41"/>
-      <c r="E103" s="34">
+      <c r="D103" s="39"/>
+      <c r="E103" s="32">
         <v>0</v>
       </c>
       <c r="F103" s="15">
@@ -7170,14 +7181,14 @@
       <c r="B104" s="17">
         <v>101</v>
       </c>
-      <c r="C104" s="46">
+      <c r="C104" s="44">
         <v>44005</v>
       </c>
-      <c r="D104" s="40"/>
-      <c r="E104" s="48">
-        <v>0</v>
-      </c>
-      <c r="F104" s="29">
+      <c r="D104" s="38"/>
+      <c r="E104" s="46">
+        <v>0</v>
+      </c>
+      <c r="F104" s="27">
         <v>0</v>
       </c>
       <c r="H104" s="5"/>
@@ -7190,11 +7201,11 @@
       <c r="B105" s="18">
         <v>102</v>
       </c>
-      <c r="C105" s="47">
+      <c r="C105" s="45">
         <v>44006</v>
       </c>
-      <c r="D105" s="41"/>
-      <c r="E105" s="34">
+      <c r="D105" s="39"/>
+      <c r="E105" s="32">
         <v>0</v>
       </c>
       <c r="F105" s="15">
@@ -7210,14 +7221,14 @@
       <c r="B106" s="17">
         <v>103</v>
       </c>
-      <c r="C106" s="46">
+      <c r="C106" s="44">
         <v>44007</v>
       </c>
-      <c r="D106" s="40"/>
-      <c r="E106" s="33">
-        <v>0</v>
-      </c>
-      <c r="F106" s="29">
+      <c r="D106" s="38"/>
+      <c r="E106" s="31">
+        <v>0</v>
+      </c>
+      <c r="F106" s="27">
         <v>0</v>
       </c>
       <c r="H106" s="5"/>
@@ -7230,11 +7241,11 @@
       <c r="B107" s="18">
         <v>104</v>
       </c>
-      <c r="C107" s="47">
+      <c r="C107" s="45">
         <v>44008</v>
       </c>
-      <c r="D107" s="41"/>
-      <c r="E107" s="34">
+      <c r="D107" s="39"/>
+      <c r="E107" s="32">
         <v>0</v>
       </c>
       <c r="F107" s="15">
@@ -7250,14 +7261,14 @@
       <c r="B108" s="17">
         <v>105</v>
       </c>
-      <c r="C108" s="46">
+      <c r="C108" s="44">
         <v>44009</v>
       </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="33">
-        <v>0</v>
-      </c>
-      <c r="F108" s="29">
+      <c r="D108" s="38"/>
+      <c r="E108" s="31">
+        <v>0</v>
+      </c>
+      <c r="F108" s="27">
         <v>0</v>
       </c>
       <c r="H108" s="5"/>
@@ -7270,11 +7281,11 @@
       <c r="B109" s="18">
         <v>106</v>
       </c>
-      <c r="C109" s="47">
+      <c r="C109" s="45">
         <v>44010</v>
       </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="34">
+      <c r="D109" s="39"/>
+      <c r="E109" s="32">
         <v>0</v>
       </c>
       <c r="F109" s="15">
@@ -7290,14 +7301,14 @@
       <c r="B110" s="17">
         <v>107</v>
       </c>
-      <c r="C110" s="46">
+      <c r="C110" s="44">
         <v>44011</v>
       </c>
-      <c r="D110" s="40"/>
-      <c r="E110" s="33">
-        <v>0</v>
-      </c>
-      <c r="F110" s="29">
+      <c r="D110" s="38"/>
+      <c r="E110" s="31">
+        <v>0</v>
+      </c>
+      <c r="F110" s="27">
         <v>0</v>
       </c>
       <c r="H110" s="5"/>
@@ -7310,11 +7321,11 @@
       <c r="B111" s="18">
         <v>108</v>
       </c>
-      <c r="C111" s="47">
+      <c r="C111" s="45">
         <v>44012</v>
       </c>
-      <c r="D111" s="41"/>
-      <c r="E111" s="34">
+      <c r="D111" s="39"/>
+      <c r="E111" s="32">
         <v>0</v>
       </c>
       <c r="F111" s="15">
@@ -7330,14 +7341,14 @@
       <c r="B112" s="17">
         <v>109</v>
       </c>
-      <c r="C112" s="46">
+      <c r="C112" s="44">
         <v>44013</v>
       </c>
-      <c r="D112" s="40"/>
-      <c r="E112" s="33">
-        <v>0</v>
-      </c>
-      <c r="F112" s="29">
+      <c r="D112" s="38"/>
+      <c r="E112" s="31">
+        <v>0</v>
+      </c>
+      <c r="F112" s="27">
         <v>0</v>
       </c>
       <c r="H112" s="5"/>
@@ -7350,11 +7361,11 @@
       <c r="B113" s="18">
         <v>110</v>
       </c>
-      <c r="C113" s="47">
+      <c r="C113" s="45">
         <v>44014</v>
       </c>
-      <c r="D113" s="41"/>
-      <c r="E113" s="34">
+      <c r="D113" s="39"/>
+      <c r="E113" s="32">
         <v>0</v>
       </c>
       <c r="F113" s="15">
@@ -7370,14 +7381,14 @@
       <c r="B114" s="17">
         <v>111</v>
       </c>
-      <c r="C114" s="46">
+      <c r="C114" s="44">
         <v>44015</v>
       </c>
-      <c r="D114" s="40"/>
-      <c r="E114" s="33">
-        <v>0</v>
-      </c>
-      <c r="F114" s="29">
+      <c r="D114" s="38"/>
+      <c r="E114" s="31">
+        <v>0</v>
+      </c>
+      <c r="F114" s="27">
         <v>0</v>
       </c>
       <c r="H114" s="5"/>
@@ -7390,11 +7401,11 @@
       <c r="B115" s="18">
         <v>112</v>
       </c>
-      <c r="C115" s="47">
+      <c r="C115" s="45">
         <v>44016</v>
       </c>
-      <c r="D115" s="41"/>
-      <c r="E115" s="34">
+      <c r="D115" s="39"/>
+      <c r="E115" s="32">
         <v>0</v>
       </c>
       <c r="F115" s="15">
@@ -7410,14 +7421,14 @@
       <c r="B116" s="17">
         <v>113</v>
       </c>
-      <c r="C116" s="46">
+      <c r="C116" s="44">
         <v>44017</v>
       </c>
-      <c r="D116" s="40"/>
-      <c r="E116" s="33">
-        <v>0</v>
-      </c>
-      <c r="F116" s="29">
+      <c r="D116" s="38"/>
+      <c r="E116" s="31">
+        <v>0</v>
+      </c>
+      <c r="F116" s="27">
         <v>0</v>
       </c>
       <c r="H116" s="5"/>
@@ -7430,11 +7441,11 @@
       <c r="B117" s="18">
         <v>114</v>
       </c>
-      <c r="C117" s="47">
+      <c r="C117" s="45">
         <v>44018</v>
       </c>
-      <c r="D117" s="41"/>
-      <c r="E117" s="34">
+      <c r="D117" s="39"/>
+      <c r="E117" s="32">
         <v>0</v>
       </c>
       <c r="F117" s="15">
@@ -7450,14 +7461,14 @@
       <c r="B118" s="17">
         <v>115</v>
       </c>
-      <c r="C118" s="46">
+      <c r="C118" s="44">
         <v>44019</v>
       </c>
-      <c r="D118" s="40"/>
-      <c r="E118" s="33">
-        <v>0</v>
-      </c>
-      <c r="F118" s="29">
+      <c r="D118" s="38"/>
+      <c r="E118" s="31">
+        <v>0</v>
+      </c>
+      <c r="F118" s="27">
         <v>0</v>
       </c>
       <c r="H118" s="5"/>
@@ -7470,11 +7481,11 @@
       <c r="B119" s="18">
         <v>116</v>
       </c>
-      <c r="C119" s="47">
+      <c r="C119" s="45">
         <v>44020</v>
       </c>
-      <c r="D119" s="41"/>
-      <c r="E119" s="34">
+      <c r="D119" s="39"/>
+      <c r="E119" s="32">
         <v>0</v>
       </c>
       <c r="F119" s="15">
@@ -7490,14 +7501,14 @@
       <c r="B120" s="17">
         <v>117</v>
       </c>
-      <c r="C120" s="46">
+      <c r="C120" s="44">
         <v>44021</v>
       </c>
-      <c r="D120" s="40"/>
-      <c r="E120" s="33">
-        <v>0</v>
-      </c>
-      <c r="F120" s="29">
+      <c r="D120" s="38"/>
+      <c r="E120" s="31">
+        <v>0</v>
+      </c>
+      <c r="F120" s="27">
         <v>0</v>
       </c>
       <c r="H120" s="5"/>
@@ -7510,11 +7521,11 @@
       <c r="B121" s="18">
         <v>118</v>
       </c>
-      <c r="C121" s="47">
+      <c r="C121" s="45">
         <v>44022</v>
       </c>
-      <c r="D121" s="41"/>
-      <c r="E121" s="34">
+      <c r="D121" s="39"/>
+      <c r="E121" s="32">
         <v>0</v>
       </c>
       <c r="F121" s="15">
@@ -7530,14 +7541,14 @@
       <c r="B122" s="17">
         <v>119</v>
       </c>
-      <c r="C122" s="46">
+      <c r="C122" s="44">
         <v>44023</v>
       </c>
-      <c r="D122" s="40"/>
-      <c r="E122" s="33">
-        <v>0</v>
-      </c>
-      <c r="F122" s="29">
+      <c r="D122" s="38"/>
+      <c r="E122" s="31">
+        <v>0</v>
+      </c>
+      <c r="F122" s="27">
         <v>0</v>
       </c>
       <c r="H122" s="5"/>
@@ -7550,11 +7561,11 @@
       <c r="B123" s="18">
         <v>120</v>
       </c>
-      <c r="C123" s="47">
+      <c r="C123" s="45">
         <v>44024</v>
       </c>
-      <c r="D123" s="41"/>
-      <c r="E123" s="34">
+      <c r="D123" s="39"/>
+      <c r="E123" s="32">
         <v>0</v>
       </c>
       <c r="F123" s="15">
@@ -7570,14 +7581,14 @@
       <c r="B124" s="17">
         <v>121</v>
       </c>
-      <c r="C124" s="46">
+      <c r="C124" s="44">
         <v>44025</v>
       </c>
-      <c r="D124" s="40"/>
-      <c r="E124" s="33">
-        <v>0</v>
-      </c>
-      <c r="F124" s="29">
+      <c r="D124" s="38"/>
+      <c r="E124" s="31">
+        <v>0</v>
+      </c>
+      <c r="F124" s="27">
         <v>0</v>
       </c>
       <c r="H124" s="5"/>
@@ -7590,11 +7601,11 @@
       <c r="B125" s="18">
         <v>122</v>
       </c>
-      <c r="C125" s="47">
+      <c r="C125" s="45">
         <v>44026</v>
       </c>
-      <c r="D125" s="41"/>
-      <c r="E125" s="34">
+      <c r="D125" s="39"/>
+      <c r="E125" s="32">
         <v>0</v>
       </c>
       <c r="F125" s="15">
@@ -7610,14 +7621,14 @@
       <c r="B126" s="17">
         <v>123</v>
       </c>
-      <c r="C126" s="46">
+      <c r="C126" s="44">
         <v>44027</v>
       </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="33">
-        <v>0</v>
-      </c>
-      <c r="F126" s="29">
+      <c r="D126" s="38"/>
+      <c r="E126" s="31">
+        <v>0</v>
+      </c>
+      <c r="F126" s="27">
         <v>0</v>
       </c>
       <c r="H126" s="5"/>
@@ -7630,11 +7641,11 @@
       <c r="B127" s="18">
         <v>124</v>
       </c>
-      <c r="C127" s="47">
+      <c r="C127" s="45">
         <v>44028</v>
       </c>
-      <c r="D127" s="41"/>
-      <c r="E127" s="34">
+      <c r="D127" s="39"/>
+      <c r="E127" s="32">
         <v>0</v>
       </c>
       <c r="F127" s="15">
@@ -7650,14 +7661,14 @@
       <c r="B128" s="17">
         <v>125</v>
       </c>
-      <c r="C128" s="46">
+      <c r="C128" s="44">
         <v>44029</v>
       </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="33">
-        <v>0</v>
-      </c>
-      <c r="F128" s="29">
+      <c r="D128" s="38"/>
+      <c r="E128" s="31">
+        <v>0</v>
+      </c>
+      <c r="F128" s="27">
         <v>0</v>
       </c>
       <c r="H128" s="5"/>
@@ -7670,11 +7681,11 @@
       <c r="B129" s="18">
         <v>126</v>
       </c>
-      <c r="C129" s="47">
+      <c r="C129" s="45">
         <v>44030</v>
       </c>
-      <c r="D129" s="41"/>
-      <c r="E129" s="34">
+      <c r="D129" s="39"/>
+      <c r="E129" s="32">
         <v>0</v>
       </c>
       <c r="F129" s="15">
@@ -7690,14 +7701,14 @@
       <c r="B130" s="17">
         <v>127</v>
       </c>
-      <c r="C130" s="46">
+      <c r="C130" s="44">
         <v>44031</v>
       </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="33">
-        <v>0</v>
-      </c>
-      <c r="F130" s="29">
+      <c r="D130" s="38"/>
+      <c r="E130" s="31">
+        <v>0</v>
+      </c>
+      <c r="F130" s="27">
         <v>0</v>
       </c>
       <c r="H130" s="5"/>
@@ -7710,11 +7721,11 @@
       <c r="B131" s="18">
         <v>128</v>
       </c>
-      <c r="C131" s="47">
+      <c r="C131" s="45">
         <v>44032</v>
       </c>
-      <c r="D131" s="41"/>
-      <c r="E131" s="34">
+      <c r="D131" s="39"/>
+      <c r="E131" s="32">
         <v>0</v>
       </c>
       <c r="F131" s="15">
@@ -7730,14 +7741,14 @@
       <c r="B132" s="17">
         <v>129</v>
       </c>
-      <c r="C132" s="46">
+      <c r="C132" s="44">
         <v>44033</v>
       </c>
-      <c r="D132" s="40"/>
-      <c r="E132" s="33">
-        <v>0</v>
-      </c>
-      <c r="F132" s="29">
+      <c r="D132" s="38"/>
+      <c r="E132" s="31">
+        <v>0</v>
+      </c>
+      <c r="F132" s="27">
         <v>0</v>
       </c>
       <c r="H132" s="5"/>
@@ -7750,11 +7761,11 @@
       <c r="B133" s="18">
         <v>130</v>
       </c>
-      <c r="C133" s="47">
+      <c r="C133" s="45">
         <v>44034</v>
       </c>
-      <c r="D133" s="41"/>
-      <c r="E133" s="34">
+      <c r="D133" s="39"/>
+      <c r="E133" s="32">
         <v>0</v>
       </c>
       <c r="F133" s="15">
@@ -7770,14 +7781,14 @@
       <c r="B134" s="17">
         <v>131</v>
       </c>
-      <c r="C134" s="46">
+      <c r="C134" s="44">
         <v>44035</v>
       </c>
-      <c r="D134" s="40"/>
-      <c r="E134" s="33">
-        <v>0</v>
-      </c>
-      <c r="F134" s="29">
+      <c r="D134" s="38"/>
+      <c r="E134" s="31">
+        <v>0</v>
+      </c>
+      <c r="F134" s="27">
         <v>0</v>
       </c>
       <c r="H134" s="5"/>
@@ -7790,11 +7801,11 @@
       <c r="B135" s="18">
         <v>132</v>
       </c>
-      <c r="C135" s="47">
+      <c r="C135" s="45">
         <v>44036</v>
       </c>
-      <c r="D135" s="41"/>
-      <c r="E135" s="34">
+      <c r="D135" s="39"/>
+      <c r="E135" s="32">
         <v>0</v>
       </c>
       <c r="F135" s="15">
@@ -7810,14 +7821,14 @@
       <c r="B136" s="17">
         <v>133</v>
       </c>
-      <c r="C136" s="46">
+      <c r="C136" s="44">
         <v>44037</v>
       </c>
-      <c r="D136" s="40"/>
-      <c r="E136" s="33">
-        <v>0</v>
-      </c>
-      <c r="F136" s="29">
+      <c r="D136" s="38"/>
+      <c r="E136" s="31">
+        <v>0</v>
+      </c>
+      <c r="F136" s="27">
         <v>0</v>
       </c>
       <c r="H136" s="5"/>
@@ -7830,11 +7841,11 @@
       <c r="B137" s="18">
         <v>134</v>
       </c>
-      <c r="C137" s="47">
+      <c r="C137" s="45">
         <v>44038</v>
       </c>
-      <c r="D137" s="41"/>
-      <c r="E137" s="34">
+      <c r="D137" s="39"/>
+      <c r="E137" s="32">
         <v>0</v>
       </c>
       <c r="F137" s="15">
@@ -7850,14 +7861,14 @@
       <c r="B138" s="17">
         <v>135</v>
       </c>
-      <c r="C138" s="46">
+      <c r="C138" s="44">
         <v>44039</v>
       </c>
-      <c r="D138" s="40"/>
-      <c r="E138" s="33">
-        <v>0</v>
-      </c>
-      <c r="F138" s="29">
+      <c r="D138" s="38"/>
+      <c r="E138" s="31">
+        <v>0</v>
+      </c>
+      <c r="F138" s="27">
         <v>0</v>
       </c>
       <c r="H138" s="5"/>
@@ -7870,11 +7881,11 @@
       <c r="B139" s="18">
         <v>136</v>
       </c>
-      <c r="C139" s="47">
+      <c r="C139" s="45">
         <v>44040</v>
       </c>
-      <c r="D139" s="41"/>
-      <c r="E139" s="34">
+      <c r="D139" s="39"/>
+      <c r="E139" s="32">
         <v>0</v>
       </c>
       <c r="F139" s="15">
@@ -7890,14 +7901,14 @@
       <c r="B140" s="17">
         <v>137</v>
       </c>
-      <c r="C140" s="46">
+      <c r="C140" s="44">
         <v>44041</v>
       </c>
-      <c r="D140" s="40"/>
-      <c r="E140" s="33">
-        <v>0</v>
-      </c>
-      <c r="F140" s="29">
+      <c r="D140" s="38"/>
+      <c r="E140" s="31">
+        <v>0</v>
+      </c>
+      <c r="F140" s="27">
         <v>0</v>
       </c>
       <c r="H140" s="5"/>
@@ -7910,11 +7921,11 @@
       <c r="B141" s="18">
         <v>138</v>
       </c>
-      <c r="C141" s="47">
+      <c r="C141" s="45">
         <v>44042</v>
       </c>
-      <c r="D141" s="41"/>
-      <c r="E141" s="34">
+      <c r="D141" s="39"/>
+      <c r="E141" s="32">
         <v>0</v>
       </c>
       <c r="F141" s="15">
@@ -7930,14 +7941,14 @@
       <c r="B142" s="17">
         <v>139</v>
       </c>
-      <c r="C142" s="46">
+      <c r="C142" s="44">
         <v>44043</v>
       </c>
-      <c r="D142" s="40"/>
-      <c r="E142" s="33">
-        <v>0</v>
-      </c>
-      <c r="F142" s="29">
+      <c r="D142" s="38"/>
+      <c r="E142" s="31">
+        <v>0</v>
+      </c>
+      <c r="F142" s="27">
         <v>0</v>
       </c>
       <c r="H142" s="5"/>
@@ -7950,11 +7961,11 @@
       <c r="B143" s="18">
         <v>140</v>
       </c>
-      <c r="C143" s="47">
+      <c r="C143" s="45">
         <v>44044</v>
       </c>
-      <c r="D143" s="41"/>
-      <c r="E143" s="34">
+      <c r="D143" s="39"/>
+      <c r="E143" s="32">
         <v>0</v>
       </c>
       <c r="F143" s="15">
@@ -7970,14 +7981,14 @@
       <c r="B144" s="17">
         <v>141</v>
       </c>
-      <c r="C144" s="46">
+      <c r="C144" s="44">
         <v>44045</v>
       </c>
-      <c r="D144" s="40"/>
-      <c r="E144" s="33">
-        <v>0</v>
-      </c>
-      <c r="F144" s="29">
+      <c r="D144" s="38"/>
+      <c r="E144" s="31">
+        <v>0</v>
+      </c>
+      <c r="F144" s="27">
         <v>0</v>
       </c>
       <c r="H144" s="5"/>
@@ -7990,11 +8001,11 @@
       <c r="B145" s="18">
         <v>142</v>
       </c>
-      <c r="C145" s="47">
+      <c r="C145" s="45">
         <v>44046</v>
       </c>
-      <c r="D145" s="41"/>
-      <c r="E145" s="34">
+      <c r="D145" s="39"/>
+      <c r="E145" s="32">
         <v>0</v>
       </c>
       <c r="F145" s="15">
@@ -8010,14 +8021,14 @@
       <c r="B146" s="17">
         <v>143</v>
       </c>
-      <c r="C146" s="46">
+      <c r="C146" s="44">
         <v>44047</v>
       </c>
-      <c r="D146" s="40"/>
-      <c r="E146" s="33">
-        <v>0</v>
-      </c>
-      <c r="F146" s="29">
+      <c r="D146" s="38"/>
+      <c r="E146" s="31">
+        <v>0</v>
+      </c>
+      <c r="F146" s="27">
         <v>0</v>
       </c>
       <c r="H146" s="5"/>
@@ -8030,11 +8041,11 @@
       <c r="B147" s="18">
         <v>144</v>
       </c>
-      <c r="C147" s="47">
+      <c r="C147" s="45">
         <v>44048</v>
       </c>
-      <c r="D147" s="41"/>
-      <c r="E147" s="34">
+      <c r="D147" s="39"/>
+      <c r="E147" s="32">
         <v>0</v>
       </c>
       <c r="F147" s="15">
@@ -8050,14 +8061,14 @@
       <c r="B148" s="17">
         <v>145</v>
       </c>
-      <c r="C148" s="46">
+      <c r="C148" s="44">
         <v>44049</v>
       </c>
-      <c r="D148" s="40"/>
-      <c r="E148" s="33">
-        <v>0</v>
-      </c>
-      <c r="F148" s="29">
+      <c r="D148" s="38"/>
+      <c r="E148" s="31">
+        <v>0</v>
+      </c>
+      <c r="F148" s="27">
         <v>0</v>
       </c>
       <c r="H148" s="5"/>
@@ -8070,11 +8081,11 @@
       <c r="B149" s="18">
         <v>146</v>
       </c>
-      <c r="C149" s="47">
+      <c r="C149" s="45">
         <v>44050</v>
       </c>
-      <c r="D149" s="41"/>
-      <c r="E149" s="34">
+      <c r="D149" s="39"/>
+      <c r="E149" s="32">
         <v>0</v>
       </c>
       <c r="F149" s="15">
@@ -8090,14 +8101,14 @@
       <c r="B150" s="17">
         <v>147</v>
       </c>
-      <c r="C150" s="46">
+      <c r="C150" s="44">
         <v>44051</v>
       </c>
-      <c r="D150" s="40"/>
-      <c r="E150" s="33">
-        <v>0</v>
-      </c>
-      <c r="F150" s="29">
+      <c r="D150" s="38"/>
+      <c r="E150" s="31">
+        <v>0</v>
+      </c>
+      <c r="F150" s="27">
         <v>0</v>
       </c>
       <c r="H150" s="5"/>
@@ -8110,11 +8121,11 @@
       <c r="B151" s="18">
         <v>148</v>
       </c>
-      <c r="C151" s="47">
+      <c r="C151" s="45">
         <v>44052</v>
       </c>
-      <c r="D151" s="41"/>
-      <c r="E151" s="34">
+      <c r="D151" s="39"/>
+      <c r="E151" s="32">
         <v>0</v>
       </c>
       <c r="F151" s="15">
@@ -8130,14 +8141,14 @@
       <c r="B152" s="17">
         <v>149</v>
       </c>
-      <c r="C152" s="46">
+      <c r="C152" s="44">
         <v>44053</v>
       </c>
-      <c r="D152" s="40"/>
-      <c r="E152" s="33">
-        <v>0</v>
-      </c>
-      <c r="F152" s="29">
+      <c r="D152" s="38"/>
+      <c r="E152" s="31">
+        <v>0</v>
+      </c>
+      <c r="F152" s="27">
         <v>0</v>
       </c>
       <c r="H152" s="5"/>
@@ -8150,11 +8161,11 @@
       <c r="B153" s="18">
         <v>150</v>
       </c>
-      <c r="C153" s="47">
+      <c r="C153" s="45">
         <v>44054</v>
       </c>
-      <c r="D153" s="41"/>
-      <c r="E153" s="34">
+      <c r="D153" s="39"/>
+      <c r="E153" s="32">
         <v>0</v>
       </c>
       <c r="F153" s="15">
@@ -8170,14 +8181,14 @@
       <c r="B154" s="17">
         <v>151</v>
       </c>
-      <c r="C154" s="46">
+      <c r="C154" s="44">
         <v>44055</v>
       </c>
-      <c r="D154" s="40"/>
-      <c r="E154" s="33">
-        <v>0</v>
-      </c>
-      <c r="F154" s="29">
+      <c r="D154" s="38"/>
+      <c r="E154" s="31">
+        <v>0</v>
+      </c>
+      <c r="F154" s="27">
         <v>0</v>
       </c>
       <c r="H154" s="5"/>
@@ -8190,11 +8201,11 @@
       <c r="B155" s="18">
         <v>152</v>
       </c>
-      <c r="C155" s="47">
+      <c r="C155" s="45">
         <v>44056</v>
       </c>
-      <c r="D155" s="41"/>
-      <c r="E155" s="34">
+      <c r="D155" s="39"/>
+      <c r="E155" s="32">
         <v>0</v>
       </c>
       <c r="F155" s="15">
@@ -8210,14 +8221,14 @@
       <c r="B156" s="17">
         <v>153</v>
       </c>
-      <c r="C156" s="46">
+      <c r="C156" s="44">
         <v>44057</v>
       </c>
-      <c r="D156" s="40"/>
-      <c r="E156" s="33">
-        <v>0</v>
-      </c>
-      <c r="F156" s="29">
+      <c r="D156" s="38"/>
+      <c r="E156" s="31">
+        <v>0</v>
+      </c>
+      <c r="F156" s="27">
         <v>0</v>
       </c>
       <c r="H156" s="5"/>
@@ -8230,11 +8241,11 @@
       <c r="B157" s="18">
         <v>154</v>
       </c>
-      <c r="C157" s="47">
+      <c r="C157" s="45">
         <v>44058</v>
       </c>
-      <c r="D157" s="41"/>
-      <c r="E157" s="34">
+      <c r="D157" s="39"/>
+      <c r="E157" s="32">
         <v>0</v>
       </c>
       <c r="F157" s="15">
@@ -8250,14 +8261,14 @@
       <c r="B158" s="17">
         <v>155</v>
       </c>
-      <c r="C158" s="46">
+      <c r="C158" s="44">
         <v>44059</v>
       </c>
-      <c r="D158" s="40"/>
-      <c r="E158" s="33">
-        <v>0</v>
-      </c>
-      <c r="F158" s="29">
+      <c r="D158" s="38"/>
+      <c r="E158" s="31">
+        <v>0</v>
+      </c>
+      <c r="F158" s="27">
         <v>0</v>
       </c>
       <c r="H158" s="5"/>
@@ -8270,11 +8281,11 @@
       <c r="B159" s="18">
         <v>156</v>
       </c>
-      <c r="C159" s="47">
+      <c r="C159" s="45">
         <v>44060</v>
       </c>
-      <c r="D159" s="41"/>
-      <c r="E159" s="34">
+      <c r="D159" s="39"/>
+      <c r="E159" s="32">
         <v>0</v>
       </c>
       <c r="F159" s="15">
@@ -8290,14 +8301,14 @@
       <c r="B160" s="17">
         <v>157</v>
       </c>
-      <c r="C160" s="46">
+      <c r="C160" s="44">
         <v>44061</v>
       </c>
-      <c r="D160" s="40"/>
-      <c r="E160" s="33">
-        <v>0</v>
-      </c>
-      <c r="F160" s="29">
+      <c r="D160" s="38"/>
+      <c r="E160" s="31">
+        <v>0</v>
+      </c>
+      <c r="F160" s="27">
         <v>0</v>
       </c>
       <c r="H160" s="5"/>
@@ -8310,11 +8321,11 @@
       <c r="B161" s="18">
         <v>158</v>
       </c>
-      <c r="C161" s="47">
+      <c r="C161" s="45">
         <v>44062</v>
       </c>
-      <c r="D161" s="41"/>
-      <c r="E161" s="34">
+      <c r="D161" s="39"/>
+      <c r="E161" s="32">
         <v>0</v>
       </c>
       <c r="F161" s="15">
@@ -8330,14 +8341,14 @@
       <c r="B162" s="17">
         <v>159</v>
       </c>
-      <c r="C162" s="46">
+      <c r="C162" s="44">
         <v>44063</v>
       </c>
-      <c r="D162" s="40"/>
-      <c r="E162" s="33">
-        <v>0</v>
-      </c>
-      <c r="F162" s="29">
+      <c r="D162" s="38"/>
+      <c r="E162" s="31">
+        <v>0</v>
+      </c>
+      <c r="F162" s="27">
         <v>0</v>
       </c>
       <c r="H162" s="5"/>
@@ -8350,11 +8361,11 @@
       <c r="B163" s="18">
         <v>160</v>
       </c>
-      <c r="C163" s="47">
+      <c r="C163" s="45">
         <v>44064</v>
       </c>
-      <c r="D163" s="41"/>
-      <c r="E163" s="34">
+      <c r="D163" s="39"/>
+      <c r="E163" s="32">
         <v>0</v>
       </c>
       <c r="F163" s="15">
@@ -8370,14 +8381,14 @@
       <c r="B164" s="17">
         <v>161</v>
       </c>
-      <c r="C164" s="46">
+      <c r="C164" s="44">
         <v>44065</v>
       </c>
-      <c r="D164" s="40"/>
-      <c r="E164" s="33">
-        <v>0</v>
-      </c>
-      <c r="F164" s="29">
+      <c r="D164" s="38"/>
+      <c r="E164" s="31">
+        <v>0</v>
+      </c>
+      <c r="F164" s="27">
         <v>0</v>
       </c>
       <c r="H164" s="5"/>
@@ -8390,11 +8401,11 @@
       <c r="B165" s="18">
         <v>162</v>
       </c>
-      <c r="C165" s="47">
+      <c r="C165" s="45">
         <v>44066</v>
       </c>
-      <c r="D165" s="41"/>
-      <c r="E165" s="34">
+      <c r="D165" s="39"/>
+      <c r="E165" s="32">
         <v>0</v>
       </c>
       <c r="F165" s="15">
@@ -8410,14 +8421,14 @@
       <c r="B166" s="17">
         <v>163</v>
       </c>
-      <c r="C166" s="46">
+      <c r="C166" s="44">
         <v>44067</v>
       </c>
-      <c r="D166" s="40"/>
-      <c r="E166" s="33">
-        <v>0</v>
-      </c>
-      <c r="F166" s="29">
+      <c r="D166" s="38"/>
+      <c r="E166" s="31">
+        <v>0</v>
+      </c>
+      <c r="F166" s="27">
         <v>0</v>
       </c>
       <c r="H166" s="5"/>
@@ -8430,11 +8441,11 @@
       <c r="B167" s="18">
         <v>164</v>
       </c>
-      <c r="C167" s="47">
+      <c r="C167" s="45">
         <v>44068</v>
       </c>
-      <c r="D167" s="41"/>
-      <c r="E167" s="34">
+      <c r="D167" s="39"/>
+      <c r="E167" s="32">
         <v>0</v>
       </c>
       <c r="F167" s="15">
@@ -8450,14 +8461,14 @@
       <c r="B168" s="17">
         <v>165</v>
       </c>
-      <c r="C168" s="46">
+      <c r="C168" s="44">
         <v>44069</v>
       </c>
-      <c r="D168" s="40"/>
-      <c r="E168" s="33">
-        <v>0</v>
-      </c>
-      <c r="F168" s="29">
+      <c r="D168" s="38"/>
+      <c r="E168" s="31">
+        <v>0</v>
+      </c>
+      <c r="F168" s="27">
         <v>0</v>
       </c>
       <c r="H168" s="5"/>
@@ -8470,11 +8481,11 @@
       <c r="B169" s="18">
         <v>166</v>
       </c>
-      <c r="C169" s="47">
+      <c r="C169" s="45">
         <v>44070</v>
       </c>
-      <c r="D169" s="41"/>
-      <c r="E169" s="34">
+      <c r="D169" s="39"/>
+      <c r="E169" s="32">
         <v>0</v>
       </c>
       <c r="F169" s="15">
@@ -8490,14 +8501,14 @@
       <c r="B170" s="17">
         <v>167</v>
       </c>
-      <c r="C170" s="46">
+      <c r="C170" s="44">
         <v>44071</v>
       </c>
-      <c r="D170" s="40"/>
-      <c r="E170" s="33">
-        <v>0</v>
-      </c>
-      <c r="F170" s="29">
+      <c r="D170" s="38"/>
+      <c r="E170" s="31">
+        <v>0</v>
+      </c>
+      <c r="F170" s="27">
         <v>0</v>
       </c>
       <c r="H170" s="5"/>
@@ -8510,11 +8521,11 @@
       <c r="B171" s="18">
         <v>168</v>
       </c>
-      <c r="C171" s="47">
+      <c r="C171" s="45">
         <v>44072</v>
       </c>
-      <c r="D171" s="41"/>
-      <c r="E171" s="34">
+      <c r="D171" s="39"/>
+      <c r="E171" s="32">
         <v>0</v>
       </c>
       <c r="F171" s="15">
@@ -8530,14 +8541,14 @@
       <c r="B172" s="17">
         <v>169</v>
       </c>
-      <c r="C172" s="46">
+      <c r="C172" s="44">
         <v>44073</v>
       </c>
-      <c r="D172" s="40"/>
-      <c r="E172" s="33">
-        <v>0</v>
-      </c>
-      <c r="F172" s="29">
+      <c r="D172" s="38"/>
+      <c r="E172" s="31">
+        <v>0</v>
+      </c>
+      <c r="F172" s="27">
         <v>0</v>
       </c>
       <c r="H172" s="5"/>
@@ -8550,11 +8561,11 @@
       <c r="B173" s="18">
         <v>170</v>
       </c>
-      <c r="C173" s="47">
+      <c r="C173" s="45">
         <v>44074</v>
       </c>
-      <c r="D173" s="41"/>
-      <c r="E173" s="34">
+      <c r="D173" s="39"/>
+      <c r="E173" s="32">
         <v>0</v>
       </c>
       <c r="F173" s="15">
@@ -8570,14 +8581,14 @@
       <c r="B174" s="17">
         <v>171</v>
       </c>
-      <c r="C174" s="46">
+      <c r="C174" s="44">
         <v>44075</v>
       </c>
-      <c r="D174" s="40"/>
-      <c r="E174" s="33">
-        <v>0</v>
-      </c>
-      <c r="F174" s="29">
+      <c r="D174" s="38"/>
+      <c r="E174" s="31">
+        <v>0</v>
+      </c>
+      <c r="F174" s="27">
         <v>0</v>
       </c>
       <c r="H174" s="5"/>
@@ -8590,11 +8601,11 @@
       <c r="B175" s="18">
         <v>172</v>
       </c>
-      <c r="C175" s="47">
+      <c r="C175" s="45">
         <v>44076</v>
       </c>
-      <c r="D175" s="41"/>
-      <c r="E175" s="34">
+      <c r="D175" s="39"/>
+      <c r="E175" s="32">
         <v>0</v>
       </c>
       <c r="F175" s="15">
@@ -8610,14 +8621,14 @@
       <c r="B176" s="17">
         <v>173</v>
       </c>
-      <c r="C176" s="46">
+      <c r="C176" s="44">
         <v>44077</v>
       </c>
-      <c r="D176" s="40"/>
-      <c r="E176" s="33">
-        <v>0</v>
-      </c>
-      <c r="F176" s="29">
+      <c r="D176" s="38"/>
+      <c r="E176" s="31">
+        <v>0</v>
+      </c>
+      <c r="F176" s="27">
         <v>0</v>
       </c>
       <c r="H176" s="5"/>
@@ -8630,11 +8641,11 @@
       <c r="B177" s="18">
         <v>174</v>
       </c>
-      <c r="C177" s="47">
+      <c r="C177" s="45">
         <v>44078</v>
       </c>
-      <c r="D177" s="41"/>
-      <c r="E177" s="34">
+      <c r="D177" s="39"/>
+      <c r="E177" s="32">
         <v>0</v>
       </c>
       <c r="F177" s="15">
@@ -8650,14 +8661,14 @@
       <c r="B178" s="17">
         <v>175</v>
       </c>
-      <c r="C178" s="46">
+      <c r="C178" s="44">
         <v>44079</v>
       </c>
-      <c r="D178" s="40"/>
-      <c r="E178" s="33">
-        <v>0</v>
-      </c>
-      <c r="F178" s="29">
+      <c r="D178" s="38"/>
+      <c r="E178" s="31">
+        <v>0</v>
+      </c>
+      <c r="F178" s="27">
         <v>0</v>
       </c>
       <c r="H178" s="5"/>
@@ -8670,11 +8681,11 @@
       <c r="B179" s="18">
         <v>176</v>
       </c>
-      <c r="C179" s="47">
+      <c r="C179" s="45">
         <v>44080</v>
       </c>
-      <c r="D179" s="41"/>
-      <c r="E179" s="34">
+      <c r="D179" s="39"/>
+      <c r="E179" s="32">
         <v>0</v>
       </c>
       <c r="F179" s="15">
@@ -8690,14 +8701,14 @@
       <c r="B180" s="17">
         <v>177</v>
       </c>
-      <c r="C180" s="46">
+      <c r="C180" s="44">
         <v>44081</v>
       </c>
-      <c r="D180" s="40"/>
-      <c r="E180" s="33">
-        <v>0</v>
-      </c>
-      <c r="F180" s="29">
+      <c r="D180" s="38"/>
+      <c r="E180" s="31">
+        <v>0</v>
+      </c>
+      <c r="F180" s="27">
         <v>0</v>
       </c>
       <c r="H180" s="5"/>
@@ -8710,11 +8721,11 @@
       <c r="B181" s="18">
         <v>178</v>
       </c>
-      <c r="C181" s="47">
+      <c r="C181" s="45">
         <v>44082</v>
       </c>
-      <c r="D181" s="41"/>
-      <c r="E181" s="34">
+      <c r="D181" s="39"/>
+      <c r="E181" s="32">
         <v>0</v>
       </c>
       <c r="F181" s="15">
@@ -8730,14 +8741,14 @@
       <c r="B182" s="17">
         <v>179</v>
       </c>
-      <c r="C182" s="46">
+      <c r="C182" s="44">
         <v>44083</v>
       </c>
-      <c r="D182" s="40"/>
-      <c r="E182" s="33">
-        <v>0</v>
-      </c>
-      <c r="F182" s="29">
+      <c r="D182" s="38"/>
+      <c r="E182" s="31">
+        <v>0</v>
+      </c>
+      <c r="F182" s="27">
         <v>0</v>
       </c>
       <c r="H182" s="5"/>
@@ -8750,11 +8761,11 @@
       <c r="B183" s="18">
         <v>180</v>
       </c>
-      <c r="C183" s="47">
+      <c r="C183" s="45">
         <v>44084</v>
       </c>
-      <c r="D183" s="41"/>
-      <c r="E183" s="34">
+      <c r="D183" s="39"/>
+      <c r="E183" s="32">
         <v>0</v>
       </c>
       <c r="F183" s="15">
@@ -8770,14 +8781,14 @@
       <c r="B184" s="19">
         <v>181</v>
       </c>
-      <c r="C184" s="50">
+      <c r="C184" s="48">
         <v>44085</v>
       </c>
-      <c r="D184" s="42"/>
-      <c r="E184" s="35">
-        <v>0</v>
-      </c>
-      <c r="F184" s="30">
+      <c r="D184" s="40"/>
+      <c r="E184" s="33">
+        <v>0</v>
+      </c>
+      <c r="F184" s="28">
         <v>0</v>
       </c>
       <c r="H184" s="5"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF27C28-7BB6-40CC-B575-0217B343AFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F139E-528D-4088-BD19-2D89D1D084A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,7 +1323,7 @@
                   <c:v>63460</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66969</c:v>
+                  <c:v>68200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,7 +1339,15 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>23/3/2020</c:v>
+            <c:strRef>
+              <c:f>'SPANISH SIRS MODEL'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23/03/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2475,7 +2483,15 @@
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>29/3/2020</c:v>
+            <c:strRef>
+              <c:f>'SPANISH SIRS MODEL'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>01/04/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3052,253 +3068,253 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5808</c:v>
+                  <c:v>6451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6709</c:v>
+                  <c:v>7443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8289</c:v>
+                  <c:v>9175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10593</c:v>
+                  <c:v>11689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12005</c:v>
+                  <c:v>13219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15175</c:v>
+                  <c:v>16641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18645</c:v>
+                  <c:v>20356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21624</c:v>
+                  <c:v>23516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25085</c:v>
+                  <c:v>27161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27697</c:v>
+                  <c:v>29884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33066</c:v>
+                  <c:v>35449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39101</c:v>
+                  <c:v>41627</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44411</c:v>
+                  <c:v>47001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50286</c:v>
+                  <c:v>52889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54949</c:v>
+                  <c:v>57505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58465</c:v>
+                  <c:v>60940</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61825</c:v>
+                  <c:v>64202</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66293</c:v>
+                  <c:v>68529</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69497</c:v>
+                  <c:v>72684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71593</c:v>
+                  <c:v>74525</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73238</c:v>
+                  <c:v>77959</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74422</c:v>
+                  <c:v>80729</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75146</c:v>
+                  <c:v>82850</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75418</c:v>
+                  <c:v>84353</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75251</c:v>
+                  <c:v>85282</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>74664</c:v>
+                  <c:v>85684</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>73678</c:v>
+                  <c:v>85608</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>72318</c:v>
+                  <c:v>85102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>70610</c:v>
+                  <c:v>84211</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68582</c:v>
+                  <c:v>82975</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>66262</c:v>
+                  <c:v>81431</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>63679</c:v>
+                  <c:v>79613</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>60862</c:v>
+                  <c:v>77550</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>57843</c:v>
+                  <c:v>75270</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>54652</c:v>
+                  <c:v>72797</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51322</c:v>
+                  <c:v>70154</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>47885</c:v>
+                  <c:v>67363</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44375</c:v>
+                  <c:v>64444</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40827</c:v>
+                  <c:v>61417</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37275</c:v>
+                  <c:v>58302</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33755</c:v>
+                  <c:v>55117</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30301</c:v>
+                  <c:v>51882</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26948</c:v>
+                  <c:v>48616</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23729</c:v>
+                  <c:v>45338</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20673</c:v>
+                  <c:v>42069</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17808</c:v>
+                  <c:v>38828</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15156</c:v>
+                  <c:v>35634</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12735</c:v>
+                  <c:v>32507</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10557</c:v>
+                  <c:v>29467</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8627</c:v>
+                  <c:v>26532</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6945</c:v>
+                  <c:v>23720</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5503</c:v>
+                  <c:v>21046</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4289</c:v>
+                  <c:v>18526</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3286</c:v>
+                  <c:v>16171</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2473</c:v>
+                  <c:v>13992</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1827</c:v>
+                  <c:v>11995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1325</c:v>
+                  <c:v>10184</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>942</c:v>
+                  <c:v>8560</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>656</c:v>
+                  <c:v>7120</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>448</c:v>
+                  <c:v>5858</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>299</c:v>
+                  <c:v>4766</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>195</c:v>
+                  <c:v>3834</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>124</c:v>
+                  <c:v>3048</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>77</c:v>
+                  <c:v>2394</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>47</c:v>
+                  <c:v>1858</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>28</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="82">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0</c:v>
@@ -3754,7 +3770,6 @@
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4858,7 +4873,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,7 +4938,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="52">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -4941,7 +4956,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="25">
-        <v>5808</v>
+        <v>6451</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4959,7 +4974,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="26">
-        <v>6709</v>
+        <v>7443</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4979,7 +4994,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="22">
-        <v>8289</v>
+        <v>9175</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -5000,7 +5015,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="26">
-        <v>10593</v>
+        <v>11689</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5021,7 +5036,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="22">
-        <v>12005</v>
+        <v>13219</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5042,7 +5057,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="26">
-        <v>15175</v>
+        <v>16641</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5063,7 +5078,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="22">
-        <v>18645</v>
+        <v>20356</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5084,7 +5099,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="26">
-        <v>21624</v>
+        <v>23516</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5104,7 +5119,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="22">
-        <v>25085</v>
+        <v>27161</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5124,7 +5139,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="26">
-        <v>27697</v>
+        <v>29884</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5144,7 +5159,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="22">
-        <v>33066</v>
+        <v>35449</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5170,7 +5185,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="26">
-        <v>39101</v>
+        <v>41627</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5190,7 +5205,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="22">
-        <v>44411</v>
+        <v>47001</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5210,7 +5225,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="27">
-        <v>50286</v>
+        <v>52889</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5230,7 +5245,7 @@
         <v>50508</v>
       </c>
       <c r="F17" s="15">
-        <v>54949</v>
+        <v>57505</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5254,7 +5269,7 @@
         <v>54483</v>
       </c>
       <c r="F18" s="27">
-        <v>58465</v>
+        <v>60940</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5274,7 +5289,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="15">
-        <v>61825</v>
+        <v>64202</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5288,13 +5303,13 @@
         <v>43921</v>
       </c>
       <c r="D20" s="38">
-        <v>66969</v>
+        <v>68200</v>
       </c>
       <c r="E20" s="31">
         <v>61509</v>
       </c>
       <c r="F20" s="27">
-        <v>66293</v>
+        <v>68529</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5312,7 +5327,7 @@
         <v>64440</v>
       </c>
       <c r="F21" s="15">
-        <v>69497</v>
+        <v>72684</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5330,7 +5345,7 @@
         <v>66932</v>
       </c>
       <c r="F22" s="27">
-        <v>71593</v>
+        <v>74525</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5348,7 +5363,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="15">
-        <v>73238</v>
+        <v>77959</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5373,7 +5388,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="27">
-        <v>74422</v>
+        <v>80729</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5398,7 +5413,7 @@
         <v>71670</v>
       </c>
       <c r="F25" s="50">
-        <v>75146</v>
+        <v>82850</v>
       </c>
       <c r="H25" s="5"/>
       <c r="M25" s="6"/>
@@ -5422,8 +5437,8 @@
       <c r="E26" s="31">
         <v>72364</v>
       </c>
-      <c r="F26" s="47">
-        <v>75418</v>
+      <c r="F26" s="27">
+        <v>84353</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
@@ -5448,7 +5463,7 @@
         <v>72650</v>
       </c>
       <c r="F27" s="15">
-        <v>75251</v>
+        <v>85282</v>
       </c>
       <c r="H27" s="5"/>
       <c r="M27" s="6"/>
@@ -5472,8 +5487,8 @@
       <c r="E28" s="31">
         <v>72558</v>
       </c>
-      <c r="F28" s="27">
-        <v>74664</v>
+      <c r="F28" s="47">
+        <v>85684</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5498,7 +5513,7 @@
         <v>72119</v>
       </c>
       <c r="F29" s="15">
-        <v>73678</v>
+        <v>85608</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5523,7 +5538,7 @@
         <v>71365</v>
       </c>
       <c r="F30" s="27">
-        <v>72318</v>
+        <v>85102</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5548,7 +5563,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="15">
-        <v>70610</v>
+        <v>84211</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5575,7 +5590,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="27">
-        <v>68582</v>
+        <v>82975</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="8"/>
@@ -5604,7 +5619,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="15">
-        <v>66262</v>
+        <v>81431</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="8"/>
@@ -5632,7 +5647,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="27">
-        <v>63679</v>
+        <v>79613</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="8"/>
@@ -5660,7 +5675,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="15">
-        <v>60862</v>
+        <v>77550</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="8"/>
@@ -5686,7 +5701,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="27">
-        <v>57843</v>
+        <v>75270</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5712,7 +5727,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="49">
-        <v>54652</v>
+        <v>72797</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5738,7 +5753,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="27">
-        <v>51322</v>
+        <v>70154</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5765,7 +5780,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="15">
-        <v>47885</v>
+        <v>67363</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5791,7 +5806,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="27">
-        <v>44375</v>
+        <v>64444</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5817,7 +5832,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="15">
-        <v>40827</v>
+        <v>61417</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5843,7 +5858,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="27">
-        <v>37275</v>
+        <v>58302</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5873,7 +5888,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="15">
-        <v>33755</v>
+        <v>55117</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5899,7 +5914,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="27">
-        <v>30301</v>
+        <v>51882</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5925,7 +5940,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="15">
-        <v>26948</v>
+        <v>48616</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5951,7 +5966,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="27">
-        <v>23729</v>
+        <v>45338</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5977,7 +5992,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="15">
-        <v>20673</v>
+        <v>42069</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -6003,7 +6018,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="27">
-        <v>17808</v>
+        <v>38828</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6029,7 +6044,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="15">
-        <v>15156</v>
+        <v>35634</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6055,7 +6070,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="27">
-        <v>12735</v>
+        <v>32507</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6081,7 +6096,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="15">
-        <v>10557</v>
+        <v>29467</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6107,7 +6122,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="27">
-        <v>8627</v>
+        <v>26532</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6133,7 +6148,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="15">
-        <v>6945</v>
+        <v>23720</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6159,7 +6174,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="27">
-        <v>5503</v>
+        <v>21046</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6185,7 +6200,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="15">
-        <v>4289</v>
+        <v>18526</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6211,7 +6226,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="27">
-        <v>3286</v>
+        <v>16171</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6237,7 +6252,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="15">
-        <v>2473</v>
+        <v>13992</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6263,7 +6278,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="27">
-        <v>1827</v>
+        <v>11995</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6289,7 +6304,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="15">
-        <v>1325</v>
+        <v>10184</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6309,7 +6324,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="27">
-        <v>942</v>
+        <v>8560</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6329,7 +6344,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="15">
-        <v>656</v>
+        <v>7120</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6349,7 +6364,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="27">
-        <v>448</v>
+        <v>5858</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6369,7 +6384,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="15">
-        <v>299</v>
+        <v>4766</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6389,7 +6404,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="27">
-        <v>195</v>
+        <v>3834</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6409,7 +6424,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="47">
-        <v>124</v>
+        <v>3048</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6429,7 +6444,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="27">
-        <v>77</v>
+        <v>2394</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6449,7 +6464,7 @@
         <v>2425</v>
       </c>
       <c r="F67" s="15">
-        <v>47</v>
+        <v>1858</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6469,7 +6484,7 @@
         <v>1947</v>
       </c>
       <c r="F68" s="27">
-        <v>28</v>
+        <v>1424</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6489,7 +6504,7 @@
         <v>1547</v>
       </c>
       <c r="F69" s="15">
-        <v>16</v>
+        <v>1078</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6509,7 +6524,7 @@
         <v>1216</v>
       </c>
       <c r="F70" s="27">
-        <v>9</v>
+        <v>805</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6529,7 +6544,7 @@
         <v>946</v>
       </c>
       <c r="F71" s="15">
-        <v>5</v>
+        <v>594</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6549,7 +6564,7 @@
         <v>727</v>
       </c>
       <c r="F72" s="27">
-        <v>2</v>
+        <v>432</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6569,7 +6584,7 @@
         <v>553</v>
       </c>
       <c r="F73" s="15">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6589,7 +6604,7 @@
         <v>415</v>
       </c>
       <c r="F74" s="27">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="H74" s="5"/>
       <c r="P74" s="10"/>
@@ -6609,7 +6624,7 @@
         <v>308</v>
       </c>
       <c r="F75" s="15">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H75" s="5"/>
       <c r="P75" s="10"/>
@@ -6629,7 +6644,7 @@
         <v>226</v>
       </c>
       <c r="F76" s="27">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H76" s="5"/>
       <c r="P76" s="10"/>
@@ -6649,7 +6664,7 @@
         <v>164</v>
       </c>
       <c r="F77" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H77" s="5"/>
       <c r="P77" s="10"/>
@@ -6669,7 +6684,7 @@
         <v>117</v>
       </c>
       <c r="F78" s="27">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H78" s="5"/>
       <c r="P78" s="10"/>
@@ -6689,7 +6704,7 @@
         <v>82</v>
       </c>
       <c r="F79" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H79" s="5"/>
       <c r="P79" s="10"/>
@@ -6709,7 +6724,7 @@
         <v>57</v>
       </c>
       <c r="F80" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H80" s="5"/>
       <c r="P80" s="10"/>
@@ -6729,7 +6744,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H81" s="5"/>
       <c r="P81" s="10"/>
@@ -6749,7 +6764,7 @@
         <v>26</v>
       </c>
       <c r="F82" s="27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H82" s="5"/>
       <c r="P82" s="10"/>
@@ -6769,7 +6784,7 @@
         <v>17</v>
       </c>
       <c r="F83" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" s="5"/>
       <c r="P83" s="10"/>
@@ -6789,7 +6804,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" s="5"/>
       <c r="P84" s="10"/>
@@ -6809,7 +6824,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="5"/>
       <c r="P85" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F139E-528D-4088-BD19-2D89D1D084A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A531D8C9-9DC3-44FB-94CF-B8E64B0D58B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,6 +1325,12 @@
                 <c:pt idx="17">
                   <c:v>68200</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>72084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73492</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2488,7 +2494,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01/04/2020</c:v>
+                  <c:v>02/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3068,253 +3074,253 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>6451</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7443</c:v>
+                  <c:v>6644</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9175</c:v>
+                  <c:v>8210</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11689</c:v>
+                  <c:v>10496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13219</c:v>
+                  <c:v>11899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16641</c:v>
+                  <c:v>15048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20356</c:v>
+                  <c:v>18499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23516</c:v>
+                  <c:v>21465</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27161</c:v>
+                  <c:v>24915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29884</c:v>
+                  <c:v>27521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35449</c:v>
+                  <c:v>32884</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41627</c:v>
+                  <c:v>38922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47001</c:v>
+                  <c:v>44243</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52889</c:v>
+                  <c:v>50139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57505</c:v>
+                  <c:v>54827</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60940</c:v>
+                  <c:v>58370</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64202</c:v>
+                  <c:v>61759</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68529</c:v>
+                  <c:v>66266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72684</c:v>
+                  <c:v>70610</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74525</c:v>
+                  <c:v>74051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77959</c:v>
+                  <c:v>75210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>80729</c:v>
+                  <c:v>76489</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82850</c:v>
+                  <c:v>77324</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84353</c:v>
+                  <c:v>77717</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85282</c:v>
+                  <c:v>77677</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>85684</c:v>
+                  <c:v>77217</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>85608</c:v>
+                  <c:v>76354</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85102</c:v>
+                  <c:v>75109</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84211</c:v>
+                  <c:v>73504</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82975</c:v>
+                  <c:v>71564</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>81431</c:v>
+                  <c:v>69314</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79613</c:v>
+                  <c:v>66782</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77550</c:v>
+                  <c:v>63996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75270</c:v>
+                  <c:v>60987</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>72797</c:v>
+                  <c:v>57785</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70154</c:v>
+                  <c:v>54422</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67363</c:v>
+                  <c:v>50932</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64444</c:v>
+                  <c:v>47349</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61417</c:v>
+                  <c:v>43708</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58302</c:v>
+                  <c:v>40046</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>55117</c:v>
+                  <c:v>36400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51882</c:v>
+                  <c:v>32806</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>48616</c:v>
+                  <c:v>29301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45338</c:v>
+                  <c:v>25919</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42069</c:v>
+                  <c:v>22693</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38828</c:v>
+                  <c:v>19653</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35634</c:v>
+                  <c:v>16824</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32507</c:v>
+                  <c:v>14226</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29467</c:v>
+                  <c:v>11873</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26532</c:v>
+                  <c:v>9774</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>23720</c:v>
+                  <c:v>7931</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21046</c:v>
+                  <c:v>6339</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18526</c:v>
+                  <c:v>4987</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16171</c:v>
+                  <c:v>3860</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13992</c:v>
+                  <c:v>2937</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11995</c:v>
+                  <c:v>2196</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10184</c:v>
+                  <c:v>1612</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8560</c:v>
+                  <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7120</c:v>
+                  <c:v>821</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5858</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4766</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3834</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3048</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2394</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1858</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1424</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1078</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>805</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>594</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>432</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>310</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>220</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>154</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>106</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0</c:v>
@@ -3638,7 +3644,7 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="75"/>
+          <c:max val="70"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4872,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4938,7 +4944,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="52">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -4956,7 +4962,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="25">
-        <v>6451</v>
+        <v>5750</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4974,7 +4980,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="26">
-        <v>7443</v>
+        <v>6644</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4994,7 +5000,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="22">
-        <v>9175</v>
+        <v>8210</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -5015,7 +5021,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="26">
-        <v>11689</v>
+        <v>10496</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5036,7 +5042,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="22">
-        <v>13219</v>
+        <v>11899</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5057,7 +5063,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="26">
-        <v>16641</v>
+        <v>15048</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5078,7 +5084,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="22">
-        <v>20356</v>
+        <v>18499</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5099,7 +5105,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="26">
-        <v>23516</v>
+        <v>21465</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5119,7 +5125,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="22">
-        <v>27161</v>
+        <v>24915</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5139,7 +5145,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="26">
-        <v>29884</v>
+        <v>27521</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5159,7 +5165,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="22">
-        <v>35449</v>
+        <v>32884</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5185,7 +5191,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="26">
-        <v>41627</v>
+        <v>38922</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5205,7 +5211,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="22">
-        <v>47001</v>
+        <v>44243</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5225,7 +5231,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="27">
-        <v>52889</v>
+        <v>50139</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5245,7 +5251,7 @@
         <v>50508</v>
       </c>
       <c r="F17" s="15">
-        <v>57505</v>
+        <v>54827</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5269,7 +5275,7 @@
         <v>54483</v>
       </c>
       <c r="F18" s="27">
-        <v>60940</v>
+        <v>58370</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5289,7 +5295,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="15">
-        <v>64202</v>
+        <v>61759</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5309,7 +5315,7 @@
         <v>61509</v>
       </c>
       <c r="F20" s="27">
-        <v>68529</v>
+        <v>66266</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5322,12 +5328,14 @@
       <c r="C21" s="45">
         <v>43922</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39">
+        <v>72084</v>
+      </c>
       <c r="E21" s="32">
         <v>64440</v>
       </c>
       <c r="F21" s="15">
-        <v>72684</v>
+        <v>70610</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5340,12 +5348,14 @@
       <c r="C22" s="44">
         <v>43923</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="38">
+        <v>73492</v>
+      </c>
       <c r="E22" s="31">
         <v>66932</v>
       </c>
       <c r="F22" s="27">
-        <v>74525</v>
+        <v>74051</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5363,7 +5373,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="15">
-        <v>77959</v>
+        <v>75210</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5388,7 +5398,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="27">
-        <v>80729</v>
+        <v>76489</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5413,7 +5423,7 @@
         <v>71670</v>
       </c>
       <c r="F25" s="50">
-        <v>82850</v>
+        <v>77324</v>
       </c>
       <c r="H25" s="5"/>
       <c r="M25" s="6"/>
@@ -5437,8 +5447,8 @@
       <c r="E26" s="31">
         <v>72364</v>
       </c>
-      <c r="F26" s="27">
-        <v>84353</v>
+      <c r="F26" s="47">
+        <v>77717</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
@@ -5462,8 +5472,8 @@
       <c r="E27" s="46">
         <v>72650</v>
       </c>
-      <c r="F27" s="15">
-        <v>85282</v>
+      <c r="F27" s="50">
+        <v>77677</v>
       </c>
       <c r="H27" s="5"/>
       <c r="M27" s="6"/>
@@ -5487,8 +5497,8 @@
       <c r="E28" s="31">
         <v>72558</v>
       </c>
-      <c r="F28" s="47">
-        <v>85684</v>
+      <c r="F28" s="27">
+        <v>77217</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5513,7 +5523,7 @@
         <v>72119</v>
       </c>
       <c r="F29" s="15">
-        <v>85608</v>
+        <v>76354</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5538,7 +5548,7 @@
         <v>71365</v>
       </c>
       <c r="F30" s="27">
-        <v>85102</v>
+        <v>75109</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5563,7 +5573,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="15">
-        <v>84211</v>
+        <v>73504</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5590,7 +5600,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="27">
-        <v>82975</v>
+        <v>71564</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="8"/>
@@ -5619,7 +5629,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="15">
-        <v>81431</v>
+        <v>69314</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="8"/>
@@ -5647,7 +5657,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="27">
-        <v>79613</v>
+        <v>66782</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="8"/>
@@ -5675,7 +5685,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="15">
-        <v>77550</v>
+        <v>63996</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="8"/>
@@ -5701,7 +5711,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="27">
-        <v>75270</v>
+        <v>60987</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5727,7 +5737,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="49">
-        <v>72797</v>
+        <v>57785</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5753,7 +5763,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="27">
-        <v>70154</v>
+        <v>54422</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5780,7 +5790,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="15">
-        <v>67363</v>
+        <v>50932</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5806,7 +5816,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="27">
-        <v>64444</v>
+        <v>47349</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5832,7 +5842,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="15">
-        <v>61417</v>
+        <v>43708</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5858,7 +5868,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="27">
-        <v>58302</v>
+        <v>40046</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5888,7 +5898,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="15">
-        <v>55117</v>
+        <v>36400</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5914,7 +5924,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="27">
-        <v>51882</v>
+        <v>32806</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5940,7 +5950,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="15">
-        <v>48616</v>
+        <v>29301</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5966,7 +5976,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="27">
-        <v>45338</v>
+        <v>25919</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5992,7 +6002,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="15">
-        <v>42069</v>
+        <v>22693</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -6018,7 +6028,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="27">
-        <v>38828</v>
+        <v>19653</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6044,7 +6054,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="15">
-        <v>35634</v>
+        <v>16824</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6070,7 +6080,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="27">
-        <v>32507</v>
+        <v>14226</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6096,7 +6106,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="15">
-        <v>29467</v>
+        <v>11873</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6122,7 +6132,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="27">
-        <v>26532</v>
+        <v>9774</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6148,7 +6158,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="15">
-        <v>23720</v>
+        <v>7931</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6174,7 +6184,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="27">
-        <v>21046</v>
+        <v>6339</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6200,7 +6210,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="15">
-        <v>18526</v>
+        <v>4987</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6226,7 +6236,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="27">
-        <v>16171</v>
+        <v>3860</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6252,7 +6262,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="15">
-        <v>13992</v>
+        <v>2937</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6278,7 +6288,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="27">
-        <v>11995</v>
+        <v>2196</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6304,7 +6314,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="15">
-        <v>10184</v>
+        <v>1612</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6324,7 +6334,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="27">
-        <v>8560</v>
+        <v>1161</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6344,7 +6354,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="15">
-        <v>7120</v>
+        <v>821</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6364,7 +6374,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="27">
-        <v>5858</v>
+        <v>569</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6384,7 +6394,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="15">
-        <v>4766</v>
+        <v>386</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6404,7 +6414,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="27">
-        <v>3834</v>
+        <v>257</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6424,7 +6434,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="47">
-        <v>3048</v>
+        <v>167</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6444,7 +6454,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="27">
-        <v>2394</v>
+        <v>106</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6464,7 +6474,7 @@
         <v>2425</v>
       </c>
       <c r="F67" s="15">
-        <v>1858</v>
+        <v>66</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6484,7 +6494,7 @@
         <v>1947</v>
       </c>
       <c r="F68" s="27">
-        <v>1424</v>
+        <v>40</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6504,7 +6514,7 @@
         <v>1547</v>
       </c>
       <c r="F69" s="15">
-        <v>1078</v>
+        <v>23</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6524,7 +6534,7 @@
         <v>1216</v>
       </c>
       <c r="F70" s="27">
-        <v>805</v>
+        <v>13</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6544,7 +6554,7 @@
         <v>946</v>
       </c>
       <c r="F71" s="15">
-        <v>594</v>
+        <v>7</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6564,7 +6574,7 @@
         <v>727</v>
       </c>
       <c r="F72" s="27">
-        <v>432</v>
+        <v>3</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6584,7 +6594,7 @@
         <v>553</v>
       </c>
       <c r="F73" s="15">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6604,7 +6614,7 @@
         <v>415</v>
       </c>
       <c r="F74" s="27">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H74" s="5"/>
       <c r="P74" s="10"/>
@@ -6624,7 +6634,7 @@
         <v>308</v>
       </c>
       <c r="F75" s="15">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H75" s="5"/>
       <c r="P75" s="10"/>
@@ -6644,7 +6654,7 @@
         <v>226</v>
       </c>
       <c r="F76" s="27">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="H76" s="5"/>
       <c r="P76" s="10"/>
@@ -6664,7 +6674,7 @@
         <v>164</v>
       </c>
       <c r="F77" s="15">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H77" s="5"/>
       <c r="P77" s="10"/>
@@ -6684,7 +6694,7 @@
         <v>117</v>
       </c>
       <c r="F78" s="27">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H78" s="5"/>
       <c r="P78" s="10"/>
@@ -6704,7 +6714,7 @@
         <v>82</v>
       </c>
       <c r="F79" s="15">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H79" s="5"/>
       <c r="P79" s="10"/>
@@ -6724,7 +6734,7 @@
         <v>57</v>
       </c>
       <c r="F80" s="27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H80" s="5"/>
       <c r="P80" s="10"/>
@@ -6744,7 +6754,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H81" s="5"/>
       <c r="P81" s="10"/>
@@ -6764,7 +6774,7 @@
         <v>26</v>
       </c>
       <c r="F82" s="27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H82" s="5"/>
       <c r="P82" s="10"/>
@@ -6784,7 +6794,7 @@
         <v>17</v>
       </c>
       <c r="F83" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" s="5"/>
       <c r="P83" s="10"/>
@@ -6804,7 +6814,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" s="5"/>
       <c r="P84" s="10"/>
@@ -6824,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="5"/>
       <c r="P85" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A531D8C9-9DC3-44FB-94CF-B8E64B0D58B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771395D-1504-4C78-92AC-E60270538860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,555 +712,555 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$184</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$184</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,7 +1329,7 @@
                   <c:v>72084</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>73492</c:v>
+                  <c:v>74974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,555 +1370,555 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$184</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$184</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,555 +2514,555 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'SPANISH SIRS MODEL'!$B$3:$B$184</c:f>
+              <c:f>'SPANISH SIRS MODEL'!$C$3:$C$184</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>43984</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>43986</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>43987</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>43988</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>43990</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>43992</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>43993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>43995</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>43996</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>43997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>43998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>43999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>44000</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>44001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>44002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>44004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>44006</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>44007</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>44008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>44009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>44014</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>44015</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>44016</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>44018</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>44019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>44020</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>44021</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>44022</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>44023</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>120</c:v>
+                  <c:v>44024</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>121</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>122</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>123</c:v>
+                  <c:v>44027</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>124</c:v>
+                  <c:v>44028</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>125</c:v>
+                  <c:v>44029</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>126</c:v>
+                  <c:v>44030</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>127</c:v>
+                  <c:v>44031</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>128</c:v>
+                  <c:v>44032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>129</c:v>
+                  <c:v>44033</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>130</c:v>
+                  <c:v>44034</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>131</c:v>
+                  <c:v>44035</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>132</c:v>
+                  <c:v>44036</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>133</c:v>
+                  <c:v>44037</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>134</c:v>
+                  <c:v>44038</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>135</c:v>
+                  <c:v>44039</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>136</c:v>
+                  <c:v>44040</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>137</c:v>
+                  <c:v>44041</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>138</c:v>
+                  <c:v>44042</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>139</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>140</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>141</c:v>
+                  <c:v>44045</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>142</c:v>
+                  <c:v>44046</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>143</c:v>
+                  <c:v>44047</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>144</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>145</c:v>
+                  <c:v>44049</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>146</c:v>
+                  <c:v>44050</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>147</c:v>
+                  <c:v>44051</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>148</c:v>
+                  <c:v>44052</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149</c:v>
+                  <c:v>44053</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150</c:v>
+                  <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>151</c:v>
+                  <c:v>44055</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>152</c:v>
+                  <c:v>44056</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>153</c:v>
+                  <c:v>44057</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>154</c:v>
+                  <c:v>44058</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>155</c:v>
+                  <c:v>44059</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>156</c:v>
+                  <c:v>44060</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>157</c:v>
+                  <c:v>44061</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>158</c:v>
+                  <c:v>44062</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>159</c:v>
+                  <c:v>44063</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>160</c:v>
+                  <c:v>44064</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>161</c:v>
+                  <c:v>44065</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>162</c:v>
+                  <c:v>44066</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>163</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>164</c:v>
+                  <c:v>44068</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>165</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>166</c:v>
+                  <c:v>44070</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>167</c:v>
+                  <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>168</c:v>
+                  <c:v>44072</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>169</c:v>
+                  <c:v>44073</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>170</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>171</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>172</c:v>
+                  <c:v>44076</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>173</c:v>
+                  <c:v>44077</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>174</c:v>
+                  <c:v>44078</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>175</c:v>
+                  <c:v>44079</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>176</c:v>
+                  <c:v>44080</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>177</c:v>
+                  <c:v>44081</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>178</c:v>
+                  <c:v>44082</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>179</c:v>
+                  <c:v>44083</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>180</c:v>
+                  <c:v>44084</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>181</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,217 +3074,217 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5750</c:v>
+                  <c:v>5772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6644</c:v>
+                  <c:v>6669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8210</c:v>
+                  <c:v>8240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10496</c:v>
+                  <c:v>10533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11899</c:v>
+                  <c:v>11940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15048</c:v>
+                  <c:v>15097</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18499</c:v>
+                  <c:v>18556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21465</c:v>
+                  <c:v>21528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24915</c:v>
+                  <c:v>24982</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27521</c:v>
+                  <c:v>27592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32884</c:v>
+                  <c:v>32960</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38922</c:v>
+                  <c:v>39000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44243</c:v>
+                  <c:v>44319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50139</c:v>
+                  <c:v>50211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54827</c:v>
+                  <c:v>54893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58370</c:v>
+                  <c:v>58429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61759</c:v>
+                  <c:v>61809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66266</c:v>
+                  <c:v>66305</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70610</c:v>
+                  <c:v>70637</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74051</c:v>
+                  <c:v>74066</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75210</c:v>
+                  <c:v>76518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>76489</c:v>
+                  <c:v>77604</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>77324</c:v>
+                  <c:v>78232</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77717</c:v>
+                  <c:v>78408</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77677</c:v>
+                  <c:v>78144</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77217</c:v>
+                  <c:v>77456</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76354</c:v>
+                  <c:v>76364</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>75109</c:v>
+                  <c:v>74890</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73504</c:v>
+                  <c:v>73059</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>71564</c:v>
+                  <c:v>70897</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69314</c:v>
+                  <c:v>68432</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>66782</c:v>
+                  <c:v>65692</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>63996</c:v>
+                  <c:v>62708</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60987</c:v>
+                  <c:v>59511</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>57785</c:v>
+                  <c:v>56134</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>54422</c:v>
+                  <c:v>52611</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50932</c:v>
+                  <c:v>48977</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>47349</c:v>
+                  <c:v>45269</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43708</c:v>
+                  <c:v>41524</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40046</c:v>
+                  <c:v>37781</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36400</c:v>
+                  <c:v>34080</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32806</c:v>
+                  <c:v>30458</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>29301</c:v>
+                  <c:v>26953</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>25919</c:v>
+                  <c:v>23601</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>22693</c:v>
+                  <c:v>20434</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>19653</c:v>
+                  <c:v>17481</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>16824</c:v>
+                  <c:v>14765</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14226</c:v>
+                  <c:v>12303</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11873</c:v>
+                  <c:v>10106</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9774</c:v>
+                  <c:v>8177</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7931</c:v>
+                  <c:v>6513</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6339</c:v>
+                  <c:v>5102</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4987</c:v>
+                  <c:v>3928</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3860</c:v>
+                  <c:v>2971</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2937</c:v>
+                  <c:v>2206</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2196</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1612</c:v>
+                  <c:v>1147</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1161</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>821</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>569</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>386</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>257</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>167</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>106</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>40</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>23</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0</c:v>
@@ -3644,8 +3644,8 @@
         <c:axId val="1356387871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="0"/>
+          <c:max val="43980"/>
+          <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3697,7 +3697,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Days since MARCH 14TH</a:t>
+                  <a:t>Days SINCE QUARANTINE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3731,7 +3731,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-C0A]d/mmm;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3749,7 +3749,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3771,12 +3771,13 @@
         <c:crossAx val="1353300159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3828,7 +3829,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>POPULATION</a:t>
+                  <a:t>INFECTED POPULATION</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4878,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4962,7 +4963,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="25">
-        <v>5750</v>
+        <v>5772</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4980,7 +4981,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="26">
-        <v>6644</v>
+        <v>6669</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -5000,7 +5001,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="22">
-        <v>8210</v>
+        <v>8240</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -5021,7 +5022,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="26">
-        <v>10496</v>
+        <v>10533</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5042,7 +5043,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="22">
-        <v>11899</v>
+        <v>11940</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5063,7 +5064,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="26">
-        <v>15048</v>
+        <v>15097</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5084,7 +5085,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="22">
-        <v>18499</v>
+        <v>18556</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5105,7 +5106,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="26">
-        <v>21465</v>
+        <v>21528</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5125,7 +5126,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="22">
-        <v>24915</v>
+        <v>24982</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5145,7 +5146,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="26">
-        <v>27521</v>
+        <v>27592</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5165,7 +5166,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="22">
-        <v>32884</v>
+        <v>32960</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5191,7 +5192,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="26">
-        <v>38922</v>
+        <v>39000</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5211,7 +5212,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="22">
-        <v>44243</v>
+        <v>44319</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5231,7 +5232,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="27">
-        <v>50139</v>
+        <v>50211</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5251,7 +5252,7 @@
         <v>50508</v>
       </c>
       <c r="F17" s="15">
-        <v>54827</v>
+        <v>54893</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5275,7 +5276,7 @@
         <v>54483</v>
       </c>
       <c r="F18" s="27">
-        <v>58370</v>
+        <v>58429</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5295,7 +5296,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="15">
-        <v>61759</v>
+        <v>61809</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5315,7 +5316,7 @@
         <v>61509</v>
       </c>
       <c r="F20" s="27">
-        <v>66266</v>
+        <v>66305</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5335,7 +5336,7 @@
         <v>64440</v>
       </c>
       <c r="F21" s="15">
-        <v>70610</v>
+        <v>70637</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5349,13 +5350,13 @@
         <v>43923</v>
       </c>
       <c r="D22" s="38">
-        <v>73492</v>
+        <v>74974</v>
       </c>
       <c r="E22" s="31">
         <v>66932</v>
       </c>
       <c r="F22" s="27">
-        <v>74051</v>
+        <v>74066</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5373,7 +5374,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="15">
-        <v>75210</v>
+        <v>76518</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5398,7 +5399,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="27">
-        <v>76489</v>
+        <v>77604</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5423,7 +5424,7 @@
         <v>71670</v>
       </c>
       <c r="F25" s="50">
-        <v>77324</v>
+        <v>78232</v>
       </c>
       <c r="H25" s="5"/>
       <c r="M25" s="6"/>
@@ -5448,7 +5449,7 @@
         <v>72364</v>
       </c>
       <c r="F26" s="47">
-        <v>77717</v>
+        <v>78408</v>
       </c>
       <c r="H26" s="5"/>
       <c r="M26" s="6"/>
@@ -5473,7 +5474,7 @@
         <v>72650</v>
       </c>
       <c r="F27" s="50">
-        <v>77677</v>
+        <v>78144</v>
       </c>
       <c r="H27" s="5"/>
       <c r="M27" s="6"/>
@@ -5498,7 +5499,7 @@
         <v>72558</v>
       </c>
       <c r="F28" s="27">
-        <v>77217</v>
+        <v>77456</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5523,7 +5524,7 @@
         <v>72119</v>
       </c>
       <c r="F29" s="15">
-        <v>76354</v>
+        <v>76364</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5548,7 +5549,7 @@
         <v>71365</v>
       </c>
       <c r="F30" s="27">
-        <v>75109</v>
+        <v>74890</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5573,7 +5574,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="15">
-        <v>73504</v>
+        <v>73059</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
@@ -5600,7 +5601,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="27">
-        <v>71564</v>
+        <v>70897</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="8"/>
@@ -5629,7 +5630,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="15">
-        <v>69314</v>
+        <v>68432</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="8"/>
@@ -5657,7 +5658,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="27">
-        <v>66782</v>
+        <v>65692</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="8"/>
@@ -5685,7 +5686,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="15">
-        <v>63996</v>
+        <v>62708</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="8"/>
@@ -5711,7 +5712,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="27">
-        <v>60987</v>
+        <v>59511</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5737,7 +5738,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="49">
-        <v>57785</v>
+        <v>56134</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5763,7 +5764,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="27">
-        <v>54422</v>
+        <v>52611</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5790,7 +5791,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="15">
-        <v>50932</v>
+        <v>48977</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5816,7 +5817,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="27">
-        <v>47349</v>
+        <v>45269</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5842,7 +5843,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="15">
-        <v>43708</v>
+        <v>41524</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5868,7 +5869,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="27">
-        <v>40046</v>
+        <v>37781</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5898,7 +5899,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="15">
-        <v>36400</v>
+        <v>34080</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5924,7 +5925,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="27">
-        <v>32806</v>
+        <v>30458</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5950,7 +5951,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="15">
-        <v>29301</v>
+        <v>26953</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5976,7 +5977,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="27">
-        <v>25919</v>
+        <v>23601</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -6002,7 +6003,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="15">
-        <v>22693</v>
+        <v>20434</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -6028,7 +6029,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="27">
-        <v>19653</v>
+        <v>17481</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6054,7 +6055,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="15">
-        <v>16824</v>
+        <v>14765</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6080,7 +6081,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="27">
-        <v>14226</v>
+        <v>12303</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6106,7 +6107,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="15">
-        <v>11873</v>
+        <v>10106</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6132,7 +6133,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="27">
-        <v>9774</v>
+        <v>8177</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6158,7 +6159,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="15">
-        <v>7931</v>
+        <v>6513</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6184,7 +6185,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="27">
-        <v>6339</v>
+        <v>5102</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6210,7 +6211,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="15">
-        <v>4987</v>
+        <v>3928</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6236,7 +6237,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="27">
-        <v>3860</v>
+        <v>2971</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6262,7 +6263,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="15">
-        <v>2937</v>
+        <v>2206</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6288,7 +6289,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="27">
-        <v>2196</v>
+        <v>1607</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6314,7 +6315,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="15">
-        <v>1612</v>
+        <v>1147</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6334,7 +6335,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="27">
-        <v>1161</v>
+        <v>802</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6354,7 +6355,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="15">
-        <v>821</v>
+        <v>549</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6374,7 +6375,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="27">
-        <v>569</v>
+        <v>368</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6394,7 +6395,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="15">
-        <v>386</v>
+        <v>241</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6414,7 +6415,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="27">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6434,7 +6435,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="47">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6454,7 +6455,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="27">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6474,7 +6475,7 @@
         <v>2425</v>
       </c>
       <c r="F67" s="15">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6494,7 +6495,7 @@
         <v>1947</v>
       </c>
       <c r="F68" s="27">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6514,7 +6515,7 @@
         <v>1547</v>
       </c>
       <c r="F69" s="15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6534,7 +6535,7 @@
         <v>1216</v>
       </c>
       <c r="F70" s="27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6554,7 +6555,7 @@
         <v>946</v>
       </c>
       <c r="F71" s="15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6574,7 +6575,7 @@
         <v>727</v>
       </c>
       <c r="F72" s="27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6594,7 +6595,7 @@
         <v>553</v>
       </c>
       <c r="F73" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771395D-1504-4C78-92AC-E60270538860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71122DFE-F3B3-440D-BEAC-626F1DBA2426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,68 +162,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -267,58 +211,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -433,6 +325,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -482,118 +416,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,6 +1265,12 @@
                 <c:pt idx="19">
                   <c:v>74974</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>77488</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2494,7 +2434,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>02/04/2020</c:v>
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3074,235 +3014,235 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5772</c:v>
+                  <c:v>5681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6669</c:v>
+                  <c:v>6565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8240</c:v>
+                  <c:v>8115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10533</c:v>
+                  <c:v>10379</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11940</c:v>
+                  <c:v>11770</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15097</c:v>
+                  <c:v>14893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18556</c:v>
+                  <c:v>18321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21528</c:v>
+                  <c:v>21270</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24982</c:v>
+                  <c:v>24704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27592</c:v>
+                  <c:v>27303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32960</c:v>
+                  <c:v>32656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39000</c:v>
+                  <c:v>38694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44319</c:v>
+                  <c:v>44026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50211</c:v>
+                  <c:v>49945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54893</c:v>
+                  <c:v>54663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58429</c:v>
+                  <c:v>58237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61809</c:v>
+                  <c:v>61659</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66305</c:v>
+                  <c:v>66213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70637</c:v>
+                  <c:v>70606</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74066</c:v>
+                  <c:v>74098</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76518</c:v>
+                  <c:v>76607</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>77604</c:v>
+                  <c:v>78763</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>78232</c:v>
+                  <c:v>80919</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78408</c:v>
+                  <c:v>81610</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>78144</c:v>
+                  <c:v>81907</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77456</c:v>
+                  <c:v>81824</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>76364</c:v>
+                  <c:v>81371</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>74890</c:v>
+                  <c:v>80563</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73059</c:v>
+                  <c:v>79415</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>70897</c:v>
+                  <c:v>77946</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68432</c:v>
+                  <c:v>76175</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65692</c:v>
+                  <c:v>74123</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62708</c:v>
+                  <c:v>71811</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>59511</c:v>
+                  <c:v>69263</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56134</c:v>
+                  <c:v>66502</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>52611</c:v>
+                  <c:v>63553</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48977</c:v>
+                  <c:v>60441</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45269</c:v>
+                  <c:v>57193</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41524</c:v>
+                  <c:v>53836</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37781</c:v>
+                  <c:v>50397</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>34080</c:v>
+                  <c:v>46906</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30458</c:v>
+                  <c:v>43392</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26953</c:v>
+                  <c:v>39884</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23601</c:v>
+                  <c:v>36412</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20434</c:v>
+                  <c:v>33005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17481</c:v>
+                  <c:v>29690</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14765</c:v>
+                  <c:v>26495</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12303</c:v>
+                  <c:v>23444</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10106</c:v>
+                  <c:v>20560</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8177</c:v>
+                  <c:v>17862</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6513</c:v>
+                  <c:v>15365</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5102</c:v>
+                  <c:v>13080</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3928</c:v>
+                  <c:v>11014</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2971</c:v>
+                  <c:v>9170</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2206</c:v>
+                  <c:v>7545</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1607</c:v>
+                  <c:v>6132</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1147</c:v>
+                  <c:v>4920</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>802</c:v>
+                  <c:v>3896</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>549</c:v>
+                  <c:v>3044</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>368</c:v>
+                  <c:v>2345</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>241</c:v>
+                  <c:v>1781</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>154</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96</c:v>
+                  <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>34</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0</c:v>
@@ -3625,7 +3565,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6990-4565-839E-3E2E74AF83D1}"/>
+              <c16:uniqueId val="{00000000-73F0-4AF9-8AB6-1B6A2F650104}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3697,7 +3637,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Days SINCE QUARANTINE</a:t>
+                  <a:t>DATE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3778,6 +3718,8 @@
         <c:axId val="1353300159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4552,13 +4494,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2933</xdr:colOff>
+      <xdr:colOff>2934</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>714374</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -4880,7 +4822,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,76 +4874,76 @@
       <c r="AG1"/>
     </row>
     <row r="2" spans="2:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="35">
         <v>43913</v>
       </c>
-      <c r="F2" s="52">
-        <v>43923</v>
+      <c r="F2" s="36">
+        <v>43926</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
-        <v>0</v>
-      </c>
-      <c r="C3" s="43">
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31">
         <v>43904</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="37">
         <v>5678</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="46">
         <v>5961</v>
       </c>
-      <c r="F3" s="25">
-        <v>5772</v>
+      <c r="F3" s="23">
+        <v>5681</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="32">
         <v>43905</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="38">
         <v>7036</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="47">
         <v>6884</v>
       </c>
-      <c r="F4" s="26">
-        <v>6669</v>
+      <c r="F4" s="24">
+        <v>6565</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="33">
         <v>43906</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="39">
         <v>9029</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="48">
         <v>8498</v>
       </c>
-      <c r="F5" s="22">
-        <v>8240</v>
+      <c r="F5" s="25">
+        <v>8115</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -5009,20 +4951,20 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="32">
         <v>43907</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="38">
         <v>10265</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="47">
         <v>10849</v>
       </c>
-      <c r="F6" s="26">
-        <v>10533</v>
+      <c r="F6" s="24">
+        <v>10379</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -5030,20 +4972,20 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>4</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="33">
         <v>43908</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="39">
         <v>13050</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="48">
         <v>12286</v>
       </c>
-      <c r="F7" s="22">
-        <v>11940</v>
+      <c r="F7" s="25">
+        <v>11770</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5051,20 +4993,20 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>5</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="32">
         <v>43909</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="38">
         <v>16139</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="47">
         <v>15508</v>
       </c>
-      <c r="F8" s="26">
-        <v>15097</v>
+      <c r="F8" s="24">
+        <v>14893</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5072,20 +5014,20 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>6</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <v>43910</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="39">
         <v>18829</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="48">
         <v>19025</v>
       </c>
-      <c r="F9" s="22">
-        <v>18556</v>
+      <c r="F9" s="25">
+        <v>18321</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5093,80 +5035,80 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="32">
         <v>43911</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="38">
         <v>21992</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="47">
         <v>22034</v>
       </c>
-      <c r="F10" s="26">
-        <v>21528</v>
+      <c r="F10" s="24">
+        <v>21270</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="33">
         <v>43912</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="39">
         <v>24421</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="48">
         <v>25522</v>
       </c>
-      <c r="F11" s="22">
-        <v>24982</v>
+      <c r="F11" s="25">
+        <v>24704</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>9</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="32">
         <v>43913</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="38">
         <v>29470</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="47">
         <v>28144</v>
       </c>
-      <c r="F12" s="26">
-        <v>27592</v>
+      <c r="F12" s="24">
+        <v>27303</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="B13" s="19">
         <v>10</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="33">
         <v>43914</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="39">
         <v>35273</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="48">
         <v>33524</v>
       </c>
-      <c r="F13" s="22">
-        <v>32960</v>
+      <c r="F13" s="25">
+        <v>32656</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5179,80 +5121,80 @@
       <c r="U13" s="8"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>11</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="32">
         <v>43915</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="38">
         <v>40501</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="47">
         <v>37744</v>
       </c>
-      <c r="F14" s="26">
-        <v>39000</v>
+      <c r="F14" s="24">
+        <v>38694</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="19">
         <v>12</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="33">
         <v>43916</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="2">
         <v>46406</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="48">
         <v>42044</v>
       </c>
-      <c r="F15" s="22">
-        <v>44319</v>
+      <c r="F15" s="25">
+        <v>44026</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>13</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="32">
         <v>43917</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="40">
         <v>51224</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="49">
         <v>46331</v>
       </c>
-      <c r="F16" s="27">
-        <v>50211</v>
+      <c r="F16" s="26">
+        <v>49945</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="16">
         <v>14</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="33">
         <v>43918</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="41">
         <v>54968</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="50">
         <v>50508</v>
       </c>
-      <c r="F17" s="15">
-        <v>54893</v>
+      <c r="F17" s="27">
+        <v>54663</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5263,118 +5205,120 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>15</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="32">
         <v>43919</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="40">
         <v>58598</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="49">
         <v>54483</v>
       </c>
-      <c r="F18" s="27">
-        <v>58429</v>
+      <c r="F18" s="26">
+        <v>58237</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>16</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="33">
         <v>43920</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="41">
         <v>63460</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="50">
         <v>58173</v>
       </c>
-      <c r="F19" s="15">
-        <v>61809</v>
+      <c r="F19" s="27">
+        <v>61659</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>17</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="32">
         <v>43921</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="40">
         <v>68200</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="49">
         <v>61509</v>
       </c>
-      <c r="F20" s="27">
-        <v>66305</v>
+      <c r="F20" s="26">
+        <v>66213</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
+      <c r="B21" s="16">
         <v>18</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="33">
         <v>43922</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="41">
         <v>72084</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="50">
         <v>64440</v>
       </c>
-      <c r="F21" s="15">
-        <v>70637</v>
+      <c r="F21" s="27">
+        <v>70606</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>19</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="32">
         <v>43923</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="40">
         <v>74974</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="49">
         <v>66932</v>
       </c>
-      <c r="F22" s="27">
-        <v>74066</v>
+      <c r="F22" s="26">
+        <v>74098</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <v>20</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="33">
         <v>43924</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="32">
+      <c r="D23" s="41">
+        <v>77488</v>
+      </c>
+      <c r="E23" s="50">
         <v>68968</v>
       </c>
-      <c r="F23" s="15">
-        <v>76518</v>
+      <c r="F23" s="27">
+        <v>76607</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5388,18 +5332,20 @@
       <c r="X23" s="11"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>21</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="32">
         <v>43925</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="31">
+      <c r="D24" s="40">
+        <v>80002</v>
+      </c>
+      <c r="E24" s="49">
         <v>70544</v>
       </c>
-      <c r="F24" s="27">
-        <v>77604</v>
+      <c r="F24" s="26">
+        <v>78763</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5413,20 +5359,21 @@
       <c r="X24" s="11"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="18">
+      <c r="B25" s="16">
         <v>22</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="33">
         <v>43926</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="32">
+      <c r="D25" s="41"/>
+      <c r="E25" s="50">
         <v>71670</v>
       </c>
-      <c r="F25" s="50">
-        <v>78232</v>
+      <c r="F25" s="43">
+        <v>80919</v>
       </c>
       <c r="H25" s="5"/>
+      <c r="I25" s="12"/>
       <c r="M25" s="6"/>
       <c r="N25" s="7"/>
       <c r="P25" s="10"/>
@@ -5438,20 +5385,21 @@
       <c r="X25" s="11"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>23</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="32">
         <v>43927</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="31">
+      <c r="D26" s="40"/>
+      <c r="E26" s="49">
         <v>72364</v>
       </c>
-      <c r="F26" s="47">
-        <v>78408</v>
+      <c r="F26" s="44">
+        <v>81610</v>
       </c>
       <c r="H26" s="5"/>
+      <c r="I26" s="12"/>
       <c r="M26" s="6"/>
       <c r="N26" s="7"/>
       <c r="P26" s="10"/>
@@ -5463,20 +5411,21 @@
       <c r="X26" s="11"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>24</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="33">
         <v>43928</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="46">
+      <c r="D27" s="41"/>
+      <c r="E27" s="51">
         <v>72650</v>
       </c>
-      <c r="F27" s="50">
-        <v>78144</v>
+      <c r="F27" s="43">
+        <v>81907</v>
       </c>
       <c r="H27" s="5"/>
+      <c r="I27" s="12"/>
       <c r="M27" s="6"/>
       <c r="N27" s="7"/>
       <c r="P27" s="10"/>
@@ -5488,18 +5437,18 @@
       <c r="X27" s="11"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>25</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="32">
         <v>43929</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="31">
+      <c r="D28" s="40"/>
+      <c r="E28" s="49">
         <v>72558</v>
       </c>
-      <c r="F28" s="27">
-        <v>77456</v>
+      <c r="F28" s="26">
+        <v>81824</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5513,18 +5462,18 @@
       <c r="X28" s="11"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>26</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="33">
         <v>43930</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="32">
+      <c r="D29" s="41"/>
+      <c r="E29" s="50">
         <v>72119</v>
       </c>
-      <c r="F29" s="15">
-        <v>76364</v>
+      <c r="F29" s="27">
+        <v>81371</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5538,18 +5487,18 @@
       <c r="X29" s="11"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>27</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="32">
         <v>43931</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="31">
+      <c r="D30" s="40"/>
+      <c r="E30" s="49">
         <v>71365</v>
       </c>
-      <c r="F30" s="27">
-        <v>74890</v>
+      <c r="F30" s="26">
+        <v>80563</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5563,21 +5512,20 @@
       <c r="X30" s="11"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="33">
         <v>43932</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="32">
+      <c r="D31" s="41"/>
+      <c r="E31" s="50">
         <v>70327</v>
       </c>
-      <c r="F31" s="15">
-        <v>73059</v>
+      <c r="F31" s="27">
+        <v>79415</v>
       </c>
       <c r="H31" s="13"/>
-      <c r="I31" s="12"/>
       <c r="L31" s="6"/>
       <c r="M31" s="7"/>
       <c r="N31" s="6"/>
@@ -5590,21 +5538,20 @@
       <c r="X31" s="11"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="17">
+      <c r="B32" s="15">
         <v>29</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="32">
         <v>43933</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="31">
+      <c r="D32" s="40"/>
+      <c r="E32" s="49">
         <v>69036</v>
       </c>
-      <c r="F32" s="27">
-        <v>70897</v>
+      <c r="F32" s="26">
+        <v>77946</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="8"/>
@@ -5619,21 +5566,20 @@
       <c r="X32" s="11"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B33" s="18">
+      <c r="B33" s="16">
         <v>30</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="33">
         <v>43934</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="32">
+      <c r="D33" s="41"/>
+      <c r="E33" s="50">
         <v>67520</v>
       </c>
-      <c r="F33" s="15">
-        <v>68432</v>
+      <c r="F33" s="27">
+        <v>76175</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="8"/>
       <c r="J33" s="12"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -5647,21 +5593,20 @@
       <c r="X33" s="11"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>31</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="32">
         <v>43935</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="31">
+      <c r="D34" s="40"/>
+      <c r="E34" s="49">
         <v>65807</v>
       </c>
-      <c r="F34" s="27">
-        <v>65692</v>
+      <c r="F34" s="26">
+        <v>74123</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="8"/>
       <c r="J34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -5675,21 +5620,20 @@
       <c r="X34" s="11"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B35" s="18">
+      <c r="B35" s="16">
         <v>32</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="33">
         <v>43936</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="32">
+      <c r="D35" s="41"/>
+      <c r="E35" s="50">
         <v>63921</v>
       </c>
-      <c r="F35" s="15">
-        <v>62708</v>
+      <c r="F35" s="27">
+        <v>71811</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
       <c r="J35" s="12"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -5701,18 +5645,18 @@
       <c r="S35" s="7"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>33</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="32">
         <v>43937</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="31">
+      <c r="D36" s="40"/>
+      <c r="E36" s="49">
         <v>61885</v>
       </c>
-      <c r="F36" s="27">
-        <v>59511</v>
+      <c r="F36" s="26">
+        <v>69263</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5727,18 +5671,18 @@
       <c r="S36" s="7"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B37" s="18">
+      <c r="B37" s="16">
         <v>34</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="33">
         <v>43938</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="32">
+      <c r="D37" s="41"/>
+      <c r="E37" s="50">
         <v>59721</v>
       </c>
-      <c r="F37" s="49">
-        <v>56134</v>
+      <c r="F37" s="45">
+        <v>66502</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5753,18 +5697,18 @@
       <c r="S37" s="7"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>35</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="32">
         <v>43939</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="31">
+      <c r="D38" s="40"/>
+      <c r="E38" s="49">
         <v>57448</v>
       </c>
-      <c r="F38" s="27">
-        <v>52611</v>
+      <c r="F38" s="26">
+        <v>63553</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5780,18 +5724,18 @@
       <c r="U38" s="8"/>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B39" s="18">
+      <c r="B39" s="16">
         <v>36</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="33">
         <v>43940</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="32">
+      <c r="D39" s="41"/>
+      <c r="E39" s="50">
         <v>55085</v>
       </c>
-      <c r="F39" s="15">
-        <v>48977</v>
+      <c r="F39" s="27">
+        <v>60441</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5806,18 +5750,18 @@
       <c r="S39" s="7"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>37</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="32">
         <v>43941</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="31">
+      <c r="D40" s="40"/>
+      <c r="E40" s="49">
         <v>52648</v>
       </c>
-      <c r="F40" s="27">
-        <v>45269</v>
+      <c r="F40" s="26">
+        <v>57193</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5832,18 +5776,18 @@
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B41" s="18">
+      <c r="B41" s="16">
         <v>38</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="33">
         <v>43942</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="32">
+      <c r="D41" s="41"/>
+      <c r="E41" s="50">
         <v>50154</v>
       </c>
-      <c r="F41" s="15">
-        <v>41524</v>
+      <c r="F41" s="27">
+        <v>53836</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5858,18 +5802,18 @@
       <c r="S41" s="7"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="32">
         <v>43943</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="31">
+      <c r="D42" s="40"/>
+      <c r="E42" s="49">
         <v>47618</v>
       </c>
-      <c r="F42" s="27">
-        <v>37781</v>
+      <c r="F42" s="26">
+        <v>50397</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5888,18 +5832,18 @@
       <c r="AG42" s="3"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B43" s="18">
+      <c r="B43" s="16">
         <v>40</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="33">
         <v>43944</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="32">
+      <c r="D43" s="41"/>
+      <c r="E43" s="50">
         <v>45054</v>
       </c>
-      <c r="F43" s="15">
-        <v>34080</v>
+      <c r="F43" s="27">
+        <v>46906</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5914,18 +5858,18 @@
       <c r="S43" s="7"/>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>41</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="32">
         <v>43945</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="31">
+      <c r="D44" s="40"/>
+      <c r="E44" s="49">
         <v>42476</v>
       </c>
-      <c r="F44" s="27">
-        <v>30458</v>
+      <c r="F44" s="26">
+        <v>43392</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5940,18 +5884,18 @@
       <c r="S44" s="7"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B45" s="18">
+      <c r="B45" s="16">
         <v>42</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="33">
         <v>43946</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="32">
+      <c r="D45" s="41"/>
+      <c r="E45" s="50">
         <v>39897</v>
       </c>
-      <c r="F45" s="15">
-        <v>26953</v>
+      <c r="F45" s="27">
+        <v>39884</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5966,18 +5910,18 @@
       <c r="S45" s="7"/>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>43</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="32">
         <v>43947</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="31">
+      <c r="D46" s="40"/>
+      <c r="E46" s="49">
         <v>37330</v>
       </c>
-      <c r="F46" s="27">
-        <v>23601</v>
+      <c r="F46" s="26">
+        <v>36412</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5992,18 +5936,18 @@
       <c r="S46" s="7"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B47" s="18">
+      <c r="B47" s="16">
         <v>44</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="33">
         <v>43948</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="32">
+      <c r="D47" s="41"/>
+      <c r="E47" s="50">
         <v>34787</v>
       </c>
-      <c r="F47" s="15">
-        <v>20434</v>
+      <c r="F47" s="27">
+        <v>33005</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -6018,18 +5962,18 @@
       <c r="S47" s="7"/>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B48" s="17">
+      <c r="B48" s="15">
         <v>45</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="32">
         <v>43949</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="31">
+      <c r="D48" s="40"/>
+      <c r="E48" s="49">
         <v>32280</v>
       </c>
-      <c r="F48" s="27">
-        <v>17481</v>
+      <c r="F48" s="26">
+        <v>29690</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6044,18 +5988,18 @@
       <c r="S48" s="7"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B49" s="18">
+      <c r="B49" s="16">
         <v>46</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="33">
         <v>43950</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="32">
+      <c r="D49" s="41"/>
+      <c r="E49" s="50">
         <v>29820</v>
       </c>
-      <c r="F49" s="15">
-        <v>14765</v>
+      <c r="F49" s="27">
+        <v>26495</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6070,18 +6014,18 @@
       <c r="S49" s="7"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B50" s="17">
+      <c r="B50" s="15">
         <v>47</v>
       </c>
-      <c r="C50" s="44">
+      <c r="C50" s="32">
         <v>43951</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="31">
+      <c r="D50" s="40"/>
+      <c r="E50" s="49">
         <v>27419</v>
       </c>
-      <c r="F50" s="27">
-        <v>12303</v>
+      <c r="F50" s="26">
+        <v>23444</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6096,18 +6040,18 @@
       <c r="S50" s="7"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B51" s="18">
+      <c r="B51" s="16">
         <v>48</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C51" s="33">
         <v>43952</v>
       </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="32">
+      <c r="D51" s="41"/>
+      <c r="E51" s="50">
         <v>25087</v>
       </c>
-      <c r="F51" s="15">
-        <v>10106</v>
+      <c r="F51" s="27">
+        <v>20560</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6122,18 +6066,18 @@
       <c r="S51" s="7"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="17">
+      <c r="B52" s="15">
         <v>49</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="32">
         <v>43953</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="31">
+      <c r="D52" s="40"/>
+      <c r="E52" s="49">
         <v>22835</v>
       </c>
-      <c r="F52" s="27">
-        <v>8177</v>
+      <c r="F52" s="26">
+        <v>17862</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6148,18 +6092,18 @@
       <c r="S52" s="7"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="18">
+      <c r="B53" s="16">
         <v>50</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="33">
         <v>43954</v>
       </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="32">
+      <c r="D53" s="41"/>
+      <c r="E53" s="50">
         <v>20672</v>
       </c>
-      <c r="F53" s="15">
-        <v>6513</v>
+      <c r="F53" s="27">
+        <v>15365</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6174,18 +6118,18 @@
       <c r="S53" s="7"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="17">
+      <c r="B54" s="15">
         <v>51</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="32">
         <v>43955</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="31">
+      <c r="D54" s="40"/>
+      <c r="E54" s="49">
         <v>18606</v>
       </c>
-      <c r="F54" s="27">
-        <v>5102</v>
+      <c r="F54" s="26">
+        <v>13080</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6200,18 +6144,18 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="18">
+      <c r="B55" s="16">
         <v>52</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="33">
         <v>43956</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="32">
+      <c r="D55" s="41"/>
+      <c r="E55" s="50">
         <v>16645</v>
       </c>
-      <c r="F55" s="15">
-        <v>3928</v>
+      <c r="F55" s="27">
+        <v>11014</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6226,18 +6170,18 @@
       <c r="S55" s="7"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="17">
+      <c r="B56" s="15">
         <v>53</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="32">
         <v>43957</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="31">
+      <c r="D56" s="40"/>
+      <c r="E56" s="49">
         <v>14797</v>
       </c>
-      <c r="F56" s="27">
-        <v>2971</v>
+      <c r="F56" s="26">
+        <v>9170</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6252,18 +6196,18 @@
       <c r="S56" s="7"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="18">
+      <c r="B57" s="16">
         <v>54</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="33">
         <v>43958</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="32">
+      <c r="D57" s="41"/>
+      <c r="E57" s="50">
         <v>13066</v>
       </c>
-      <c r="F57" s="15">
-        <v>2206</v>
+      <c r="F57" s="27">
+        <v>7545</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6278,18 +6222,18 @@
       <c r="S57" s="7"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="17">
+      <c r="B58" s="15">
         <v>55</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="32">
         <v>43959</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="31">
+      <c r="D58" s="40"/>
+      <c r="E58" s="49">
         <v>11457</v>
       </c>
-      <c r="F58" s="27">
-        <v>1607</v>
+      <c r="F58" s="26">
+        <v>6132</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6304,18 +6248,18 @@
       <c r="S58" s="7"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="18">
+      <c r="B59" s="16">
         <v>56</v>
       </c>
-      <c r="C59" s="45">
+      <c r="C59" s="33">
         <v>43960</v>
       </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="32">
+      <c r="D59" s="41"/>
+      <c r="E59" s="50">
         <v>9972</v>
       </c>
-      <c r="F59" s="15">
-        <v>1147</v>
+      <c r="F59" s="27">
+        <v>4920</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6324,18 +6268,18 @@
       <c r="S59" s="7"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="17">
+      <c r="B60" s="15">
         <v>57</v>
       </c>
-      <c r="C60" s="44">
+      <c r="C60" s="32">
         <v>43961</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="31">
+      <c r="D60" s="40"/>
+      <c r="E60" s="49">
         <v>8613</v>
       </c>
-      <c r="F60" s="27">
-        <v>802</v>
+      <c r="F60" s="26">
+        <v>3896</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6344,18 +6288,18 @@
       <c r="S60" s="7"/>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="18">
+      <c r="B61" s="16">
         <v>58</v>
       </c>
-      <c r="C61" s="45">
+      <c r="C61" s="33">
         <v>43962</v>
       </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="32">
+      <c r="D61" s="41"/>
+      <c r="E61" s="50">
         <v>7380</v>
       </c>
-      <c r="F61" s="15">
-        <v>549</v>
+      <c r="F61" s="27">
+        <v>3044</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6364,18 +6308,18 @@
       <c r="S61" s="7"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="17">
+      <c r="B62" s="15">
         <v>59</v>
       </c>
-      <c r="C62" s="44">
+      <c r="C62" s="32">
         <v>43963</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="31">
+      <c r="D62" s="40"/>
+      <c r="E62" s="49">
         <v>6271</v>
       </c>
-      <c r="F62" s="27">
-        <v>368</v>
+      <c r="F62" s="26">
+        <v>2345</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6384,18 +6328,18 @@
       <c r="S62" s="7"/>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="18">
+      <c r="B63" s="16">
         <v>60</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="33">
         <v>43964</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="32">
+      <c r="D63" s="41"/>
+      <c r="E63" s="50">
         <v>5283</v>
       </c>
-      <c r="F63" s="15">
-        <v>241</v>
+      <c r="F63" s="27">
+        <v>1781</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6404,18 +6348,18 @@
       <c r="S63" s="7"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="17">
+      <c r="B64" s="15">
         <v>61</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="32">
         <v>43965</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="31">
+      <c r="D64" s="40"/>
+      <c r="E64" s="49">
         <v>4411</v>
       </c>
-      <c r="F64" s="27">
-        <v>154</v>
+      <c r="F64" s="26">
+        <v>1333</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6424,18 +6368,18 @@
       <c r="S64" s="7"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B65" s="18">
+      <c r="B65" s="16">
         <v>62</v>
       </c>
-      <c r="C65" s="45">
+      <c r="C65" s="33">
         <v>43966</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="32">
+      <c r="D65" s="41"/>
+      <c r="E65" s="50">
         <v>3649</v>
       </c>
-      <c r="F65" s="47">
-        <v>96</v>
+      <c r="F65" s="44">
+        <v>983</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6444,18 +6388,18 @@
       <c r="S65" s="7"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="17">
+      <c r="B66" s="15">
         <v>63</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C66" s="32">
         <v>43967</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="31">
+      <c r="D66" s="40"/>
+      <c r="E66" s="49">
         <v>2989</v>
       </c>
-      <c r="F66" s="27">
-        <v>58</v>
+      <c r="F66" s="26">
+        <v>714</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6464,18 +6408,18 @@
       <c r="S66" s="7"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" s="18">
+      <c r="B67" s="16">
         <v>64</v>
       </c>
-      <c r="C67" s="45">
+      <c r="C67" s="33">
         <v>43968</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="32">
+      <c r="D67" s="41"/>
+      <c r="E67" s="50">
         <v>2425</v>
       </c>
-      <c r="F67" s="15">
-        <v>34</v>
+      <c r="F67" s="27">
+        <v>510</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6484,18 +6428,18 @@
       <c r="S67" s="7"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" s="17">
+      <c r="B68" s="15">
         <v>65</v>
       </c>
-      <c r="C68" s="44">
+      <c r="C68" s="32">
         <v>43969</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="31">
+      <c r="D68" s="40"/>
+      <c r="E68" s="49">
         <v>1947</v>
       </c>
-      <c r="F68" s="27">
-        <v>19</v>
+      <c r="F68" s="26">
+        <v>359</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6504,18 +6448,18 @@
       <c r="S68" s="7"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" s="18">
+      <c r="B69" s="16">
         <v>66</v>
       </c>
-      <c r="C69" s="45">
+      <c r="C69" s="33">
         <v>43970</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="32">
+      <c r="D69" s="41"/>
+      <c r="E69" s="50">
         <v>1547</v>
       </c>
-      <c r="F69" s="15">
-        <v>10</v>
+      <c r="F69" s="27">
+        <v>248</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6524,18 +6468,18 @@
       <c r="S69" s="7"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" s="17">
+      <c r="B70" s="15">
         <v>67</v>
       </c>
-      <c r="C70" s="44">
+      <c r="C70" s="32">
         <v>43971</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="31">
+      <c r="D70" s="40"/>
+      <c r="E70" s="49">
         <v>1216</v>
       </c>
-      <c r="F70" s="27">
-        <v>5</v>
+      <c r="F70" s="26">
+        <v>169</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6544,18 +6488,18 @@
       <c r="S70" s="7"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B71" s="18">
+      <c r="B71" s="16">
         <v>68</v>
       </c>
-      <c r="C71" s="45">
+      <c r="C71" s="33">
         <v>43972</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="32">
+      <c r="D71" s="41"/>
+      <c r="E71" s="50">
         <v>946</v>
       </c>
-      <c r="F71" s="15">
-        <v>2</v>
+      <c r="F71" s="27">
+        <v>113</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6564,18 +6508,18 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B72" s="17">
+      <c r="B72" s="15">
         <v>69</v>
       </c>
-      <c r="C72" s="44">
+      <c r="C72" s="32">
         <v>43973</v>
       </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="31">
+      <c r="D72" s="40"/>
+      <c r="E72" s="49">
         <v>727</v>
       </c>
-      <c r="F72" s="27">
-        <v>1</v>
+      <c r="F72" s="26">
+        <v>74</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6584,18 +6528,18 @@
       <c r="S72" s="7"/>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" s="18">
+      <c r="B73" s="16">
         <v>70</v>
       </c>
-      <c r="C73" s="45">
+      <c r="C73" s="33">
         <v>43974</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="32">
+      <c r="D73" s="41"/>
+      <c r="E73" s="50">
         <v>553</v>
       </c>
-      <c r="F73" s="15">
-        <v>0</v>
+      <c r="F73" s="27">
+        <v>48</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6604,18 +6548,18 @@
       <c r="S73" s="7"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="17">
+      <c r="B74" s="15">
         <v>71</v>
       </c>
-      <c r="C74" s="44">
+      <c r="C74" s="32">
         <v>43975</v>
       </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="31">
+      <c r="D74" s="40"/>
+      <c r="E74" s="49">
         <v>415</v>
       </c>
-      <c r="F74" s="27">
-        <v>0</v>
+      <c r="F74" s="26">
+        <v>30</v>
       </c>
       <c r="H74" s="5"/>
       <c r="P74" s="10"/>
@@ -6624,18 +6568,18 @@
       <c r="S74" s="7"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="18">
+      <c r="B75" s="16">
         <v>72</v>
       </c>
-      <c r="C75" s="45">
+      <c r="C75" s="33">
         <v>43976</v>
       </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="32">
+      <c r="D75" s="41"/>
+      <c r="E75" s="50">
         <v>308</v>
       </c>
-      <c r="F75" s="15">
-        <v>0</v>
+      <c r="F75" s="27">
+        <v>18</v>
       </c>
       <c r="H75" s="5"/>
       <c r="P75" s="10"/>
@@ -6644,18 +6588,18 @@
       <c r="S75" s="7"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B76" s="17">
+      <c r="B76" s="15">
         <v>73</v>
       </c>
-      <c r="C76" s="44">
+      <c r="C76" s="32">
         <v>43977</v>
       </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="31">
+      <c r="D76" s="40"/>
+      <c r="E76" s="49">
         <v>226</v>
       </c>
-      <c r="F76" s="27">
-        <v>0</v>
+      <c r="F76" s="26">
+        <v>11</v>
       </c>
       <c r="H76" s="5"/>
       <c r="P76" s="10"/>
@@ -6664,18 +6608,18 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B77" s="18">
+      <c r="B77" s="16">
         <v>74</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="33">
         <v>43978</v>
       </c>
-      <c r="D77" s="39"/>
-      <c r="E77" s="32">
+      <c r="D77" s="41"/>
+      <c r="E77" s="50">
         <v>164</v>
       </c>
-      <c r="F77" s="15">
-        <v>0</v>
+      <c r="F77" s="27">
+        <v>6</v>
       </c>
       <c r="H77" s="5"/>
       <c r="P77" s="10"/>
@@ -6684,18 +6628,18 @@
       <c r="S77" s="7"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B78" s="17">
+      <c r="B78" s="15">
         <v>75</v>
       </c>
-      <c r="C78" s="44">
+      <c r="C78" s="32">
         <v>43979</v>
       </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="31">
+      <c r="D78" s="40"/>
+      <c r="E78" s="49">
         <v>117</v>
       </c>
-      <c r="F78" s="27">
-        <v>0</v>
+      <c r="F78" s="26">
+        <v>3</v>
       </c>
       <c r="H78" s="5"/>
       <c r="P78" s="10"/>
@@ -6704,18 +6648,18 @@
       <c r="S78" s="7"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B79" s="18">
+      <c r="B79" s="16">
         <v>76</v>
       </c>
-      <c r="C79" s="45">
+      <c r="C79" s="33">
         <v>43980</v>
       </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="32">
+      <c r="D79" s="41"/>
+      <c r="E79" s="50">
         <v>82</v>
       </c>
-      <c r="F79" s="15">
-        <v>0</v>
+      <c r="F79" s="27">
+        <v>1</v>
       </c>
       <c r="H79" s="5"/>
       <c r="P79" s="10"/>
@@ -6724,17 +6668,17 @@
       <c r="S79" s="7"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B80" s="17">
+      <c r="B80" s="15">
         <v>77</v>
       </c>
-      <c r="C80" s="44">
+      <c r="C80" s="32">
         <v>43981</v>
       </c>
-      <c r="D80" s="38"/>
-      <c r="E80" s="31">
+      <c r="D80" s="40"/>
+      <c r="E80" s="49">
         <v>57</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F80" s="26">
         <v>0</v>
       </c>
       <c r="H80" s="5"/>
@@ -6744,17 +6688,17 @@
       <c r="S80" s="7"/>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B81" s="18">
+      <c r="B81" s="16">
         <v>78</v>
       </c>
-      <c r="C81" s="45">
+      <c r="C81" s="33">
         <v>43982</v>
       </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="32">
+      <c r="D81" s="41"/>
+      <c r="E81" s="50">
         <v>39</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="27">
         <v>0</v>
       </c>
       <c r="H81" s="5"/>
@@ -6764,17 +6708,17 @@
       <c r="S81" s="7"/>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="17">
+      <c r="B82" s="15">
         <v>79</v>
       </c>
-      <c r="C82" s="44">
+      <c r="C82" s="32">
         <v>43983</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="31">
+      <c r="D82" s="40"/>
+      <c r="E82" s="49">
         <v>26</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="26">
         <v>0</v>
       </c>
       <c r="H82" s="5"/>
@@ -6784,17 +6728,17 @@
       <c r="S82" s="7"/>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B83" s="18">
+      <c r="B83" s="16">
         <v>80</v>
       </c>
-      <c r="C83" s="45">
+      <c r="C83" s="33">
         <v>43984</v>
       </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="32">
+      <c r="D83" s="41"/>
+      <c r="E83" s="50">
         <v>17</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F83" s="27">
         <v>0</v>
       </c>
       <c r="H83" s="5"/>
@@ -6804,17 +6748,17 @@
       <c r="S83" s="7"/>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B84" s="17">
+      <c r="B84" s="15">
         <v>81</v>
       </c>
-      <c r="C84" s="44">
+      <c r="C84" s="32">
         <v>43985</v>
       </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="31">
+      <c r="D84" s="40"/>
+      <c r="E84" s="49">
         <v>11</v>
       </c>
-      <c r="F84" s="27">
+      <c r="F84" s="26">
         <v>0</v>
       </c>
       <c r="H84" s="5"/>
@@ -6824,17 +6768,17 @@
       <c r="S84" s="7"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B85" s="18">
+      <c r="B85" s="16">
         <v>82</v>
       </c>
-      <c r="C85" s="45">
+      <c r="C85" s="33">
         <v>43986</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="32">
+      <c r="D85" s="41"/>
+      <c r="E85" s="50">
         <v>7</v>
       </c>
-      <c r="F85" s="50">
+      <c r="F85" s="43">
         <v>0</v>
       </c>
       <c r="H85" s="5"/>
@@ -6844,17 +6788,17 @@
       <c r="S85" s="7"/>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B86" s="17">
+      <c r="B86" s="15">
         <v>83</v>
       </c>
-      <c r="C86" s="44">
+      <c r="C86" s="32">
         <v>43987</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="31">
+      <c r="D86" s="40"/>
+      <c r="E86" s="49">
         <v>4</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F86" s="26">
         <v>0</v>
       </c>
       <c r="H86" s="5"/>
@@ -6864,17 +6808,17 @@
       <c r="S86" s="7"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B87" s="18">
+      <c r="B87" s="16">
         <v>84</v>
       </c>
-      <c r="C87" s="45">
+      <c r="C87" s="33">
         <v>43988</v>
       </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="32">
+      <c r="D87" s="41"/>
+      <c r="E87" s="50">
         <v>2</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F87" s="27">
         <v>0</v>
       </c>
       <c r="H87" s="5"/>
@@ -6884,17 +6828,17 @@
       <c r="S87" s="7"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B88" s="17">
+      <c r="B88" s="15">
         <v>85</v>
       </c>
-      <c r="C88" s="44">
+      <c r="C88" s="32">
         <v>43989</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="31">
+      <c r="D88" s="40"/>
+      <c r="E88" s="49">
         <v>1</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F88" s="26">
         <v>0</v>
       </c>
       <c r="H88" s="5"/>
@@ -6904,17 +6848,17 @@
       <c r="S88" s="7"/>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B89" s="18">
+      <c r="B89" s="16">
         <v>86</v>
       </c>
-      <c r="C89" s="45">
+      <c r="C89" s="33">
         <v>43990</v>
       </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="46">
-        <v>0</v>
-      </c>
-      <c r="F89" s="15">
+      <c r="D89" s="41"/>
+      <c r="E89" s="51">
+        <v>0</v>
+      </c>
+      <c r="F89" s="27">
         <v>0</v>
       </c>
       <c r="H89" s="5"/>
@@ -6924,17 +6868,17 @@
       <c r="S89" s="7"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B90" s="17">
+      <c r="B90" s="15">
         <v>87</v>
       </c>
-      <c r="C90" s="44">
+      <c r="C90" s="32">
         <v>43991</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="31">
-        <v>0</v>
-      </c>
-      <c r="F90" s="27">
+      <c r="D90" s="40"/>
+      <c r="E90" s="49">
+        <v>0</v>
+      </c>
+      <c r="F90" s="26">
         <v>0</v>
       </c>
       <c r="H90" s="5"/>
@@ -6944,17 +6888,17 @@
       <c r="S90" s="7"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B91" s="18">
+      <c r="B91" s="16">
         <v>88</v>
       </c>
-      <c r="C91" s="45">
+      <c r="C91" s="33">
         <v>43992</v>
       </c>
-      <c r="D91" s="39"/>
-      <c r="E91" s="32">
-        <v>0</v>
-      </c>
-      <c r="F91" s="15">
+      <c r="D91" s="41"/>
+      <c r="E91" s="50">
+        <v>0</v>
+      </c>
+      <c r="F91" s="27">
         <v>0</v>
       </c>
       <c r="H91" s="5"/>
@@ -6964,17 +6908,17 @@
       <c r="S91" s="7"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B92" s="17">
+      <c r="B92" s="15">
         <v>89</v>
       </c>
-      <c r="C92" s="44">
+      <c r="C92" s="32">
         <v>43993</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="31">
-        <v>0</v>
-      </c>
-      <c r="F92" s="27">
+      <c r="D92" s="40"/>
+      <c r="E92" s="49">
+        <v>0</v>
+      </c>
+      <c r="F92" s="26">
         <v>0</v>
       </c>
       <c r="H92" s="5"/>
@@ -6984,17 +6928,17 @@
       <c r="S92" s="7"/>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B93" s="18">
+      <c r="B93" s="16">
         <v>90</v>
       </c>
-      <c r="C93" s="45">
+      <c r="C93" s="33">
         <v>43994</v>
       </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="32">
-        <v>0</v>
-      </c>
-      <c r="F93" s="15">
+      <c r="D93" s="41"/>
+      <c r="E93" s="50">
+        <v>0</v>
+      </c>
+      <c r="F93" s="27">
         <v>0</v>
       </c>
       <c r="H93" s="5"/>
@@ -7004,17 +6948,17 @@
       <c r="S93" s="7"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B94" s="17">
+      <c r="B94" s="15">
         <v>91</v>
       </c>
-      <c r="C94" s="44">
+      <c r="C94" s="32">
         <v>43995</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="31">
-        <v>0</v>
-      </c>
-      <c r="F94" s="27">
+      <c r="D94" s="40"/>
+      <c r="E94" s="49">
+        <v>0</v>
+      </c>
+      <c r="F94" s="26">
         <v>0</v>
       </c>
       <c r="H94" s="5"/>
@@ -7024,17 +6968,17 @@
       <c r="S94" s="7"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B95" s="18">
+      <c r="B95" s="16">
         <v>92</v>
       </c>
-      <c r="C95" s="45">
+      <c r="C95" s="33">
         <v>43996</v>
       </c>
-      <c r="D95" s="39"/>
-      <c r="E95" s="32">
-        <v>0</v>
-      </c>
-      <c r="F95" s="15">
+      <c r="D95" s="41"/>
+      <c r="E95" s="50">
+        <v>0</v>
+      </c>
+      <c r="F95" s="27">
         <v>0</v>
       </c>
       <c r="H95" s="5"/>
@@ -7044,17 +6988,17 @@
       <c r="S95" s="7"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B96" s="17">
+      <c r="B96" s="15">
         <v>93</v>
       </c>
-      <c r="C96" s="44">
+      <c r="C96" s="32">
         <v>43997</v>
       </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="31">
-        <v>0</v>
-      </c>
-      <c r="F96" s="27">
+      <c r="D96" s="40"/>
+      <c r="E96" s="49">
+        <v>0</v>
+      </c>
+      <c r="F96" s="26">
         <v>0</v>
       </c>
       <c r="H96" s="5"/>
@@ -7064,17 +7008,17 @@
       <c r="S96" s="7"/>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B97" s="18">
+      <c r="B97" s="16">
         <v>94</v>
       </c>
-      <c r="C97" s="45">
+      <c r="C97" s="33">
         <v>43998</v>
       </c>
-      <c r="D97" s="39"/>
-      <c r="E97" s="32">
-        <v>0</v>
-      </c>
-      <c r="F97" s="15">
+      <c r="D97" s="41"/>
+      <c r="E97" s="50">
+        <v>0</v>
+      </c>
+      <c r="F97" s="27">
         <v>0</v>
       </c>
       <c r="H97" s="5"/>
@@ -7084,17 +7028,17 @@
       <c r="S97" s="7"/>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B98" s="17">
+      <c r="B98" s="15">
         <v>95</v>
       </c>
-      <c r="C98" s="44">
+      <c r="C98" s="32">
         <v>43999</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="31">
-        <v>0</v>
-      </c>
-      <c r="F98" s="27">
+      <c r="D98" s="40"/>
+      <c r="E98" s="49">
+        <v>0</v>
+      </c>
+      <c r="F98" s="26">
         <v>0</v>
       </c>
       <c r="H98" s="5"/>
@@ -7104,17 +7048,17 @@
       <c r="S98" s="7"/>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B99" s="18">
+      <c r="B99" s="16">
         <v>96</v>
       </c>
-      <c r="C99" s="45">
+      <c r="C99" s="33">
         <v>44000</v>
       </c>
-      <c r="D99" s="39"/>
-      <c r="E99" s="32">
-        <v>0</v>
-      </c>
-      <c r="F99" s="15">
+      <c r="D99" s="41"/>
+      <c r="E99" s="50">
+        <v>0</v>
+      </c>
+      <c r="F99" s="27">
         <v>0</v>
       </c>
       <c r="H99" s="5"/>
@@ -7124,17 +7068,17 @@
       <c r="S99" s="7"/>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B100" s="17">
+      <c r="B100" s="15">
         <v>97</v>
       </c>
-      <c r="C100" s="44">
+      <c r="C100" s="32">
         <v>44001</v>
       </c>
-      <c r="D100" s="38"/>
-      <c r="E100" s="31">
-        <v>0</v>
-      </c>
-      <c r="F100" s="27">
+      <c r="D100" s="40"/>
+      <c r="E100" s="49">
+        <v>0</v>
+      </c>
+      <c r="F100" s="26">
         <v>0</v>
       </c>
       <c r="H100" s="5"/>
@@ -7144,17 +7088,17 @@
       <c r="S100" s="7"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B101" s="18">
+      <c r="B101" s="16">
         <v>98</v>
       </c>
-      <c r="C101" s="45">
+      <c r="C101" s="33">
         <v>44002</v>
       </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="32">
-        <v>0</v>
-      </c>
-      <c r="F101" s="15">
+      <c r="D101" s="41"/>
+      <c r="E101" s="50">
+        <v>0</v>
+      </c>
+      <c r="F101" s="27">
         <v>0</v>
       </c>
       <c r="H101" s="5"/>
@@ -7164,17 +7108,17 @@
       <c r="S101" s="7"/>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B102" s="17">
+      <c r="B102" s="15">
         <v>99</v>
       </c>
-      <c r="C102" s="44">
+      <c r="C102" s="32">
         <v>44003</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="31">
-        <v>0</v>
-      </c>
-      <c r="F102" s="27">
+      <c r="D102" s="40"/>
+      <c r="E102" s="49">
+        <v>0</v>
+      </c>
+      <c r="F102" s="26">
         <v>0</v>
       </c>
       <c r="H102" s="5"/>
@@ -7184,17 +7128,17 @@
       <c r="S102" s="7"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B103" s="18">
+      <c r="B103" s="16">
         <v>100</v>
       </c>
-      <c r="C103" s="45">
+      <c r="C103" s="33">
         <v>44004</v>
       </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="32">
-        <v>0</v>
-      </c>
-      <c r="F103" s="15">
+      <c r="D103" s="41"/>
+      <c r="E103" s="50">
+        <v>0</v>
+      </c>
+      <c r="F103" s="27">
         <v>0</v>
       </c>
       <c r="H103" s="5"/>
@@ -7204,17 +7148,17 @@
       <c r="S103" s="7"/>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B104" s="17">
+      <c r="B104" s="15">
         <v>101</v>
       </c>
-      <c r="C104" s="44">
+      <c r="C104" s="32">
         <v>44005</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="46">
-        <v>0</v>
-      </c>
-      <c r="F104" s="27">
+      <c r="D104" s="40"/>
+      <c r="E104" s="51">
+        <v>0</v>
+      </c>
+      <c r="F104" s="26">
         <v>0</v>
       </c>
       <c r="H104" s="5"/>
@@ -7224,17 +7168,17 @@
       <c r="S104" s="7"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B105" s="18">
+      <c r="B105" s="16">
         <v>102</v>
       </c>
-      <c r="C105" s="45">
+      <c r="C105" s="33">
         <v>44006</v>
       </c>
-      <c r="D105" s="39"/>
-      <c r="E105" s="32">
-        <v>0</v>
-      </c>
-      <c r="F105" s="15">
+      <c r="D105" s="41"/>
+      <c r="E105" s="50">
+        <v>0</v>
+      </c>
+      <c r="F105" s="27">
         <v>0</v>
       </c>
       <c r="H105" s="5"/>
@@ -7244,17 +7188,17 @@
       <c r="S105" s="7"/>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B106" s="17">
+      <c r="B106" s="15">
         <v>103</v>
       </c>
-      <c r="C106" s="44">
+      <c r="C106" s="32">
         <v>44007</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="31">
-        <v>0</v>
-      </c>
-      <c r="F106" s="27">
+      <c r="D106" s="40"/>
+      <c r="E106" s="49">
+        <v>0</v>
+      </c>
+      <c r="F106" s="26">
         <v>0</v>
       </c>
       <c r="H106" s="5"/>
@@ -7264,17 +7208,17 @@
       <c r="S106" s="7"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B107" s="18">
+      <c r="B107" s="16">
         <v>104</v>
       </c>
-      <c r="C107" s="45">
+      <c r="C107" s="33">
         <v>44008</v>
       </c>
-      <c r="D107" s="39"/>
-      <c r="E107" s="32">
-        <v>0</v>
-      </c>
-      <c r="F107" s="15">
+      <c r="D107" s="41"/>
+      <c r="E107" s="50">
+        <v>0</v>
+      </c>
+      <c r="F107" s="27">
         <v>0</v>
       </c>
       <c r="H107" s="5"/>
@@ -7284,17 +7228,17 @@
       <c r="S107" s="7"/>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B108" s="17">
+      <c r="B108" s="15">
         <v>105</v>
       </c>
-      <c r="C108" s="44">
+      <c r="C108" s="32">
         <v>44009</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="31">
-        <v>0</v>
-      </c>
-      <c r="F108" s="27">
+      <c r="D108" s="40"/>
+      <c r="E108" s="49">
+        <v>0</v>
+      </c>
+      <c r="F108" s="26">
         <v>0</v>
       </c>
       <c r="H108" s="5"/>
@@ -7304,17 +7248,17 @@
       <c r="S108" s="7"/>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B109" s="18">
+      <c r="B109" s="16">
         <v>106</v>
       </c>
-      <c r="C109" s="45">
+      <c r="C109" s="33">
         <v>44010</v>
       </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="32">
-        <v>0</v>
-      </c>
-      <c r="F109" s="15">
+      <c r="D109" s="41"/>
+      <c r="E109" s="50">
+        <v>0</v>
+      </c>
+      <c r="F109" s="27">
         <v>0</v>
       </c>
       <c r="H109" s="5"/>
@@ -7324,17 +7268,17 @@
       <c r="S109" s="7"/>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B110" s="17">
+      <c r="B110" s="15">
         <v>107</v>
       </c>
-      <c r="C110" s="44">
+      <c r="C110" s="32">
         <v>44011</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="31">
-        <v>0</v>
-      </c>
-      <c r="F110" s="27">
+      <c r="D110" s="40"/>
+      <c r="E110" s="49">
+        <v>0</v>
+      </c>
+      <c r="F110" s="26">
         <v>0</v>
       </c>
       <c r="H110" s="5"/>
@@ -7344,17 +7288,17 @@
       <c r="S110" s="7"/>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B111" s="18">
+      <c r="B111" s="16">
         <v>108</v>
       </c>
-      <c r="C111" s="45">
+      <c r="C111" s="33">
         <v>44012</v>
       </c>
-      <c r="D111" s="39"/>
-      <c r="E111" s="32">
-        <v>0</v>
-      </c>
-      <c r="F111" s="15">
+      <c r="D111" s="41"/>
+      <c r="E111" s="50">
+        <v>0</v>
+      </c>
+      <c r="F111" s="27">
         <v>0</v>
       </c>
       <c r="H111" s="5"/>
@@ -7364,17 +7308,17 @@
       <c r="S111" s="7"/>
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B112" s="17">
+      <c r="B112" s="15">
         <v>109</v>
       </c>
-      <c r="C112" s="44">
+      <c r="C112" s="32">
         <v>44013</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="31">
-        <v>0</v>
-      </c>
-      <c r="F112" s="27">
+      <c r="D112" s="40"/>
+      <c r="E112" s="49">
+        <v>0</v>
+      </c>
+      <c r="F112" s="26">
         <v>0</v>
       </c>
       <c r="H112" s="5"/>
@@ -7384,17 +7328,17 @@
       <c r="S112" s="7"/>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B113" s="18">
+      <c r="B113" s="16">
         <v>110</v>
       </c>
-      <c r="C113" s="45">
+      <c r="C113" s="33">
         <v>44014</v>
       </c>
-      <c r="D113" s="39"/>
-      <c r="E113" s="32">
-        <v>0</v>
-      </c>
-      <c r="F113" s="15">
+      <c r="D113" s="41"/>
+      <c r="E113" s="50">
+        <v>0</v>
+      </c>
+      <c r="F113" s="27">
         <v>0</v>
       </c>
       <c r="H113" s="5"/>
@@ -7404,17 +7348,17 @@
       <c r="S113" s="7"/>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B114" s="17">
+      <c r="B114" s="15">
         <v>111</v>
       </c>
-      <c r="C114" s="44">
+      <c r="C114" s="32">
         <v>44015</v>
       </c>
-      <c r="D114" s="38"/>
-      <c r="E114" s="31">
-        <v>0</v>
-      </c>
-      <c r="F114" s="27">
+      <c r="D114" s="40"/>
+      <c r="E114" s="49">
+        <v>0</v>
+      </c>
+      <c r="F114" s="26">
         <v>0</v>
       </c>
       <c r="H114" s="5"/>
@@ -7424,17 +7368,17 @@
       <c r="S114" s="7"/>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B115" s="18">
+      <c r="B115" s="16">
         <v>112</v>
       </c>
-      <c r="C115" s="45">
+      <c r="C115" s="33">
         <v>44016</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="32">
-        <v>0</v>
-      </c>
-      <c r="F115" s="15">
+      <c r="D115" s="41"/>
+      <c r="E115" s="50">
+        <v>0</v>
+      </c>
+      <c r="F115" s="27">
         <v>0</v>
       </c>
       <c r="H115" s="5"/>
@@ -7444,17 +7388,17 @@
       <c r="S115" s="7"/>
     </row>
     <row r="116" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B116" s="17">
+      <c r="B116" s="15">
         <v>113</v>
       </c>
-      <c r="C116" s="44">
+      <c r="C116" s="32">
         <v>44017</v>
       </c>
-      <c r="D116" s="38"/>
-      <c r="E116" s="31">
-        <v>0</v>
-      </c>
-      <c r="F116" s="27">
+      <c r="D116" s="40"/>
+      <c r="E116" s="49">
+        <v>0</v>
+      </c>
+      <c r="F116" s="26">
         <v>0</v>
       </c>
       <c r="H116" s="5"/>
@@ -7464,17 +7408,17 @@
       <c r="S116" s="7"/>
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B117" s="18">
+      <c r="B117" s="16">
         <v>114</v>
       </c>
-      <c r="C117" s="45">
+      <c r="C117" s="33">
         <v>44018</v>
       </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="32">
-        <v>0</v>
-      </c>
-      <c r="F117" s="15">
+      <c r="D117" s="41"/>
+      <c r="E117" s="50">
+        <v>0</v>
+      </c>
+      <c r="F117" s="27">
         <v>0</v>
       </c>
       <c r="H117" s="5"/>
@@ -7484,17 +7428,17 @@
       <c r="S117" s="7"/>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B118" s="17">
+      <c r="B118" s="15">
         <v>115</v>
       </c>
-      <c r="C118" s="44">
+      <c r="C118" s="32">
         <v>44019</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="31">
-        <v>0</v>
-      </c>
-      <c r="F118" s="27">
+      <c r="D118" s="40"/>
+      <c r="E118" s="49">
+        <v>0</v>
+      </c>
+      <c r="F118" s="26">
         <v>0</v>
       </c>
       <c r="H118" s="5"/>
@@ -7504,17 +7448,17 @@
       <c r="S118" s="7"/>
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B119" s="18">
+      <c r="B119" s="16">
         <v>116</v>
       </c>
-      <c r="C119" s="45">
+      <c r="C119" s="33">
         <v>44020</v>
       </c>
-      <c r="D119" s="39"/>
-      <c r="E119" s="32">
-        <v>0</v>
-      </c>
-      <c r="F119" s="15">
+      <c r="D119" s="41"/>
+      <c r="E119" s="50">
+        <v>0</v>
+      </c>
+      <c r="F119" s="27">
         <v>0</v>
       </c>
       <c r="H119" s="5"/>
@@ -7524,17 +7468,17 @@
       <c r="S119" s="7"/>
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B120" s="17">
+      <c r="B120" s="15">
         <v>117</v>
       </c>
-      <c r="C120" s="44">
+      <c r="C120" s="32">
         <v>44021</v>
       </c>
-      <c r="D120" s="38"/>
-      <c r="E120" s="31">
-        <v>0</v>
-      </c>
-      <c r="F120" s="27">
+      <c r="D120" s="40"/>
+      <c r="E120" s="49">
+        <v>0</v>
+      </c>
+      <c r="F120" s="26">
         <v>0</v>
       </c>
       <c r="H120" s="5"/>
@@ -7544,17 +7488,17 @@
       <c r="S120" s="7"/>
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B121" s="18">
+      <c r="B121" s="16">
         <v>118</v>
       </c>
-      <c r="C121" s="45">
+      <c r="C121" s="33">
         <v>44022</v>
       </c>
-      <c r="D121" s="39"/>
-      <c r="E121" s="32">
-        <v>0</v>
-      </c>
-      <c r="F121" s="15">
+      <c r="D121" s="41"/>
+      <c r="E121" s="50">
+        <v>0</v>
+      </c>
+      <c r="F121" s="27">
         <v>0</v>
       </c>
       <c r="H121" s="5"/>
@@ -7564,17 +7508,17 @@
       <c r="S121" s="7"/>
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B122" s="17">
+      <c r="B122" s="15">
         <v>119</v>
       </c>
-      <c r="C122" s="44">
+      <c r="C122" s="32">
         <v>44023</v>
       </c>
-      <c r="D122" s="38"/>
-      <c r="E122" s="31">
-        <v>0</v>
-      </c>
-      <c r="F122" s="27">
+      <c r="D122" s="40"/>
+      <c r="E122" s="49">
+        <v>0</v>
+      </c>
+      <c r="F122" s="26">
         <v>0</v>
       </c>
       <c r="H122" s="5"/>
@@ -7584,17 +7528,17 @@
       <c r="S122" s="7"/>
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B123" s="18">
+      <c r="B123" s="16">
         <v>120</v>
       </c>
-      <c r="C123" s="45">
+      <c r="C123" s="33">
         <v>44024</v>
       </c>
-      <c r="D123" s="39"/>
-      <c r="E123" s="32">
-        <v>0</v>
-      </c>
-      <c r="F123" s="15">
+      <c r="D123" s="41"/>
+      <c r="E123" s="50">
+        <v>0</v>
+      </c>
+      <c r="F123" s="27">
         <v>0</v>
       </c>
       <c r="H123" s="5"/>
@@ -7604,17 +7548,17 @@
       <c r="S123" s="7"/>
     </row>
     <row r="124" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B124" s="17">
+      <c r="B124" s="15">
         <v>121</v>
       </c>
-      <c r="C124" s="44">
+      <c r="C124" s="32">
         <v>44025</v>
       </c>
-      <c r="D124" s="38"/>
-      <c r="E124" s="31">
-        <v>0</v>
-      </c>
-      <c r="F124" s="27">
+      <c r="D124" s="40"/>
+      <c r="E124" s="49">
+        <v>0</v>
+      </c>
+      <c r="F124" s="26">
         <v>0</v>
       </c>
       <c r="H124" s="5"/>
@@ -7624,17 +7568,17 @@
       <c r="S124" s="7"/>
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B125" s="18">
+      <c r="B125" s="16">
         <v>122</v>
       </c>
-      <c r="C125" s="45">
+      <c r="C125" s="33">
         <v>44026</v>
       </c>
-      <c r="D125" s="39"/>
-      <c r="E125" s="32">
-        <v>0</v>
-      </c>
-      <c r="F125" s="15">
+      <c r="D125" s="41"/>
+      <c r="E125" s="50">
+        <v>0</v>
+      </c>
+      <c r="F125" s="27">
         <v>0</v>
       </c>
       <c r="H125" s="5"/>
@@ -7644,17 +7588,17 @@
       <c r="S125" s="7"/>
     </row>
     <row r="126" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B126" s="17">
+      <c r="B126" s="15">
         <v>123</v>
       </c>
-      <c r="C126" s="44">
+      <c r="C126" s="32">
         <v>44027</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="31">
-        <v>0</v>
-      </c>
-      <c r="F126" s="27">
+      <c r="D126" s="40"/>
+      <c r="E126" s="49">
+        <v>0</v>
+      </c>
+      <c r="F126" s="26">
         <v>0</v>
       </c>
       <c r="H126" s="5"/>
@@ -7664,17 +7608,17 @@
       <c r="S126" s="7"/>
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B127" s="18">
+      <c r="B127" s="16">
         <v>124</v>
       </c>
-      <c r="C127" s="45">
+      <c r="C127" s="33">
         <v>44028</v>
       </c>
-      <c r="D127" s="39"/>
-      <c r="E127" s="32">
-        <v>0</v>
-      </c>
-      <c r="F127" s="15">
+      <c r="D127" s="41"/>
+      <c r="E127" s="50">
+        <v>0</v>
+      </c>
+      <c r="F127" s="27">
         <v>0</v>
       </c>
       <c r="H127" s="5"/>
@@ -7684,17 +7628,17 @@
       <c r="S127" s="7"/>
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B128" s="17">
+      <c r="B128" s="15">
         <v>125</v>
       </c>
-      <c r="C128" s="44">
+      <c r="C128" s="32">
         <v>44029</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="31">
-        <v>0</v>
-      </c>
-      <c r="F128" s="27">
+      <c r="D128" s="40"/>
+      <c r="E128" s="49">
+        <v>0</v>
+      </c>
+      <c r="F128" s="26">
         <v>0</v>
       </c>
       <c r="H128" s="5"/>
@@ -7704,17 +7648,17 @@
       <c r="S128" s="7"/>
     </row>
     <row r="129" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B129" s="18">
+      <c r="B129" s="16">
         <v>126</v>
       </c>
-      <c r="C129" s="45">
+      <c r="C129" s="33">
         <v>44030</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="32">
-        <v>0</v>
-      </c>
-      <c r="F129" s="15">
+      <c r="D129" s="41"/>
+      <c r="E129" s="50">
+        <v>0</v>
+      </c>
+      <c r="F129" s="27">
         <v>0</v>
       </c>
       <c r="H129" s="5"/>
@@ -7724,17 +7668,17 @@
       <c r="S129" s="7"/>
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B130" s="17">
+      <c r="B130" s="15">
         <v>127</v>
       </c>
-      <c r="C130" s="44">
+      <c r="C130" s="32">
         <v>44031</v>
       </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="31">
-        <v>0</v>
-      </c>
-      <c r="F130" s="27">
+      <c r="D130" s="40"/>
+      <c r="E130" s="49">
+        <v>0</v>
+      </c>
+      <c r="F130" s="26">
         <v>0</v>
       </c>
       <c r="H130" s="5"/>
@@ -7744,17 +7688,17 @@
       <c r="S130" s="7"/>
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B131" s="18">
+      <c r="B131" s="16">
         <v>128</v>
       </c>
-      <c r="C131" s="45">
+      <c r="C131" s="33">
         <v>44032</v>
       </c>
-      <c r="D131" s="39"/>
-      <c r="E131" s="32">
-        <v>0</v>
-      </c>
-      <c r="F131" s="15">
+      <c r="D131" s="41"/>
+      <c r="E131" s="50">
+        <v>0</v>
+      </c>
+      <c r="F131" s="27">
         <v>0</v>
       </c>
       <c r="H131" s="5"/>
@@ -7764,17 +7708,17 @@
       <c r="S131" s="7"/>
     </row>
     <row r="132" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B132" s="17">
+      <c r="B132" s="15">
         <v>129</v>
       </c>
-      <c r="C132" s="44">
+      <c r="C132" s="32">
         <v>44033</v>
       </c>
-      <c r="D132" s="38"/>
-      <c r="E132" s="31">
-        <v>0</v>
-      </c>
-      <c r="F132" s="27">
+      <c r="D132" s="40"/>
+      <c r="E132" s="49">
+        <v>0</v>
+      </c>
+      <c r="F132" s="26">
         <v>0</v>
       </c>
       <c r="H132" s="5"/>
@@ -7784,17 +7728,17 @@
       <c r="S132" s="7"/>
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B133" s="18">
+      <c r="B133" s="16">
         <v>130</v>
       </c>
-      <c r="C133" s="45">
+      <c r="C133" s="33">
         <v>44034</v>
       </c>
-      <c r="D133" s="39"/>
-      <c r="E133" s="32">
-        <v>0</v>
-      </c>
-      <c r="F133" s="15">
+      <c r="D133" s="41"/>
+      <c r="E133" s="50">
+        <v>0</v>
+      </c>
+      <c r="F133" s="27">
         <v>0</v>
       </c>
       <c r="H133" s="5"/>
@@ -7804,17 +7748,17 @@
       <c r="S133" s="7"/>
     </row>
     <row r="134" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B134" s="17">
+      <c r="B134" s="15">
         <v>131</v>
       </c>
-      <c r="C134" s="44">
+      <c r="C134" s="32">
         <v>44035</v>
       </c>
-      <c r="D134" s="38"/>
-      <c r="E134" s="31">
-        <v>0</v>
-      </c>
-      <c r="F134" s="27">
+      <c r="D134" s="40"/>
+      <c r="E134" s="49">
+        <v>0</v>
+      </c>
+      <c r="F134" s="26">
         <v>0</v>
       </c>
       <c r="H134" s="5"/>
@@ -7824,17 +7768,17 @@
       <c r="S134" s="7"/>
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B135" s="18">
+      <c r="B135" s="16">
         <v>132</v>
       </c>
-      <c r="C135" s="45">
+      <c r="C135" s="33">
         <v>44036</v>
       </c>
-      <c r="D135" s="39"/>
-      <c r="E135" s="32">
-        <v>0</v>
-      </c>
-      <c r="F135" s="15">
+      <c r="D135" s="41"/>
+      <c r="E135" s="50">
+        <v>0</v>
+      </c>
+      <c r="F135" s="27">
         <v>0</v>
       </c>
       <c r="H135" s="5"/>
@@ -7844,17 +7788,17 @@
       <c r="S135" s="7"/>
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B136" s="17">
+      <c r="B136" s="15">
         <v>133</v>
       </c>
-      <c r="C136" s="44">
+      <c r="C136" s="32">
         <v>44037</v>
       </c>
-      <c r="D136" s="38"/>
-      <c r="E136" s="31">
-        <v>0</v>
-      </c>
-      <c r="F136" s="27">
+      <c r="D136" s="40"/>
+      <c r="E136" s="49">
+        <v>0</v>
+      </c>
+      <c r="F136" s="26">
         <v>0</v>
       </c>
       <c r="H136" s="5"/>
@@ -7864,17 +7808,17 @@
       <c r="S136" s="7"/>
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B137" s="18">
+      <c r="B137" s="16">
         <v>134</v>
       </c>
-      <c r="C137" s="45">
+      <c r="C137" s="33">
         <v>44038</v>
       </c>
-      <c r="D137" s="39"/>
-      <c r="E137" s="32">
-        <v>0</v>
-      </c>
-      <c r="F137" s="15">
+      <c r="D137" s="41"/>
+      <c r="E137" s="50">
+        <v>0</v>
+      </c>
+      <c r="F137" s="27">
         <v>0</v>
       </c>
       <c r="H137" s="5"/>
@@ -7884,17 +7828,17 @@
       <c r="S137" s="7"/>
     </row>
     <row r="138" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B138" s="17">
+      <c r="B138" s="15">
         <v>135</v>
       </c>
-      <c r="C138" s="44">
+      <c r="C138" s="32">
         <v>44039</v>
       </c>
-      <c r="D138" s="38"/>
-      <c r="E138" s="31">
-        <v>0</v>
-      </c>
-      <c r="F138" s="27">
+      <c r="D138" s="40"/>
+      <c r="E138" s="49">
+        <v>0</v>
+      </c>
+      <c r="F138" s="26">
         <v>0</v>
       </c>
       <c r="H138" s="5"/>
@@ -7904,17 +7848,17 @@
       <c r="S138" s="7"/>
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B139" s="18">
+      <c r="B139" s="16">
         <v>136</v>
       </c>
-      <c r="C139" s="45">
+      <c r="C139" s="33">
         <v>44040</v>
       </c>
-      <c r="D139" s="39"/>
-      <c r="E139" s="32">
-        <v>0</v>
-      </c>
-      <c r="F139" s="15">
+      <c r="D139" s="41"/>
+      <c r="E139" s="50">
+        <v>0</v>
+      </c>
+      <c r="F139" s="27">
         <v>0</v>
       </c>
       <c r="H139" s="5"/>
@@ -7924,17 +7868,17 @@
       <c r="S139" s="7"/>
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B140" s="17">
+      <c r="B140" s="15">
         <v>137</v>
       </c>
-      <c r="C140" s="44">
+      <c r="C140" s="32">
         <v>44041</v>
       </c>
-      <c r="D140" s="38"/>
-      <c r="E140" s="31">
-        <v>0</v>
-      </c>
-      <c r="F140" s="27">
+      <c r="D140" s="40"/>
+      <c r="E140" s="49">
+        <v>0</v>
+      </c>
+      <c r="F140" s="26">
         <v>0</v>
       </c>
       <c r="H140" s="5"/>
@@ -7944,17 +7888,17 @@
       <c r="S140" s="7"/>
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B141" s="18">
+      <c r="B141" s="16">
         <v>138</v>
       </c>
-      <c r="C141" s="45">
+      <c r="C141" s="33">
         <v>44042</v>
       </c>
-      <c r="D141" s="39"/>
-      <c r="E141" s="32">
-        <v>0</v>
-      </c>
-      <c r="F141" s="15">
+      <c r="D141" s="41"/>
+      <c r="E141" s="50">
+        <v>0</v>
+      </c>
+      <c r="F141" s="27">
         <v>0</v>
       </c>
       <c r="H141" s="5"/>
@@ -7964,17 +7908,17 @@
       <c r="S141" s="7"/>
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B142" s="17">
+      <c r="B142" s="15">
         <v>139</v>
       </c>
-      <c r="C142" s="44">
+      <c r="C142" s="32">
         <v>44043</v>
       </c>
-      <c r="D142" s="38"/>
-      <c r="E142" s="31">
-        <v>0</v>
-      </c>
-      <c r="F142" s="27">
+      <c r="D142" s="40"/>
+      <c r="E142" s="49">
+        <v>0</v>
+      </c>
+      <c r="F142" s="26">
         <v>0</v>
       </c>
       <c r="H142" s="5"/>
@@ -7984,17 +7928,17 @@
       <c r="S142" s="7"/>
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B143" s="18">
+      <c r="B143" s="16">
         <v>140</v>
       </c>
-      <c r="C143" s="45">
+      <c r="C143" s="33">
         <v>44044</v>
       </c>
-      <c r="D143" s="39"/>
-      <c r="E143" s="32">
-        <v>0</v>
-      </c>
-      <c r="F143" s="15">
+      <c r="D143" s="41"/>
+      <c r="E143" s="50">
+        <v>0</v>
+      </c>
+      <c r="F143" s="27">
         <v>0</v>
       </c>
       <c r="H143" s="5"/>
@@ -8004,17 +7948,17 @@
       <c r="S143" s="7"/>
     </row>
     <row r="144" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B144" s="17">
+      <c r="B144" s="15">
         <v>141</v>
       </c>
-      <c r="C144" s="44">
+      <c r="C144" s="32">
         <v>44045</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="31">
-        <v>0</v>
-      </c>
-      <c r="F144" s="27">
+      <c r="D144" s="40"/>
+      <c r="E144" s="49">
+        <v>0</v>
+      </c>
+      <c r="F144" s="26">
         <v>0</v>
       </c>
       <c r="H144" s="5"/>
@@ -8024,17 +7968,17 @@
       <c r="S144" s="7"/>
     </row>
     <row r="145" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B145" s="18">
+      <c r="B145" s="16">
         <v>142</v>
       </c>
-      <c r="C145" s="45">
+      <c r="C145" s="33">
         <v>44046</v>
       </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="32">
-        <v>0</v>
-      </c>
-      <c r="F145" s="15">
+      <c r="D145" s="41"/>
+      <c r="E145" s="50">
+        <v>0</v>
+      </c>
+      <c r="F145" s="27">
         <v>0</v>
       </c>
       <c r="H145" s="5"/>
@@ -8044,17 +7988,17 @@
       <c r="S145" s="7"/>
     </row>
     <row r="146" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B146" s="17">
+      <c r="B146" s="15">
         <v>143</v>
       </c>
-      <c r="C146" s="44">
+      <c r="C146" s="32">
         <v>44047</v>
       </c>
-      <c r="D146" s="38"/>
-      <c r="E146" s="31">
-        <v>0</v>
-      </c>
-      <c r="F146" s="27">
+      <c r="D146" s="40"/>
+      <c r="E146" s="49">
+        <v>0</v>
+      </c>
+      <c r="F146" s="26">
         <v>0</v>
       </c>
       <c r="H146" s="5"/>
@@ -8064,17 +8008,17 @@
       <c r="S146" s="7"/>
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B147" s="18">
+      <c r="B147" s="16">
         <v>144</v>
       </c>
-      <c r="C147" s="45">
+      <c r="C147" s="33">
         <v>44048</v>
       </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="32">
-        <v>0</v>
-      </c>
-      <c r="F147" s="15">
+      <c r="D147" s="41"/>
+      <c r="E147" s="50">
+        <v>0</v>
+      </c>
+      <c r="F147" s="27">
         <v>0</v>
       </c>
       <c r="H147" s="5"/>
@@ -8084,17 +8028,17 @@
       <c r="S147" s="7"/>
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B148" s="17">
+      <c r="B148" s="15">
         <v>145</v>
       </c>
-      <c r="C148" s="44">
+      <c r="C148" s="32">
         <v>44049</v>
       </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="31">
-        <v>0</v>
-      </c>
-      <c r="F148" s="27">
+      <c r="D148" s="40"/>
+      <c r="E148" s="49">
+        <v>0</v>
+      </c>
+      <c r="F148" s="26">
         <v>0</v>
       </c>
       <c r="H148" s="5"/>
@@ -8104,17 +8048,17 @@
       <c r="S148" s="7"/>
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B149" s="18">
+      <c r="B149" s="16">
         <v>146</v>
       </c>
-      <c r="C149" s="45">
+      <c r="C149" s="33">
         <v>44050</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="32">
-        <v>0</v>
-      </c>
-      <c r="F149" s="15">
+      <c r="D149" s="41"/>
+      <c r="E149" s="50">
+        <v>0</v>
+      </c>
+      <c r="F149" s="27">
         <v>0</v>
       </c>
       <c r="H149" s="5"/>
@@ -8124,17 +8068,17 @@
       <c r="S149" s="7"/>
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B150" s="17">
+      <c r="B150" s="15">
         <v>147</v>
       </c>
-      <c r="C150" s="44">
+      <c r="C150" s="32">
         <v>44051</v>
       </c>
-      <c r="D150" s="38"/>
-      <c r="E150" s="31">
-        <v>0</v>
-      </c>
-      <c r="F150" s="27">
+      <c r="D150" s="40"/>
+      <c r="E150" s="49">
+        <v>0</v>
+      </c>
+      <c r="F150" s="26">
         <v>0</v>
       </c>
       <c r="H150" s="5"/>
@@ -8144,17 +8088,17 @@
       <c r="S150" s="7"/>
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B151" s="18">
+      <c r="B151" s="16">
         <v>148</v>
       </c>
-      <c r="C151" s="45">
+      <c r="C151" s="33">
         <v>44052</v>
       </c>
-      <c r="D151" s="39"/>
-      <c r="E151" s="32">
-        <v>0</v>
-      </c>
-      <c r="F151" s="15">
+      <c r="D151" s="41"/>
+      <c r="E151" s="50">
+        <v>0</v>
+      </c>
+      <c r="F151" s="27">
         <v>0</v>
       </c>
       <c r="H151" s="5"/>
@@ -8164,17 +8108,17 @@
       <c r="S151" s="7"/>
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B152" s="17">
+      <c r="B152" s="15">
         <v>149</v>
       </c>
-      <c r="C152" s="44">
+      <c r="C152" s="32">
         <v>44053</v>
       </c>
-      <c r="D152" s="38"/>
-      <c r="E152" s="31">
-        <v>0</v>
-      </c>
-      <c r="F152" s="27">
+      <c r="D152" s="40"/>
+      <c r="E152" s="49">
+        <v>0</v>
+      </c>
+      <c r="F152" s="26">
         <v>0</v>
       </c>
       <c r="H152" s="5"/>
@@ -8184,17 +8128,17 @@
       <c r="S152" s="7"/>
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B153" s="18">
+      <c r="B153" s="16">
         <v>150</v>
       </c>
-      <c r="C153" s="45">
+      <c r="C153" s="33">
         <v>44054</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="32">
-        <v>0</v>
-      </c>
-      <c r="F153" s="15">
+      <c r="D153" s="41"/>
+      <c r="E153" s="50">
+        <v>0</v>
+      </c>
+      <c r="F153" s="27">
         <v>0</v>
       </c>
       <c r="H153" s="5"/>
@@ -8204,17 +8148,17 @@
       <c r="S153" s="7"/>
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B154" s="17">
+      <c r="B154" s="15">
         <v>151</v>
       </c>
-      <c r="C154" s="44">
+      <c r="C154" s="32">
         <v>44055</v>
       </c>
-      <c r="D154" s="38"/>
-      <c r="E154" s="31">
-        <v>0</v>
-      </c>
-      <c r="F154" s="27">
+      <c r="D154" s="40"/>
+      <c r="E154" s="49">
+        <v>0</v>
+      </c>
+      <c r="F154" s="26">
         <v>0</v>
       </c>
       <c r="H154" s="5"/>
@@ -8224,17 +8168,17 @@
       <c r="S154" s="7"/>
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B155" s="18">
+      <c r="B155" s="16">
         <v>152</v>
       </c>
-      <c r="C155" s="45">
+      <c r="C155" s="33">
         <v>44056</v>
       </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="32">
-        <v>0</v>
-      </c>
-      <c r="F155" s="15">
+      <c r="D155" s="41"/>
+      <c r="E155" s="50">
+        <v>0</v>
+      </c>
+      <c r="F155" s="27">
         <v>0</v>
       </c>
       <c r="H155" s="5"/>
@@ -8244,17 +8188,17 @@
       <c r="S155" s="7"/>
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B156" s="17">
+      <c r="B156" s="15">
         <v>153</v>
       </c>
-      <c r="C156" s="44">
+      <c r="C156" s="32">
         <v>44057</v>
       </c>
-      <c r="D156" s="38"/>
-      <c r="E156" s="31">
-        <v>0</v>
-      </c>
-      <c r="F156" s="27">
+      <c r="D156" s="40"/>
+      <c r="E156" s="49">
+        <v>0</v>
+      </c>
+      <c r="F156" s="26">
         <v>0</v>
       </c>
       <c r="H156" s="5"/>
@@ -8264,17 +8208,17 @@
       <c r="S156" s="7"/>
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B157" s="18">
+      <c r="B157" s="16">
         <v>154</v>
       </c>
-      <c r="C157" s="45">
+      <c r="C157" s="33">
         <v>44058</v>
       </c>
-      <c r="D157" s="39"/>
-      <c r="E157" s="32">
-        <v>0</v>
-      </c>
-      <c r="F157" s="15">
+      <c r="D157" s="41"/>
+      <c r="E157" s="50">
+        <v>0</v>
+      </c>
+      <c r="F157" s="27">
         <v>0</v>
       </c>
       <c r="H157" s="5"/>
@@ -8284,17 +8228,17 @@
       <c r="S157" s="7"/>
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B158" s="17">
+      <c r="B158" s="15">
         <v>155</v>
       </c>
-      <c r="C158" s="44">
+      <c r="C158" s="32">
         <v>44059</v>
       </c>
-      <c r="D158" s="38"/>
-      <c r="E158" s="31">
-        <v>0</v>
-      </c>
-      <c r="F158" s="27">
+      <c r="D158" s="40"/>
+      <c r="E158" s="49">
+        <v>0</v>
+      </c>
+      <c r="F158" s="26">
         <v>0</v>
       </c>
       <c r="H158" s="5"/>
@@ -8304,17 +8248,17 @@
       <c r="S158" s="7"/>
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B159" s="18">
+      <c r="B159" s="16">
         <v>156</v>
       </c>
-      <c r="C159" s="45">
+      <c r="C159" s="33">
         <v>44060</v>
       </c>
-      <c r="D159" s="39"/>
-      <c r="E159" s="32">
-        <v>0</v>
-      </c>
-      <c r="F159" s="15">
+      <c r="D159" s="41"/>
+      <c r="E159" s="50">
+        <v>0</v>
+      </c>
+      <c r="F159" s="27">
         <v>0</v>
       </c>
       <c r="H159" s="5"/>
@@ -8324,17 +8268,17 @@
       <c r="S159" s="7"/>
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B160" s="17">
+      <c r="B160" s="15">
         <v>157</v>
       </c>
-      <c r="C160" s="44">
+      <c r="C160" s="32">
         <v>44061</v>
       </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="31">
-        <v>0</v>
-      </c>
-      <c r="F160" s="27">
+      <c r="D160" s="40"/>
+      <c r="E160" s="49">
+        <v>0</v>
+      </c>
+      <c r="F160" s="26">
         <v>0</v>
       </c>
       <c r="H160" s="5"/>
@@ -8344,17 +8288,17 @@
       <c r="S160" s="7"/>
     </row>
     <row r="161" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B161" s="18">
+      <c r="B161" s="16">
         <v>158</v>
       </c>
-      <c r="C161" s="45">
+      <c r="C161" s="33">
         <v>44062</v>
       </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="32">
-        <v>0</v>
-      </c>
-      <c r="F161" s="15">
+      <c r="D161" s="41"/>
+      <c r="E161" s="50">
+        <v>0</v>
+      </c>
+      <c r="F161" s="27">
         <v>0</v>
       </c>
       <c r="H161" s="5"/>
@@ -8364,17 +8308,17 @@
       <c r="S161" s="7"/>
     </row>
     <row r="162" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B162" s="17">
+      <c r="B162" s="15">
         <v>159</v>
       </c>
-      <c r="C162" s="44">
+      <c r="C162" s="32">
         <v>44063</v>
       </c>
-      <c r="D162" s="38"/>
-      <c r="E162" s="31">
-        <v>0</v>
-      </c>
-      <c r="F162" s="27">
+      <c r="D162" s="40"/>
+      <c r="E162" s="49">
+        <v>0</v>
+      </c>
+      <c r="F162" s="26">
         <v>0</v>
       </c>
       <c r="H162" s="5"/>
@@ -8384,17 +8328,17 @@
       <c r="S162" s="7"/>
     </row>
     <row r="163" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B163" s="18">
+      <c r="B163" s="16">
         <v>160</v>
       </c>
-      <c r="C163" s="45">
+      <c r="C163" s="33">
         <v>44064</v>
       </c>
-      <c r="D163" s="39"/>
-      <c r="E163" s="32">
-        <v>0</v>
-      </c>
-      <c r="F163" s="15">
+      <c r="D163" s="41"/>
+      <c r="E163" s="50">
+        <v>0</v>
+      </c>
+      <c r="F163" s="27">
         <v>0</v>
       </c>
       <c r="H163" s="5"/>
@@ -8404,17 +8348,17 @@
       <c r="S163" s="7"/>
     </row>
     <row r="164" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B164" s="17">
+      <c r="B164" s="15">
         <v>161</v>
       </c>
-      <c r="C164" s="44">
+      <c r="C164" s="32">
         <v>44065</v>
       </c>
-      <c r="D164" s="38"/>
-      <c r="E164" s="31">
-        <v>0</v>
-      </c>
-      <c r="F164" s="27">
+      <c r="D164" s="40"/>
+      <c r="E164" s="49">
+        <v>0</v>
+      </c>
+      <c r="F164" s="26">
         <v>0</v>
       </c>
       <c r="H164" s="5"/>
@@ -8424,17 +8368,17 @@
       <c r="S164" s="7"/>
     </row>
     <row r="165" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B165" s="18">
+      <c r="B165" s="16">
         <v>162</v>
       </c>
-      <c r="C165" s="45">
+      <c r="C165" s="33">
         <v>44066</v>
       </c>
-      <c r="D165" s="39"/>
-      <c r="E165" s="32">
-        <v>0</v>
-      </c>
-      <c r="F165" s="15">
+      <c r="D165" s="41"/>
+      <c r="E165" s="50">
+        <v>0</v>
+      </c>
+      <c r="F165" s="27">
         <v>0</v>
       </c>
       <c r="H165" s="5"/>
@@ -8444,17 +8388,17 @@
       <c r="S165" s="7"/>
     </row>
     <row r="166" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B166" s="17">
+      <c r="B166" s="15">
         <v>163</v>
       </c>
-      <c r="C166" s="44">
+      <c r="C166" s="32">
         <v>44067</v>
       </c>
-      <c r="D166" s="38"/>
-      <c r="E166" s="31">
-        <v>0</v>
-      </c>
-      <c r="F166" s="27">
+      <c r="D166" s="40"/>
+      <c r="E166" s="49">
+        <v>0</v>
+      </c>
+      <c r="F166" s="26">
         <v>0</v>
       </c>
       <c r="H166" s="5"/>
@@ -8464,17 +8408,17 @@
       <c r="S166" s="7"/>
     </row>
     <row r="167" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B167" s="18">
+      <c r="B167" s="16">
         <v>164</v>
       </c>
-      <c r="C167" s="45">
+      <c r="C167" s="33">
         <v>44068</v>
       </c>
-      <c r="D167" s="39"/>
-      <c r="E167" s="32">
-        <v>0</v>
-      </c>
-      <c r="F167" s="15">
+      <c r="D167" s="41"/>
+      <c r="E167" s="50">
+        <v>0</v>
+      </c>
+      <c r="F167" s="27">
         <v>0</v>
       </c>
       <c r="H167" s="5"/>
@@ -8484,17 +8428,17 @@
       <c r="S167" s="7"/>
     </row>
     <row r="168" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B168" s="17">
+      <c r="B168" s="15">
         <v>165</v>
       </c>
-      <c r="C168" s="44">
+      <c r="C168" s="32">
         <v>44069</v>
       </c>
-      <c r="D168" s="38"/>
-      <c r="E168" s="31">
-        <v>0</v>
-      </c>
-      <c r="F168" s="27">
+      <c r="D168" s="40"/>
+      <c r="E168" s="49">
+        <v>0</v>
+      </c>
+      <c r="F168" s="26">
         <v>0</v>
       </c>
       <c r="H168" s="5"/>
@@ -8504,17 +8448,17 @@
       <c r="S168" s="7"/>
     </row>
     <row r="169" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B169" s="18">
+      <c r="B169" s="16">
         <v>166</v>
       </c>
-      <c r="C169" s="45">
+      <c r="C169" s="33">
         <v>44070</v>
       </c>
-      <c r="D169" s="39"/>
-      <c r="E169" s="32">
-        <v>0</v>
-      </c>
-      <c r="F169" s="15">
+      <c r="D169" s="41"/>
+      <c r="E169" s="50">
+        <v>0</v>
+      </c>
+      <c r="F169" s="27">
         <v>0</v>
       </c>
       <c r="H169" s="5"/>
@@ -8524,17 +8468,17 @@
       <c r="S169" s="7"/>
     </row>
     <row r="170" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B170" s="17">
+      <c r="B170" s="15">
         <v>167</v>
       </c>
-      <c r="C170" s="44">
+      <c r="C170" s="32">
         <v>44071</v>
       </c>
-      <c r="D170" s="38"/>
-      <c r="E170" s="31">
-        <v>0</v>
-      </c>
-      <c r="F170" s="27">
+      <c r="D170" s="40"/>
+      <c r="E170" s="49">
+        <v>0</v>
+      </c>
+      <c r="F170" s="26">
         <v>0</v>
       </c>
       <c r="H170" s="5"/>
@@ -8544,17 +8488,17 @@
       <c r="S170" s="7"/>
     </row>
     <row r="171" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B171" s="18">
+      <c r="B171" s="16">
         <v>168</v>
       </c>
-      <c r="C171" s="45">
+      <c r="C171" s="33">
         <v>44072</v>
       </c>
-      <c r="D171" s="39"/>
-      <c r="E171" s="32">
-        <v>0</v>
-      </c>
-      <c r="F171" s="15">
+      <c r="D171" s="41"/>
+      <c r="E171" s="50">
+        <v>0</v>
+      </c>
+      <c r="F171" s="27">
         <v>0</v>
       </c>
       <c r="H171" s="5"/>
@@ -8564,17 +8508,17 @@
       <c r="S171" s="7"/>
     </row>
     <row r="172" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B172" s="17">
+      <c r="B172" s="15">
         <v>169</v>
       </c>
-      <c r="C172" s="44">
+      <c r="C172" s="32">
         <v>44073</v>
       </c>
-      <c r="D172" s="38"/>
-      <c r="E172" s="31">
-        <v>0</v>
-      </c>
-      <c r="F172" s="27">
+      <c r="D172" s="40"/>
+      <c r="E172" s="49">
+        <v>0</v>
+      </c>
+      <c r="F172" s="26">
         <v>0</v>
       </c>
       <c r="H172" s="5"/>
@@ -8584,17 +8528,17 @@
       <c r="S172" s="7"/>
     </row>
     <row r="173" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B173" s="18">
+      <c r="B173" s="16">
         <v>170</v>
       </c>
-      <c r="C173" s="45">
+      <c r="C173" s="33">
         <v>44074</v>
       </c>
-      <c r="D173" s="39"/>
-      <c r="E173" s="32">
-        <v>0</v>
-      </c>
-      <c r="F173" s="15">
+      <c r="D173" s="41"/>
+      <c r="E173" s="50">
+        <v>0</v>
+      </c>
+      <c r="F173" s="27">
         <v>0</v>
       </c>
       <c r="H173" s="5"/>
@@ -8604,17 +8548,17 @@
       <c r="S173" s="7"/>
     </row>
     <row r="174" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B174" s="17">
+      <c r="B174" s="15">
         <v>171</v>
       </c>
-      <c r="C174" s="44">
+      <c r="C174" s="32">
         <v>44075</v>
       </c>
-      <c r="D174" s="38"/>
-      <c r="E174" s="31">
-        <v>0</v>
-      </c>
-      <c r="F174" s="27">
+      <c r="D174" s="40"/>
+      <c r="E174" s="49">
+        <v>0</v>
+      </c>
+      <c r="F174" s="26">
         <v>0</v>
       </c>
       <c r="H174" s="5"/>
@@ -8624,17 +8568,17 @@
       <c r="S174" s="7"/>
     </row>
     <row r="175" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B175" s="18">
+      <c r="B175" s="16">
         <v>172</v>
       </c>
-      <c r="C175" s="45">
+      <c r="C175" s="33">
         <v>44076</v>
       </c>
-      <c r="D175" s="39"/>
-      <c r="E175" s="32">
-        <v>0</v>
-      </c>
-      <c r="F175" s="15">
+      <c r="D175" s="41"/>
+      <c r="E175" s="50">
+        <v>0</v>
+      </c>
+      <c r="F175" s="27">
         <v>0</v>
       </c>
       <c r="H175" s="5"/>
@@ -8644,17 +8588,17 @@
       <c r="S175" s="7"/>
     </row>
     <row r="176" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B176" s="17">
+      <c r="B176" s="15">
         <v>173</v>
       </c>
-      <c r="C176" s="44">
+      <c r="C176" s="32">
         <v>44077</v>
       </c>
-      <c r="D176" s="38"/>
-      <c r="E176" s="31">
-        <v>0</v>
-      </c>
-      <c r="F176" s="27">
+      <c r="D176" s="40"/>
+      <c r="E176" s="49">
+        <v>0</v>
+      </c>
+      <c r="F176" s="26">
         <v>0</v>
       </c>
       <c r="H176" s="5"/>
@@ -8664,17 +8608,17 @@
       <c r="S176" s="7"/>
     </row>
     <row r="177" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B177" s="18">
+      <c r="B177" s="16">
         <v>174</v>
       </c>
-      <c r="C177" s="45">
+      <c r="C177" s="33">
         <v>44078</v>
       </c>
-      <c r="D177" s="39"/>
-      <c r="E177" s="32">
-        <v>0</v>
-      </c>
-      <c r="F177" s="15">
+      <c r="D177" s="41"/>
+      <c r="E177" s="50">
+        <v>0</v>
+      </c>
+      <c r="F177" s="27">
         <v>0</v>
       </c>
       <c r="H177" s="5"/>
@@ -8684,17 +8628,17 @@
       <c r="S177" s="7"/>
     </row>
     <row r="178" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B178" s="17">
+      <c r="B178" s="15">
         <v>175</v>
       </c>
-      <c r="C178" s="44">
+      <c r="C178" s="32">
         <v>44079</v>
       </c>
-      <c r="D178" s="38"/>
-      <c r="E178" s="31">
-        <v>0</v>
-      </c>
-      <c r="F178" s="27">
+      <c r="D178" s="40"/>
+      <c r="E178" s="49">
+        <v>0</v>
+      </c>
+      <c r="F178" s="26">
         <v>0</v>
       </c>
       <c r="H178" s="5"/>
@@ -8704,17 +8648,17 @@
       <c r="S178" s="7"/>
     </row>
     <row r="179" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B179" s="18">
+      <c r="B179" s="16">
         <v>176</v>
       </c>
-      <c r="C179" s="45">
+      <c r="C179" s="33">
         <v>44080</v>
       </c>
-      <c r="D179" s="39"/>
-      <c r="E179" s="32">
-        <v>0</v>
-      </c>
-      <c r="F179" s="15">
+      <c r="D179" s="41"/>
+      <c r="E179" s="50">
+        <v>0</v>
+      </c>
+      <c r="F179" s="27">
         <v>0</v>
       </c>
       <c r="H179" s="5"/>
@@ -8724,17 +8668,17 @@
       <c r="S179" s="7"/>
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B180" s="17">
+      <c r="B180" s="15">
         <v>177</v>
       </c>
-      <c r="C180" s="44">
+      <c r="C180" s="32">
         <v>44081</v>
       </c>
-      <c r="D180" s="38"/>
-      <c r="E180" s="31">
-        <v>0</v>
-      </c>
-      <c r="F180" s="27">
+      <c r="D180" s="40"/>
+      <c r="E180" s="49">
+        <v>0</v>
+      </c>
+      <c r="F180" s="26">
         <v>0</v>
       </c>
       <c r="H180" s="5"/>
@@ -8744,17 +8688,17 @@
       <c r="S180" s="7"/>
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B181" s="18">
+      <c r="B181" s="16">
         <v>178</v>
       </c>
-      <c r="C181" s="45">
+      <c r="C181" s="33">
         <v>44082</v>
       </c>
-      <c r="D181" s="39"/>
-      <c r="E181" s="32">
-        <v>0</v>
-      </c>
-      <c r="F181" s="15">
+      <c r="D181" s="41"/>
+      <c r="E181" s="50">
+        <v>0</v>
+      </c>
+      <c r="F181" s="27">
         <v>0</v>
       </c>
       <c r="H181" s="5"/>
@@ -8764,17 +8708,17 @@
       <c r="S181" s="7"/>
     </row>
     <row r="182" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B182" s="17">
+      <c r="B182" s="15">
         <v>179</v>
       </c>
-      <c r="C182" s="44">
+      <c r="C182" s="32">
         <v>44083</v>
       </c>
-      <c r="D182" s="38"/>
-      <c r="E182" s="31">
-        <v>0</v>
-      </c>
-      <c r="F182" s="27">
+      <c r="D182" s="40"/>
+      <c r="E182" s="49">
+        <v>0</v>
+      </c>
+      <c r="F182" s="26">
         <v>0</v>
       </c>
       <c r="H182" s="5"/>
@@ -8784,17 +8728,17 @@
       <c r="S182" s="7"/>
     </row>
     <row r="183" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B183" s="18">
+      <c r="B183" s="16">
         <v>180</v>
       </c>
-      <c r="C183" s="45">
+      <c r="C183" s="33">
         <v>44084</v>
       </c>
-      <c r="D183" s="39"/>
-      <c r="E183" s="32">
-        <v>0</v>
-      </c>
-      <c r="F183" s="15">
+      <c r="D183" s="41"/>
+      <c r="E183" s="50">
+        <v>0</v>
+      </c>
+      <c r="F183" s="27">
         <v>0</v>
       </c>
       <c r="H183" s="5"/>
@@ -8804,14 +8748,14 @@
       <c r="S183" s="7"/>
     </row>
     <row r="184" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="19">
+      <c r="B184" s="17">
         <v>181</v>
       </c>
-      <c r="C184" s="48">
+      <c r="C184" s="34">
         <v>44085</v>
       </c>
-      <c r="D184" s="40"/>
-      <c r="E184" s="33">
+      <c r="D184" s="42"/>
+      <c r="E184" s="52">
         <v>0</v>
       </c>
       <c r="F184" s="28">
@@ -8824,10 +8768,7 @@
       <c r="S184" s="7"/>
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B185" s="20"/>
-      <c r="F185" s="7">
-        <v>0</v>
-      </c>
+      <c r="B185" s="18"/>
       <c r="G185" s="4"/>
       <c r="H185" s="5"/>
       <c r="P185" s="10"/>
@@ -8836,10 +8777,7 @@
       <c r="S185" s="7"/>
     </row>
     <row r="186" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B186" s="20"/>
-      <c r="F186" s="7">
-        <v>0</v>
-      </c>
+      <c r="B186" s="18"/>
       <c r="G186" s="4"/>
       <c r="H186" s="5"/>
       <c r="P186" s="10"/>
@@ -8848,10 +8786,7 @@
       <c r="S186" s="7"/>
     </row>
     <row r="187" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B187" s="20"/>
-      <c r="F187" s="7">
-        <v>0</v>
-      </c>
+      <c r="B187" s="18"/>
       <c r="G187" s="4"/>
       <c r="H187" s="5"/>
       <c r="P187" s="10"/>
@@ -8860,10 +8795,7 @@
       <c r="S187" s="7"/>
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B188" s="20"/>
-      <c r="F188" s="7">
-        <v>0</v>
-      </c>
+      <c r="B188" s="18"/>
       <c r="G188" s="4"/>
       <c r="H188" s="5"/>
       <c r="P188" s="10"/>
@@ -8872,10 +8804,7 @@
       <c r="S188" s="7"/>
     </row>
     <row r="189" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B189" s="20"/>
-      <c r="F189" s="7">
-        <v>0</v>
-      </c>
+      <c r="B189" s="18"/>
       <c r="G189" s="4"/>
       <c r="H189" s="5"/>
       <c r="P189" s="10"/>
@@ -8884,10 +8813,7 @@
       <c r="S189" s="7"/>
     </row>
     <row r="190" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B190" s="20"/>
-      <c r="F190" s="7">
-        <v>0</v>
-      </c>
+      <c r="B190" s="18"/>
       <c r="G190" s="4"/>
       <c r="H190" s="5"/>
       <c r="P190" s="10"/>
@@ -8896,10 +8822,7 @@
       <c r="S190" s="7"/>
     </row>
     <row r="191" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B191" s="20"/>
-      <c r="F191" s="7">
-        <v>0</v>
-      </c>
+      <c r="B191" s="18"/>
       <c r="G191" s="4"/>
       <c r="H191" s="5"/>
       <c r="P191" s="10"/>
@@ -8908,10 +8831,7 @@
       <c r="S191" s="7"/>
     </row>
     <row r="192" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B192" s="20"/>
-      <c r="F192" s="7">
-        <v>0</v>
-      </c>
+      <c r="B192" s="18"/>
       <c r="G192" s="4"/>
       <c r="H192" s="5"/>
       <c r="P192" s="10"/>
@@ -8920,10 +8840,7 @@
       <c r="S192" s="7"/>
     </row>
     <row r="193" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B193" s="20"/>
-      <c r="F193" s="7">
-        <v>0</v>
-      </c>
+      <c r="B193" s="18"/>
       <c r="G193" s="4"/>
       <c r="H193" s="5"/>
       <c r="P193" s="10"/>
@@ -8932,10 +8849,7 @@
       <c r="S193" s="7"/>
     </row>
     <row r="194" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B194" s="20"/>
-      <c r="F194" s="7">
-        <v>0</v>
-      </c>
+      <c r="B194" s="18"/>
       <c r="G194" s="4"/>
       <c r="H194" s="5"/>
       <c r="P194" s="10"/>
@@ -8944,10 +8858,7 @@
       <c r="S194" s="7"/>
     </row>
     <row r="195" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B195" s="20"/>
-      <c r="F195" s="7">
-        <v>0</v>
-      </c>
+      <c r="B195" s="18"/>
       <c r="G195" s="4"/>
       <c r="H195" s="5"/>
       <c r="P195" s="10"/>
@@ -8956,10 +8867,7 @@
       <c r="S195" s="7"/>
     </row>
     <row r="196" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B196" s="20"/>
-      <c r="F196" s="7">
-        <v>0</v>
-      </c>
+      <c r="B196" s="18"/>
       <c r="G196" s="4"/>
       <c r="H196" s="5"/>
       <c r="P196" s="10"/>
@@ -8968,10 +8876,7 @@
       <c r="S196" s="7"/>
     </row>
     <row r="197" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B197" s="20"/>
-      <c r="F197" s="7">
-        <v>0</v>
-      </c>
+      <c r="B197" s="18"/>
       <c r="G197" s="4"/>
       <c r="H197" s="5"/>
       <c r="P197" s="10"/>
@@ -8980,10 +8885,7 @@
       <c r="S197" s="7"/>
     </row>
     <row r="198" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B198" s="20"/>
-      <c r="F198" s="7">
-        <v>0</v>
-      </c>
+      <c r="B198" s="18"/>
       <c r="G198" s="4"/>
       <c r="H198" s="5"/>
       <c r="P198" s="10"/>
@@ -8992,10 +8894,7 @@
       <c r="S198" s="7"/>
     </row>
     <row r="199" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B199" s="20"/>
-      <c r="F199" s="7">
-        <v>0</v>
-      </c>
+      <c r="B199" s="18"/>
       <c r="G199" s="4"/>
       <c r="H199" s="5"/>
       <c r="P199" s="10"/>
@@ -9004,10 +8903,7 @@
       <c r="S199" s="7"/>
     </row>
     <row r="200" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B200" s="20"/>
-      <c r="F200" s="7">
-        <v>0</v>
-      </c>
+      <c r="B200" s="18"/>
       <c r="G200" s="4"/>
       <c r="H200" s="5"/>
       <c r="P200" s="10"/>
@@ -9016,10 +8912,7 @@
       <c r="S200" s="7"/>
     </row>
     <row r="201" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B201" s="20"/>
-      <c r="F201" s="7">
-        <v>0</v>
-      </c>
+      <c r="B201" s="18"/>
       <c r="G201" s="4"/>
       <c r="H201" s="5"/>
       <c r="P201" s="10"/>
@@ -9028,10 +8921,7 @@
       <c r="S201" s="7"/>
     </row>
     <row r="202" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B202" s="20"/>
-      <c r="F202" s="7">
-        <v>0</v>
-      </c>
+      <c r="B202" s="18"/>
       <c r="G202" s="4"/>
       <c r="H202" s="5"/>
       <c r="P202" s="10"/>
@@ -9040,10 +8930,7 @@
       <c r="S202" s="7"/>
     </row>
     <row r="203" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B203" s="20"/>
-      <c r="F203" s="7">
-        <v>0</v>
-      </c>
+      <c r="B203" s="18"/>
       <c r="G203" s="4"/>
       <c r="H203" s="5"/>
       <c r="P203" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71122DFE-F3B3-440D-BEAC-626F1DBA2426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC78AA-BB3B-4727-AE16-25DD01043D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,6 +1271,12 @@
                 <c:pt idx="21">
                   <c:v>80002</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>80925</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82897</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2434,7 +2440,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>05/04/2020</c:v>
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3014,250 +3020,250 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5681</c:v>
+                  <c:v>5664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6565</c:v>
+                  <c:v>6546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8115</c:v>
+                  <c:v>8093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10379</c:v>
+                  <c:v>10351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11770</c:v>
+                  <c:v>11739</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14893</c:v>
+                  <c:v>14856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18321</c:v>
+                  <c:v>18277</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21270</c:v>
+                  <c:v>21222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24704</c:v>
+                  <c:v>24651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27303</c:v>
+                  <c:v>27248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32656</c:v>
+                  <c:v>32597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38694</c:v>
+                  <c:v>38632</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44026</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49945</c:v>
+                  <c:v>49886</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54663</c:v>
+                  <c:v>54608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58237</c:v>
+                  <c:v>58189</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61659</c:v>
+                  <c:v>61618</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66213</c:v>
+                  <c:v>66180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70606</c:v>
+                  <c:v>70583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74098</c:v>
+                  <c:v>74084</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76607</c:v>
+                  <c:v>76604</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78763</c:v>
+                  <c:v>78770</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>80919</c:v>
+                  <c:v>80935</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81610</c:v>
+                  <c:v>81633</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81907</c:v>
+                  <c:v>83293</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>81824</c:v>
+                  <c:v>83340</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>81371</c:v>
+                  <c:v>83049</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80563</c:v>
+                  <c:v>82432</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79415</c:v>
+                  <c:v>81503</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>77946</c:v>
+                  <c:v>80278</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>76175</c:v>
+                  <c:v>78774</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74123</c:v>
+                  <c:v>77009</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>71811</c:v>
+                  <c:v>75001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69263</c:v>
+                  <c:v>72769</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>66502</c:v>
+                  <c:v>70334</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63553</c:v>
+                  <c:v>67715</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60441</c:v>
+                  <c:v>64933</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>57193</c:v>
+                  <c:v>62009</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53836</c:v>
+                  <c:v>58966</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50397</c:v>
+                  <c:v>55825</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>46906</c:v>
+                  <c:v>52609</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43392</c:v>
+                  <c:v>49340</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39884</c:v>
+                  <c:v>46043</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36412</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>33005</c:v>
+                  <c:v>39455</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>29690</c:v>
+                  <c:v>36211</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>26495</c:v>
+                  <c:v>33031</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>23444</c:v>
+                  <c:v>29937</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20560</c:v>
+                  <c:v>26950</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17862</c:v>
+                  <c:v>24089</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15365</c:v>
+                  <c:v>21371</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>13080</c:v>
+                  <c:v>18812</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11014</c:v>
+                  <c:v>16424</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9170</c:v>
+                  <c:v>14216</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7545</c:v>
+                  <c:v>12195</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6132</c:v>
+                  <c:v>10365</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4920</c:v>
+                  <c:v>8724</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3896</c:v>
+                  <c:v>7270</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3044</c:v>
+                  <c:v>5996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2345</c:v>
+                  <c:v>4892</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1781</c:v>
+                  <c:v>3948</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1333</c:v>
+                  <c:v>3150</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>983</c:v>
+                  <c:v>2484</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>714</c:v>
+                  <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>510</c:v>
+                  <c:v>1491</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>359</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>248</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>169</c:v>
+                  <c:v>632</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>113</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>74</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>48</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>18</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>11</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="81">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
@@ -4822,7 +4828,7 @@
   <dimension ref="B1:AG426"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4887,7 +4893,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="36">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -4905,7 +4911,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="23">
-        <v>5681</v>
+        <v>5664</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4923,7 +4929,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="24">
-        <v>6565</v>
+        <v>6546</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4943,7 +4949,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="25">
-        <v>8115</v>
+        <v>8093</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -4964,7 +4970,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="24">
-        <v>10379</v>
+        <v>10351</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -4985,7 +4991,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="25">
-        <v>11770</v>
+        <v>11739</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5006,7 +5012,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="24">
-        <v>14893</v>
+        <v>14856</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5027,7 +5033,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="25">
-        <v>18321</v>
+        <v>18277</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5048,7 +5054,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="24">
-        <v>21270</v>
+        <v>21222</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5068,7 +5074,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="25">
-        <v>24704</v>
+        <v>24651</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5088,7 +5094,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="24">
-        <v>27303</v>
+        <v>27248</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5108,7 +5114,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="25">
-        <v>32656</v>
+        <v>32597</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5134,7 +5140,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="24">
-        <v>38694</v>
+        <v>38632</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5154,7 +5160,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="25">
-        <v>44026</v>
+        <v>43965</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5174,7 +5180,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="26">
-        <v>49945</v>
+        <v>49886</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5194,7 +5200,7 @@
         <v>50508</v>
       </c>
       <c r="F17" s="27">
-        <v>54663</v>
+        <v>54608</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5218,7 +5224,7 @@
         <v>54483</v>
       </c>
       <c r="F18" s="26">
-        <v>58237</v>
+        <v>58189</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5238,7 +5244,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="27">
-        <v>61659</v>
+        <v>61618</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5258,7 +5264,7 @@
         <v>61509</v>
       </c>
       <c r="F20" s="26">
-        <v>66213</v>
+        <v>66180</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5278,7 +5284,7 @@
         <v>64440</v>
       </c>
       <c r="F21" s="27">
-        <v>70606</v>
+        <v>70583</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5298,7 +5304,7 @@
         <v>66932</v>
       </c>
       <c r="F22" s="26">
-        <v>74098</v>
+        <v>74084</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5318,7 +5324,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="27">
-        <v>76607</v>
+        <v>76604</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5345,7 +5351,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="26">
-        <v>78763</v>
+        <v>78770</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5365,12 +5371,14 @@
       <c r="C25" s="33">
         <v>43926</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="41">
+        <v>80925</v>
+      </c>
       <c r="E25" s="50">
         <v>71670</v>
       </c>
       <c r="F25" s="43">
-        <v>80919</v>
+        <v>80935</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="12"/>
@@ -5391,12 +5399,14 @@
       <c r="C26" s="32">
         <v>43927</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="40">
+        <v>82897</v>
+      </c>
       <c r="E26" s="49">
         <v>72364</v>
       </c>
       <c r="F26" s="44">
-        <v>81610</v>
+        <v>81633</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="12"/>
@@ -5422,7 +5432,7 @@
         <v>72650</v>
       </c>
       <c r="F27" s="43">
-        <v>81907</v>
+        <v>83293</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="12"/>
@@ -5448,7 +5458,7 @@
         <v>72558</v>
       </c>
       <c r="F28" s="26">
-        <v>81824</v>
+        <v>83340</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5473,7 +5483,7 @@
         <v>72119</v>
       </c>
       <c r="F29" s="27">
-        <v>81371</v>
+        <v>83049</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5498,7 +5508,7 @@
         <v>71365</v>
       </c>
       <c r="F30" s="26">
-        <v>80563</v>
+        <v>82432</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5523,7 +5533,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="27">
-        <v>79415</v>
+        <v>81503</v>
       </c>
       <c r="H31" s="13"/>
       <c r="L31" s="6"/>
@@ -5549,7 +5559,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="26">
-        <v>77946</v>
+        <v>80278</v>
       </c>
       <c r="H32" s="5"/>
       <c r="J32" s="12"/>
@@ -5577,7 +5587,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="27">
-        <v>76175</v>
+        <v>78774</v>
       </c>
       <c r="H33" s="5"/>
       <c r="J33" s="12"/>
@@ -5604,7 +5614,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="26">
-        <v>74123</v>
+        <v>77009</v>
       </c>
       <c r="H34" s="5"/>
       <c r="J34" s="12"/>
@@ -5631,7 +5641,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="27">
-        <v>71811</v>
+        <v>75001</v>
       </c>
       <c r="H35" s="5"/>
       <c r="J35" s="12"/>
@@ -5656,7 +5666,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="26">
-        <v>69263</v>
+        <v>72769</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5682,7 +5692,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="45">
-        <v>66502</v>
+        <v>70334</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5708,7 +5718,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="26">
-        <v>63553</v>
+        <v>67715</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5735,7 +5745,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="27">
-        <v>60441</v>
+        <v>64933</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5761,7 +5771,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="26">
-        <v>57193</v>
+        <v>62009</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5787,7 +5797,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="27">
-        <v>53836</v>
+        <v>58966</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5813,7 +5823,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="26">
-        <v>50397</v>
+        <v>55825</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5843,7 +5853,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="27">
-        <v>46906</v>
+        <v>52609</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5869,7 +5879,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="26">
-        <v>43392</v>
+        <v>49340</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5895,7 +5905,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="27">
-        <v>39884</v>
+        <v>46043</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5921,7 +5931,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="26">
-        <v>36412</v>
+        <v>42740</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5947,7 +5957,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="27">
-        <v>33005</v>
+        <v>39455</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -5973,7 +5983,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="26">
-        <v>29690</v>
+        <v>36211</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -5999,7 +6009,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="27">
-        <v>26495</v>
+        <v>33031</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6025,7 +6035,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="26">
-        <v>23444</v>
+        <v>29937</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6051,7 +6061,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="27">
-        <v>20560</v>
+        <v>26950</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6077,7 +6087,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="26">
-        <v>17862</v>
+        <v>24089</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6103,7 +6113,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="27">
-        <v>15365</v>
+        <v>21371</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6129,7 +6139,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="26">
-        <v>13080</v>
+        <v>18812</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6155,7 +6165,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="27">
-        <v>11014</v>
+        <v>16424</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6181,7 +6191,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="26">
-        <v>9170</v>
+        <v>14216</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6207,7 +6217,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="27">
-        <v>7545</v>
+        <v>12195</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6233,7 +6243,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="26">
-        <v>6132</v>
+        <v>10365</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6259,7 +6269,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="27">
-        <v>4920</v>
+        <v>8724</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6279,7 +6289,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="26">
-        <v>3896</v>
+        <v>7270</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6299,7 +6309,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="27">
-        <v>3044</v>
+        <v>5996</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6319,7 +6329,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="26">
-        <v>2345</v>
+        <v>4892</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6339,7 +6349,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="27">
-        <v>1781</v>
+        <v>3948</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6359,7 +6369,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="26">
-        <v>1333</v>
+        <v>3150</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6379,7 +6389,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="44">
-        <v>983</v>
+        <v>2484</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6399,7 +6409,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="26">
-        <v>714</v>
+        <v>1936</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6419,7 +6429,7 @@
         <v>2425</v>
       </c>
       <c r="F67" s="27">
-        <v>510</v>
+        <v>1491</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6439,7 +6449,7 @@
         <v>1947</v>
       </c>
       <c r="F68" s="26">
-        <v>359</v>
+        <v>1134</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6459,7 +6469,7 @@
         <v>1547</v>
       </c>
       <c r="F69" s="27">
-        <v>248</v>
+        <v>852</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6479,7 +6489,7 @@
         <v>1216</v>
       </c>
       <c r="F70" s="26">
-        <v>169</v>
+        <v>632</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6499,7 +6509,7 @@
         <v>946</v>
       </c>
       <c r="F71" s="27">
-        <v>113</v>
+        <v>463</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6519,7 +6529,7 @@
         <v>727</v>
       </c>
       <c r="F72" s="26">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6539,7 +6549,7 @@
         <v>553</v>
       </c>
       <c r="F73" s="27">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6559,7 +6569,7 @@
         <v>415</v>
       </c>
       <c r="F74" s="26">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="H74" s="5"/>
       <c r="P74" s="10"/>
@@ -6579,7 +6589,7 @@
         <v>308</v>
       </c>
       <c r="F75" s="27">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="H75" s="5"/>
       <c r="P75" s="10"/>
@@ -6599,7 +6609,7 @@
         <v>226</v>
       </c>
       <c r="F76" s="26">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="H76" s="5"/>
       <c r="P76" s="10"/>
@@ -6619,7 +6629,7 @@
         <v>164</v>
       </c>
       <c r="F77" s="27">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H77" s="5"/>
       <c r="P77" s="10"/>
@@ -6639,7 +6649,7 @@
         <v>117</v>
       </c>
       <c r="F78" s="26">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H78" s="5"/>
       <c r="P78" s="10"/>
@@ -6659,7 +6669,7 @@
         <v>82</v>
       </c>
       <c r="F79" s="27">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H79" s="5"/>
       <c r="P79" s="10"/>
@@ -6679,7 +6689,7 @@
         <v>57</v>
       </c>
       <c r="F80" s="26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H80" s="5"/>
       <c r="P80" s="10"/>
@@ -6699,7 +6709,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H81" s="5"/>
       <c r="P81" s="10"/>
@@ -6719,7 +6729,7 @@
         <v>26</v>
       </c>
       <c r="F82" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H82" s="5"/>
       <c r="P82" s="10"/>
@@ -6739,7 +6749,7 @@
         <v>17</v>
       </c>
       <c r="F83" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83" s="5"/>
       <c r="P83" s="10"/>
@@ -6759,7 +6769,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="5"/>
       <c r="P84" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC78AA-BB3B-4727-AE16-25DD01043D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D70E81A-D041-4877-AE4A-F8357514DF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,6 +1277,9 @@
                 <c:pt idx="23">
                   <c:v>82897</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>84689</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2440,7 +2443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>06/04/2020</c:v>
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3020,262 +3023,262 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5664</c:v>
+                  <c:v>5649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6546</c:v>
+                  <c:v>6529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8093</c:v>
+                  <c:v>8072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10351</c:v>
+                  <c:v>10326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11739</c:v>
+                  <c:v>11711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14856</c:v>
+                  <c:v>14822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18277</c:v>
+                  <c:v>18237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21222</c:v>
+                  <c:v>21178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24651</c:v>
+                  <c:v>24604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27248</c:v>
+                  <c:v>27198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32597</c:v>
+                  <c:v>32544</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38632</c:v>
+                  <c:v>38577</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43965</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49886</c:v>
+                  <c:v>49836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54608</c:v>
+                  <c:v>54564</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58189</c:v>
+                  <c:v>58151</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61618</c:v>
+                  <c:v>61586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66180</c:v>
+                  <c:v>66157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70583</c:v>
+                  <c:v>70570</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74084</c:v>
+                  <c:v>74082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76604</c:v>
+                  <c:v>76611</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78770</c:v>
+                  <c:v>78786</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>80935</c:v>
+                  <c:v>80960</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81633</c:v>
+                  <c:v>81664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83293</c:v>
+                  <c:v>83331</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83340</c:v>
+                  <c:v>84821</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>83049</c:v>
+                  <c:v>84636</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>82432</c:v>
+                  <c:v>84146</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81503</c:v>
+                  <c:v>83364</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80278</c:v>
+                  <c:v>82304</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>78774</c:v>
+                  <c:v>80981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>77009</c:v>
+                  <c:v>79411</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>75001</c:v>
+                  <c:v>77611</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72769</c:v>
+                  <c:v>75597</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70334</c:v>
+                  <c:v>73386</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>67715</c:v>
+                  <c:v>70996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>64933</c:v>
+                  <c:v>68444</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62009</c:v>
+                  <c:v>65749</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>58966</c:v>
+                  <c:v>62930</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>55825</c:v>
+                  <c:v>60005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52609</c:v>
+                  <c:v>56993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>49340</c:v>
+                  <c:v>53913</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>46043</c:v>
+                  <c:v>50785</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42740</c:v>
+                  <c:v>47629</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>39455</c:v>
+                  <c:v>44465</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>36211</c:v>
+                  <c:v>41313</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33031</c:v>
+                  <c:v>38192</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29937</c:v>
+                  <c:v>35122</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26950</c:v>
+                  <c:v>32121</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24089</c:v>
+                  <c:v>29207</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>21371</c:v>
+                  <c:v>26397</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18812</c:v>
+                  <c:v>23707</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16424</c:v>
+                  <c:v>21150</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14216</c:v>
+                  <c:v>18739</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12195</c:v>
+                  <c:v>16483</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10365</c:v>
+                  <c:v>14390</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8724</c:v>
+                  <c:v>12465</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7270</c:v>
+                  <c:v>10710</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5996</c:v>
+                  <c:v>9125</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4892</c:v>
+                  <c:v>7707</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3948</c:v>
+                  <c:v>6451</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3150</c:v>
+                  <c:v>5350</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2484</c:v>
+                  <c:v>4395</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1936</c:v>
+                  <c:v>3576</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1491</c:v>
+                  <c:v>2881</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1134</c:v>
+                  <c:v>2297</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>852</c:v>
+                  <c:v>1813</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>632</c:v>
                 </c:pt>
-                <c:pt idx="68">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>238</c:v>
-                </c:pt>
                 <c:pt idx="71">
-                  <c:v>167</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>116</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>79</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>53</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>35</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="83">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="84">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="85">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0</c:v>
@@ -4827,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,7 +4896,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="36">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -4911,7 +4914,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="23">
-        <v>5664</v>
+        <v>5649</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4929,7 +4932,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="24">
-        <v>6546</v>
+        <v>6529</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4949,7 +4952,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="25">
-        <v>8093</v>
+        <v>8072</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -4970,7 +4973,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="24">
-        <v>10351</v>
+        <v>10326</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -4991,7 +4994,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="25">
-        <v>11739</v>
+        <v>11711</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5012,7 +5015,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="24">
-        <v>14856</v>
+        <v>14822</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5033,7 +5036,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="25">
-        <v>18277</v>
+        <v>18237</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5054,7 +5057,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="24">
-        <v>21222</v>
+        <v>21178</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5074,7 +5077,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="25">
-        <v>24651</v>
+        <v>24604</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5094,7 +5097,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="24">
-        <v>27248</v>
+        <v>27198</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5114,7 +5117,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="25">
-        <v>32597</v>
+        <v>32544</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5140,7 +5143,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="24">
-        <v>38632</v>
+        <v>38577</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5160,7 +5163,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="25">
-        <v>43965</v>
+        <v>43912</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5180,7 +5183,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="26">
-        <v>49886</v>
+        <v>49836</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5200,7 +5203,7 @@
         <v>50508</v>
       </c>
       <c r="F17" s="27">
-        <v>54608</v>
+        <v>54564</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5224,7 +5227,7 @@
         <v>54483</v>
       </c>
       <c r="F18" s="26">
-        <v>58189</v>
+        <v>58151</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5244,7 +5247,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="27">
-        <v>61618</v>
+        <v>61586</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5264,7 +5267,7 @@
         <v>61509</v>
       </c>
       <c r="F20" s="26">
-        <v>66180</v>
+        <v>66157</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5284,7 +5287,7 @@
         <v>64440</v>
       </c>
       <c r="F21" s="27">
-        <v>70583</v>
+        <v>70570</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5304,7 +5307,7 @@
         <v>66932</v>
       </c>
       <c r="F22" s="26">
-        <v>74084</v>
+        <v>74082</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5324,7 +5327,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="27">
-        <v>76604</v>
+        <v>76611</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5351,7 +5354,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="26">
-        <v>78770</v>
+        <v>78786</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5378,7 +5381,7 @@
         <v>71670</v>
       </c>
       <c r="F25" s="43">
-        <v>80935</v>
+        <v>80960</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="12"/>
@@ -5406,7 +5409,7 @@
         <v>72364</v>
       </c>
       <c r="F26" s="44">
-        <v>81633</v>
+        <v>81664</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="12"/>
@@ -5427,12 +5430,14 @@
       <c r="C27" s="33">
         <v>43928</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="41">
+        <v>84689</v>
+      </c>
       <c r="E27" s="51">
         <v>72650</v>
       </c>
       <c r="F27" s="43">
-        <v>83293</v>
+        <v>83331</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="12"/>
@@ -5458,7 +5463,7 @@
         <v>72558</v>
       </c>
       <c r="F28" s="26">
-        <v>83340</v>
+        <v>84821</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5483,7 +5488,7 @@
         <v>72119</v>
       </c>
       <c r="F29" s="27">
-        <v>83049</v>
+        <v>84636</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5508,7 +5513,7 @@
         <v>71365</v>
       </c>
       <c r="F30" s="26">
-        <v>82432</v>
+        <v>84146</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5533,7 +5538,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="27">
-        <v>81503</v>
+        <v>83364</v>
       </c>
       <c r="H31" s="13"/>
       <c r="L31" s="6"/>
@@ -5559,7 +5564,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="26">
-        <v>80278</v>
+        <v>82304</v>
       </c>
       <c r="H32" s="5"/>
       <c r="J32" s="12"/>
@@ -5587,7 +5592,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="27">
-        <v>78774</v>
+        <v>80981</v>
       </c>
       <c r="H33" s="5"/>
       <c r="J33" s="12"/>
@@ -5614,7 +5619,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="26">
-        <v>77009</v>
+        <v>79411</v>
       </c>
       <c r="H34" s="5"/>
       <c r="J34" s="12"/>
@@ -5641,7 +5646,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="27">
-        <v>75001</v>
+        <v>77611</v>
       </c>
       <c r="H35" s="5"/>
       <c r="J35" s="12"/>
@@ -5666,7 +5671,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="26">
-        <v>72769</v>
+        <v>75597</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5692,7 +5697,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="45">
-        <v>70334</v>
+        <v>73386</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5718,7 +5723,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="26">
-        <v>67715</v>
+        <v>70996</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5745,7 +5750,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="27">
-        <v>64933</v>
+        <v>68444</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5771,7 +5776,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="26">
-        <v>62009</v>
+        <v>65749</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5797,7 +5802,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="27">
-        <v>58966</v>
+        <v>62930</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5823,7 +5828,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="26">
-        <v>55825</v>
+        <v>60005</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5853,7 +5858,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="27">
-        <v>52609</v>
+        <v>56993</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5879,7 +5884,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="26">
-        <v>49340</v>
+        <v>53913</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5905,7 +5910,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="27">
-        <v>46043</v>
+        <v>50785</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5931,7 +5936,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="26">
-        <v>42740</v>
+        <v>47629</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5957,7 +5962,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="27">
-        <v>39455</v>
+        <v>44465</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -5983,7 +5988,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="26">
-        <v>36211</v>
+        <v>41313</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6009,7 +6014,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="27">
-        <v>33031</v>
+        <v>38192</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6035,7 +6040,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="26">
-        <v>29937</v>
+        <v>35122</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6061,7 +6066,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="27">
-        <v>26950</v>
+        <v>32121</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6087,7 +6092,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="26">
-        <v>24089</v>
+        <v>29207</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6113,7 +6118,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="27">
-        <v>21371</v>
+        <v>26397</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6139,7 +6144,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="26">
-        <v>18812</v>
+        <v>23707</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6165,7 +6170,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="27">
-        <v>16424</v>
+        <v>21150</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6191,7 +6196,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="26">
-        <v>14216</v>
+        <v>18739</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6217,7 +6222,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="27">
-        <v>12195</v>
+        <v>16483</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6243,7 +6248,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="26">
-        <v>10365</v>
+        <v>14390</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6269,7 +6274,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="27">
-        <v>8724</v>
+        <v>12465</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6289,7 +6294,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="26">
-        <v>7270</v>
+        <v>10710</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6309,7 +6314,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="27">
-        <v>5996</v>
+        <v>9125</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6329,7 +6334,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="26">
-        <v>4892</v>
+        <v>7707</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6349,7 +6354,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="27">
-        <v>3948</v>
+        <v>6451</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6369,7 +6374,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="26">
-        <v>3150</v>
+        <v>5350</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6389,7 +6394,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="44">
-        <v>2484</v>
+        <v>4395</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6409,7 +6414,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="26">
-        <v>1936</v>
+        <v>3576</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6429,7 +6434,7 @@
         <v>2425</v>
       </c>
       <c r="F67" s="27">
-        <v>1491</v>
+        <v>2881</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6449,7 +6454,7 @@
         <v>1947</v>
       </c>
       <c r="F68" s="26">
-        <v>1134</v>
+        <v>2297</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6469,7 +6474,7 @@
         <v>1547</v>
       </c>
       <c r="F69" s="27">
-        <v>852</v>
+        <v>1813</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6489,7 +6494,7 @@
         <v>1216</v>
       </c>
       <c r="F70" s="26">
-        <v>632</v>
+        <v>1416</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6509,7 +6514,7 @@
         <v>946</v>
       </c>
       <c r="F71" s="27">
-        <v>463</v>
+        <v>1094</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6529,7 +6534,7 @@
         <v>727</v>
       </c>
       <c r="F72" s="26">
-        <v>334</v>
+        <v>836</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6549,7 +6554,7 @@
         <v>553</v>
       </c>
       <c r="F73" s="27">
-        <v>238</v>
+        <v>632</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6569,7 +6574,7 @@
         <v>415</v>
       </c>
       <c r="F74" s="26">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="H74" s="5"/>
       <c r="P74" s="10"/>
@@ -6589,7 +6594,7 @@
         <v>308</v>
       </c>
       <c r="F75" s="27">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="H75" s="5"/>
       <c r="P75" s="10"/>
@@ -6609,7 +6614,7 @@
         <v>226</v>
       </c>
       <c r="F76" s="26">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="H76" s="5"/>
       <c r="P76" s="10"/>
@@ -6629,7 +6634,7 @@
         <v>164</v>
       </c>
       <c r="F77" s="27">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="H77" s="5"/>
       <c r="P77" s="10"/>
@@ -6649,7 +6654,7 @@
         <v>117</v>
       </c>
       <c r="F78" s="26">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="H78" s="5"/>
       <c r="P78" s="10"/>
@@ -6669,7 +6674,7 @@
         <v>82</v>
       </c>
       <c r="F79" s="27">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="H79" s="5"/>
       <c r="P79" s="10"/>
@@ -6689,7 +6694,7 @@
         <v>57</v>
       </c>
       <c r="F80" s="26">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H80" s="5"/>
       <c r="P80" s="10"/>
@@ -6709,7 +6714,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="27">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H81" s="5"/>
       <c r="P81" s="10"/>
@@ -6729,7 +6734,7 @@
         <v>26</v>
       </c>
       <c r="F82" s="26">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H82" s="5"/>
       <c r="P82" s="10"/>
@@ -6749,7 +6754,7 @@
         <v>17</v>
       </c>
       <c r="F83" s="27">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H83" s="5"/>
       <c r="P83" s="10"/>
@@ -6769,7 +6774,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H84" s="5"/>
       <c r="P84" s="10"/>
@@ -6789,7 +6794,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H85" s="5"/>
       <c r="P85" s="10"/>
@@ -6809,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" s="5"/>
       <c r="P86" s="10"/>
@@ -6829,7 +6834,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" s="5"/>
       <c r="P87" s="10"/>
@@ -6849,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="5"/>
       <c r="P88" s="10"/>

--- a/SIRS MODELS/spain/summary.xlsx
+++ b/SIRS MODELS/spain/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D70E81A-D041-4877-AE4A-F8357514DF5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33EBA84-4A91-49A2-AF45-5C49E64E5CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,6 +1280,15 @@
                 <c:pt idx="24">
                   <c:v>84689</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>85407</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85610</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86524</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2443,7 +2452,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>07/04/2020</c:v>
+                  <c:v>10/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3023,283 +3032,283 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>5649</c:v>
+                  <c:v>5581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6529</c:v>
+                  <c:v>6452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8072</c:v>
+                  <c:v>7978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10326</c:v>
+                  <c:v>10210</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11711</c:v>
+                  <c:v>11583</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14822</c:v>
+                  <c:v>14668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18237</c:v>
+                  <c:v>18058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21178</c:v>
+                  <c:v>20982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24604</c:v>
+                  <c:v>24390</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27198</c:v>
+                  <c:v>26976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32544</c:v>
+                  <c:v>32309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38577</c:v>
+                  <c:v>38339</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43912</c:v>
+                  <c:v>43681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49836</c:v>
+                  <c:v>49624</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54564</c:v>
+                  <c:v>54378</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58151</c:v>
+                  <c:v>57994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61586</c:v>
+                  <c:v>61460</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66157</c:v>
+                  <c:v>66075</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70570</c:v>
+                  <c:v>70534</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74082</c:v>
+                  <c:v>74093</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76611</c:v>
+                  <c:v>76665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78786</c:v>
+                  <c:v>78880</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>80960</c:v>
+                  <c:v>81093</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81664</c:v>
+                  <c:v>81821</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83331</c:v>
+                  <c:v>83522</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>84821</c:v>
+                  <c:v>85044</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>84636</c:v>
+                  <c:v>85555</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>84146</c:v>
+                  <c:v>85610</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>83364</c:v>
+                  <c:v>86322</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82304</c:v>
+                  <c:v>85845</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>80981</c:v>
+                  <c:v>85103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79411</c:v>
+                  <c:v>84108</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77611</c:v>
+                  <c:v>82872</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75597</c:v>
+                  <c:v>81408</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>73386</c:v>
+                  <c:v>79730</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70996</c:v>
+                  <c:v>77853</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>68444</c:v>
+                  <c:v>75790</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>65749</c:v>
+                  <c:v>73557</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62930</c:v>
+                  <c:v>71170</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>60005</c:v>
+                  <c:v>68644</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>56993</c:v>
+                  <c:v>65995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53913</c:v>
+                  <c:v>63239</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>50785</c:v>
+                  <c:v>60393</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47629</c:v>
+                  <c:v>57474</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44465</c:v>
+                  <c:v>54499</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41313</c:v>
+                  <c:v>51485</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38192</c:v>
+                  <c:v>48449</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35122</c:v>
+                  <c:v>45409</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>32121</c:v>
+                  <c:v>42382</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>29207</c:v>
+                  <c:v>39384</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>26397</c:v>
+                  <c:v>36432</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>23707</c:v>
+                  <c:v>33542</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>21150</c:v>
+                  <c:v>30730</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18739</c:v>
+                  <c:v>28009</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16483</c:v>
+                  <c:v>25393</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14390</c:v>
+                  <c:v>22893</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12465</c:v>
+                  <c:v>20521</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10710</c:v>
+                  <c:v>18284</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9125</c:v>
+                  <c:v>16190</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7707</c:v>
+                  <c:v>14244</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6451</c:v>
+                  <c:v>12448</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5350</c:v>
+                  <c:v>10804</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4395</c:v>
+                  <c:v>9311</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3576</c:v>
+                  <c:v>7966</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2881</c:v>
+                  <c:v>6765</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2297</c:v>
+                  <c:v>5701</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1813</c:v>
+                  <c:v>4767</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1416</c:v>
+                  <c:v>3954</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1094</c:v>
+                  <c:v>3254</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>836</c:v>
+                  <c:v>2655</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>632</c:v>
+                  <c:v>2149</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>472</c:v>
+                  <c:v>1724</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>349</c:v>
+                  <c:v>1371</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>255</c:v>
+                  <c:v>1081</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>184</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>131</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>92</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>64</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>44</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
@@ -4830,8 +4839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4896,7 +4905,7 @@
         <v>43913</v>
       </c>
       <c r="F2" s="36">
-        <v>43928</v>
+        <v>43931</v>
       </c>
       <c r="H2" s="14"/>
     </row>
@@ -4914,7 +4923,7 @@
         <v>5961</v>
       </c>
       <c r="F3" s="23">
-        <v>5649</v>
+        <v>5581</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4932,7 +4941,7 @@
         <v>6884</v>
       </c>
       <c r="F4" s="24">
-        <v>6529</v>
+        <v>6452</v>
       </c>
       <c r="H4" s="5"/>
       <c r="M4" s="6"/>
@@ -4952,7 +4961,7 @@
         <v>8498</v>
       </c>
       <c r="F5" s="25">
-        <v>8072</v>
+        <v>7978</v>
       </c>
       <c r="H5" s="5"/>
       <c r="M5" s="6"/>
@@ -4973,7 +4982,7 @@
         <v>10849</v>
       </c>
       <c r="F6" s="24">
-        <v>10326</v>
+        <v>10210</v>
       </c>
       <c r="H6" s="5"/>
       <c r="M6" s="6"/>
@@ -4994,7 +5003,7 @@
         <v>12286</v>
       </c>
       <c r="F7" s="25">
-        <v>11711</v>
+        <v>11583</v>
       </c>
       <c r="H7" s="5"/>
       <c r="M7" s="6"/>
@@ -5015,7 +5024,7 @@
         <v>15508</v>
       </c>
       <c r="F8" s="24">
-        <v>14822</v>
+        <v>14668</v>
       </c>
       <c r="H8" s="5"/>
       <c r="M8" s="6"/>
@@ -5036,7 +5045,7 @@
         <v>19025</v>
       </c>
       <c r="F9" s="25">
-        <v>18237</v>
+        <v>18058</v>
       </c>
       <c r="H9" s="5"/>
       <c r="M9" s="6"/>
@@ -5057,7 +5066,7 @@
         <v>22034</v>
       </c>
       <c r="F10" s="24">
-        <v>21178</v>
+        <v>20982</v>
       </c>
       <c r="H10" s="5"/>
       <c r="M10" s="6"/>
@@ -5077,7 +5086,7 @@
         <v>25522</v>
       </c>
       <c r="F11" s="25">
-        <v>24604</v>
+        <v>24390</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="6"/>
@@ -5097,7 +5106,7 @@
         <v>28144</v>
       </c>
       <c r="F12" s="24">
-        <v>27198</v>
+        <v>26976</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="6"/>
@@ -5117,7 +5126,7 @@
         <v>33524</v>
       </c>
       <c r="F13" s="25">
-        <v>32544</v>
+        <v>32309</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="6"/>
@@ -5143,7 +5152,7 @@
         <v>37744</v>
       </c>
       <c r="F14" s="24">
-        <v>38577</v>
+        <v>38339</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="6"/>
@@ -5163,7 +5172,7 @@
         <v>42044</v>
       </c>
       <c r="F15" s="25">
-        <v>43912</v>
+        <v>43681</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="6"/>
@@ -5183,7 +5192,7 @@
         <v>46331</v>
       </c>
       <c r="F16" s="26">
-        <v>49836</v>
+        <v>49624</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="6"/>
@@ -5203,7 +5212,7 @@
         <v>50508</v>
       </c>
       <c r="F17" s="27">
-        <v>54564</v>
+        <v>54378</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="6"/>
@@ -5227,7 +5236,7 @@
         <v>54483</v>
       </c>
       <c r="F18" s="26">
-        <v>58151</v>
+        <v>57994</v>
       </c>
       <c r="H18" s="5"/>
       <c r="M18" s="6"/>
@@ -5247,7 +5256,7 @@
         <v>58173</v>
       </c>
       <c r="F19" s="27">
-        <v>61586</v>
+        <v>61460</v>
       </c>
       <c r="H19" s="5"/>
       <c r="M19" s="6"/>
@@ -5267,7 +5276,7 @@
         <v>61509</v>
       </c>
       <c r="F20" s="26">
-        <v>66157</v>
+        <v>66075</v>
       </c>
       <c r="H20" s="5"/>
       <c r="M20" s="6"/>
@@ -5287,7 +5296,7 @@
         <v>64440</v>
       </c>
       <c r="F21" s="27">
-        <v>70570</v>
+        <v>70534</v>
       </c>
       <c r="H21" s="5"/>
       <c r="M21" s="6"/>
@@ -5307,7 +5316,7 @@
         <v>66932</v>
       </c>
       <c r="F22" s="26">
-        <v>74082</v>
+        <v>74093</v>
       </c>
       <c r="H22" s="5"/>
       <c r="M22" s="6"/>
@@ -5327,7 +5336,7 @@
         <v>68968</v>
       </c>
       <c r="F23" s="27">
-        <v>76611</v>
+        <v>76665</v>
       </c>
       <c r="H23" s="5"/>
       <c r="M23" s="6"/>
@@ -5354,7 +5363,7 @@
         <v>70544</v>
       </c>
       <c r="F24" s="26">
-        <v>78786</v>
+        <v>78880</v>
       </c>
       <c r="H24" s="5"/>
       <c r="M24" s="6"/>
@@ -5381,7 +5390,7 @@
         <v>71670</v>
       </c>
       <c r="F25" s="43">
-        <v>80960</v>
+        <v>81093</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="12"/>
@@ -5409,7 +5418,7 @@
         <v>72364</v>
       </c>
       <c r="F26" s="44">
-        <v>81664</v>
+        <v>81821</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="12"/>
@@ -5437,7 +5446,7 @@
         <v>72650</v>
       </c>
       <c r="F27" s="43">
-        <v>83331</v>
+        <v>83522</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="12"/>
@@ -5458,12 +5467,14 @@
       <c r="C28" s="32">
         <v>43929</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="40">
+        <v>85407</v>
+      </c>
       <c r="E28" s="49">
         <v>72558</v>
       </c>
       <c r="F28" s="26">
-        <v>84821</v>
+        <v>85044</v>
       </c>
       <c r="H28" s="5"/>
       <c r="M28" s="6"/>
@@ -5483,12 +5494,14 @@
       <c r="C29" s="33">
         <v>43930</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="41">
+        <v>85610</v>
+      </c>
       <c r="E29" s="50">
         <v>72119</v>
       </c>
       <c r="F29" s="27">
-        <v>84636</v>
+        <v>85555</v>
       </c>
       <c r="H29" s="5"/>
       <c r="M29" s="6"/>
@@ -5508,12 +5521,14 @@
       <c r="C30" s="32">
         <v>43931</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="40">
+        <v>86524</v>
+      </c>
       <c r="E30" s="49">
         <v>71365</v>
       </c>
       <c r="F30" s="26">
-        <v>84146</v>
+        <v>85610</v>
       </c>
       <c r="H30" s="5"/>
       <c r="M30" s="6"/>
@@ -5538,7 +5553,7 @@
         <v>70327</v>
       </c>
       <c r="F31" s="27">
-        <v>83364</v>
+        <v>86322</v>
       </c>
       <c r="H31" s="13"/>
       <c r="L31" s="6"/>
@@ -5564,7 +5579,7 @@
         <v>69036</v>
       </c>
       <c r="F32" s="26">
-        <v>82304</v>
+        <v>85845</v>
       </c>
       <c r="H32" s="5"/>
       <c r="J32" s="12"/>
@@ -5592,7 +5607,7 @@
         <v>67520</v>
       </c>
       <c r="F33" s="27">
-        <v>80981</v>
+        <v>85103</v>
       </c>
       <c r="H33" s="5"/>
       <c r="J33" s="12"/>
@@ -5619,7 +5634,7 @@
         <v>65807</v>
       </c>
       <c r="F34" s="26">
-        <v>79411</v>
+        <v>84108</v>
       </c>
       <c r="H34" s="5"/>
       <c r="J34" s="12"/>
@@ -5646,7 +5661,7 @@
         <v>63921</v>
       </c>
       <c r="F35" s="27">
-        <v>77611</v>
+        <v>82872</v>
       </c>
       <c r="H35" s="5"/>
       <c r="J35" s="12"/>
@@ -5671,7 +5686,7 @@
         <v>61885</v>
       </c>
       <c r="F36" s="26">
-        <v>75597</v>
+        <v>81408</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="8"/>
@@ -5697,7 +5712,7 @@
         <v>59721</v>
       </c>
       <c r="F37" s="45">
-        <v>73386</v>
+        <v>79730</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="12"/>
@@ -5723,7 +5738,7 @@
         <v>57448</v>
       </c>
       <c r="F38" s="26">
-        <v>70996</v>
+        <v>77853</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="8"/>
@@ -5750,7 +5765,7 @@
         <v>55085</v>
       </c>
       <c r="F39" s="27">
-        <v>68444</v>
+        <v>75790</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="12"/>
@@ -5776,7 +5791,7 @@
         <v>52648</v>
       </c>
       <c r="F40" s="26">
-        <v>65749</v>
+        <v>73557</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="8"/>
@@ -5802,7 +5817,7 @@
         <v>50154</v>
       </c>
       <c r="F41" s="27">
-        <v>62930</v>
+        <v>71170</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
@@ -5828,7 +5843,7 @@
         <v>47618</v>
       </c>
       <c r="F42" s="26">
-        <v>60005</v>
+        <v>68644</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="8"/>
@@ -5858,7 +5873,7 @@
         <v>45054</v>
       </c>
       <c r="F43" s="27">
-        <v>56993</v>
+        <v>65995</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="8"/>
@@ -5884,7 +5899,7 @@
         <v>42476</v>
       </c>
       <c r="F44" s="26">
-        <v>53913</v>
+        <v>63239</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="8"/>
@@ -5910,7 +5925,7 @@
         <v>39897</v>
       </c>
       <c r="F45" s="27">
-        <v>50785</v>
+        <v>60393</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="12"/>
@@ -5936,7 +5951,7 @@
         <v>37330</v>
       </c>
       <c r="F46" s="26">
-        <v>47629</v>
+        <v>57474</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="8"/>
@@ -5962,7 +5977,7 @@
         <v>34787</v>
       </c>
       <c r="F47" s="27">
-        <v>44465</v>
+        <v>54499</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="12"/>
@@ -5988,7 +6003,7 @@
         <v>32280</v>
       </c>
       <c r="F48" s="26">
-        <v>41313</v>
+        <v>51485</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="8"/>
@@ -6014,7 +6029,7 @@
         <v>29820</v>
       </c>
       <c r="F49" s="27">
-        <v>38192</v>
+        <v>48449</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="12"/>
@@ -6040,7 +6055,7 @@
         <v>27419</v>
       </c>
       <c r="F50" s="26">
-        <v>35122</v>
+        <v>45409</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="8"/>
@@ -6066,7 +6081,7 @@
         <v>25087</v>
       </c>
       <c r="F51" s="27">
-        <v>32121</v>
+        <v>42382</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="8"/>
@@ -6092,7 +6107,7 @@
         <v>22835</v>
       </c>
       <c r="F52" s="26">
-        <v>29207</v>
+        <v>39384</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="8"/>
@@ -6118,7 +6133,7 @@
         <v>20672</v>
       </c>
       <c r="F53" s="27">
-        <v>26397</v>
+        <v>36432</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="8"/>
@@ -6144,7 +6159,7 @@
         <v>18606</v>
       </c>
       <c r="F54" s="26">
-        <v>23707</v>
+        <v>33542</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="8"/>
@@ -6170,7 +6185,7 @@
         <v>16645</v>
       </c>
       <c r="F55" s="27">
-        <v>21150</v>
+        <v>30730</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="12"/>
@@ -6196,7 +6211,7 @@
         <v>14797</v>
       </c>
       <c r="F56" s="26">
-        <v>18739</v>
+        <v>28009</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="8"/>
@@ -6222,7 +6237,7 @@
         <v>13066</v>
       </c>
       <c r="F57" s="27">
-        <v>16483</v>
+        <v>25393</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="12"/>
@@ -6248,7 +6263,7 @@
         <v>11457</v>
       </c>
       <c r="F58" s="26">
-        <v>14390</v>
+        <v>22893</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="8"/>
@@ -6274,7 +6289,7 @@
         <v>9972</v>
       </c>
       <c r="F59" s="27">
-        <v>12465</v>
+        <v>20521</v>
       </c>
       <c r="H59" s="5"/>
       <c r="P59" s="10"/>
@@ -6294,7 +6309,7 @@
         <v>8613</v>
       </c>
       <c r="F60" s="26">
-        <v>10710</v>
+        <v>18284</v>
       </c>
       <c r="H60" s="5"/>
       <c r="P60" s="10"/>
@@ -6314,7 +6329,7 @@
         <v>7380</v>
       </c>
       <c r="F61" s="27">
-        <v>9125</v>
+        <v>16190</v>
       </c>
       <c r="H61" s="5"/>
       <c r="P61" s="10"/>
@@ -6334,7 +6349,7 @@
         <v>6271</v>
       </c>
       <c r="F62" s="26">
-        <v>7707</v>
+        <v>14244</v>
       </c>
       <c r="H62" s="5"/>
       <c r="P62" s="10"/>
@@ -6354,7 +6369,7 @@
         <v>5283</v>
       </c>
       <c r="F63" s="27">
-        <v>6451</v>
+        <v>12448</v>
       </c>
       <c r="H63" s="5"/>
       <c r="P63" s="10"/>
@@ -6374,7 +6389,7 @@
         <v>4411</v>
       </c>
       <c r="F64" s="26">
-        <v>5350</v>
+        <v>10804</v>
       </c>
       <c r="H64" s="5"/>
       <c r="P64" s="10"/>
@@ -6394,7 +6409,7 @@
         <v>3649</v>
       </c>
       <c r="F65" s="44">
-        <v>4395</v>
+        <v>9311</v>
       </c>
       <c r="H65" s="5"/>
       <c r="P65" s="10"/>
@@ -6414,7 +6429,7 @@
         <v>2989</v>
       </c>
       <c r="F66" s="26">
-        <v>3576</v>
+        <v>7966</v>
       </c>
       <c r="H66" s="5"/>
       <c r="P66" s="10"/>
@@ -6434,7 +6449,7 @@
         <v>2425</v>
       </c>
       <c r="F67" s="27">
-        <v>2881</v>
+        <v>6765</v>
       </c>
       <c r="H67" s="5"/>
       <c r="P67" s="10"/>
@@ -6454,7 +6469,7 @@
         <v>1947</v>
       </c>
       <c r="F68" s="26">
-        <v>2297</v>
+        <v>5701</v>
       </c>
       <c r="H68" s="5"/>
       <c r="P68" s="10"/>
@@ -6474,7 +6489,7 @@
         <v>1547</v>
       </c>
       <c r="F69" s="27">
-        <v>1813</v>
+        <v>4767</v>
       </c>
       <c r="H69" s="5"/>
       <c r="P69" s="10"/>
@@ -6494,7 +6509,7 @@
         <v>1216</v>
       </c>
       <c r="F70" s="26">
-        <v>1416</v>
+        <v>3954</v>
       </c>
       <c r="H70" s="5"/>
       <c r="P70" s="10"/>
@@ -6514,7 +6529,7 @@
         <v>946</v>
       </c>
       <c r="F71" s="27">
-        <v>1094</v>
+        <v>3254</v>
       </c>
       <c r="H71" s="5"/>
       <c r="P71" s="10"/>
@@ -6534,7 +6549,7 @@
         <v>727</v>
       </c>
       <c r="F72" s="26">
-        <v>836</v>
+        <v>2655</v>
       </c>
       <c r="H72" s="5"/>
       <c r="P72" s="10"/>
@@ -6554,7 +6569,7 @@
         <v>553</v>
       </c>
       <c r="F73" s="27">
-        <v>632</v>
+        <v>2149</v>
       </c>
       <c r="H73" s="5"/>
       <c r="P73" s="10"/>
@@ -6574,7 +6589,7 @@
         <v>415</v>
       </c>
       <c r="F74" s="26">
-        <v>472</v>
+        <v>1724</v>
       </c>
       <c r="H74" s="5"/>
       <c r="P74" s="10"/>
@@ -6594,7 +6609,7 @@
         <v>308</v>
       </c>
       <c r="F75" s="27">
-        <v>349</v>
+        <v>1371</v>
       </c>
       <c r="H75" s="5"/>
       <c r="P75" s="10"/>
@@ -6614,7 +6629,7 @@
         <v>226</v>
       </c>
       <c r="F76" s="26">
-        <v>255</v>
+        <v>1081</v>
       </c>
       <c r="H76" s="5"/>
       <c r="P76" s="10"/>
@@ -6634,7 +6649,7 @@
         <v>164</v>
       </c>
       <c r="F77" s="27">
-        <v>184</v>
+        <v>845</v>
       </c>
       <c r="H77" s="5"/>
       <c r="P77" s="10"/>
@@ -6654,7 +6669,7 @@
         <v>117</v>
       </c>
       <c r="F78" s="26">
-        <v>131</v>
+        <v>655</v>
       </c>
       <c r="H78" s="5"/>
       <c r="P78" s="10"/>
@@ -6674,7 +6689,7 @@
         <v>82</v>
       </c>
       <c r="F79" s="27">
-        <v>92</v>
+        <v>503</v>
       </c>
       <c r="H79" s="5"/>
       <c r="P79" s="10"/>
@@ -6694,7 +6709,7 @@
         <v>57</v>
       </c>
       <c r="F80" s="26">
-        <v>64</v>
+        <v>383</v>
       </c>
       <c r="H80" s="5"/>
       <c r="P80" s="10"/>
@@ -6714,7 +6729,7 @@
         <v>39</v>
       </c>
       <c r="F81" s="27">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="H81" s="5"/>
       <c r="P81" s="10"/>
@@ -6734,7 +6749,7 @@
         <v>26</v>
       </c>
       <c r="F82" s="26">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="H82" s="5"/>
       <c r="P82" s="10"/>
@@ -6754,7 +6769,7 @@
         <v>17</v>
       </c>
       <c r="F83" s="27">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H83" s="5"/>
       <c r="P83" s="10"/>
@@ -6774,7 +6789,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="26">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="H84" s="5"/>
       <c r="P84" s="10"/>
@@ -6794,7 +6809,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="43">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="H85" s="5"/>
       <c r="P85" s="10"/>
@@ -6814,7 +6829,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="26">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="H86" s="5"/>
       <c r="P86" s="10"/>
@@ -6834,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="27">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H87" s="5"/>
       <c r="P87" s="10"/>
@@ -6854,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="26">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H88" s="5"/>
       <c r="P88" s="10"/>
@@ -6874,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="27">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H89" s="5"/>
       <c r="P89" s="10"/>
@@ -6894,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H90" s="5"/>
       <c r="P90" s="10"/>
@@ -6914,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H91" s="5"/>
       <c r="P91" s="10"/>
@@ -6934,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H92" s="5"/>
       <c r="P92" s="10"/>
@@ -6954,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H93" s="5"/>
       <c r="P93" s="10"/>
@@ -6974,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" s="5"/>
       <c r="P94" s="10"/>
@@ -6994,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="5"/>
       <c r="P95" s="10"/>
